--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -418,22 +418,22 @@
         <v>0.02658300710354666</v>
       </c>
       <c r="D2">
-        <v>0.06908298251506295</v>
+        <v>0.06908298251504874</v>
       </c>
       <c r="E2">
-        <v>0.5433339547133968</v>
+        <v>0.5433339547133471</v>
       </c>
       <c r="F2">
         <v>1.605178122165981</v>
       </c>
       <c r="G2">
-        <v>1.108364401565879</v>
+        <v>1.108364401565893</v>
       </c>
       <c r="H2">
-        <v>1.098418421946988</v>
+        <v>1.098418421947017</v>
       </c>
       <c r="I2">
-        <v>0.3366506748748677</v>
+        <v>0.3366506748748321</v>
       </c>
       <c r="J2">
         <v>22.58416498588213</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02103832092715052</v>
+        <v>0.02103832092725355</v>
       </c>
       <c r="D3">
-        <v>0.05571819767214947</v>
+        <v>0.05571819767204289</v>
       </c>
       <c r="E3">
-        <v>0.4602639694837265</v>
+        <v>0.4602639694837194</v>
       </c>
       <c r="F3">
-        <v>1.280733897576042</v>
+        <v>1.280733897576027</v>
       </c>
       <c r="G3">
-        <v>0.8671011109588918</v>
+        <v>0.8671011109588846</v>
       </c>
       <c r="H3">
-        <v>0.8691037266906463</v>
+        <v>0.8691037266906392</v>
       </c>
       <c r="I3">
-        <v>0.2814029459504965</v>
+        <v>0.2814029459505036</v>
       </c>
       <c r="J3">
         <v>19.36646398928366</v>
@@ -494,25 +494,25 @@
         <v>0.01806589863867103</v>
       </c>
       <c r="D4">
-        <v>0.04833289935438501</v>
+        <v>0.0483328993545058</v>
       </c>
       <c r="E4">
-        <v>0.4116296345120318</v>
+        <v>0.411629634512046</v>
       </c>
       <c r="F4">
         <v>1.106968081451399</v>
       </c>
       <c r="G4">
-        <v>0.7399512532063497</v>
+        <v>0.7399512532063426</v>
       </c>
       <c r="H4">
-        <v>0.7470030094031301</v>
+        <v>0.7470030094031443</v>
       </c>
       <c r="I4">
         <v>0.2496355327403421</v>
       </c>
       <c r="J4">
-        <v>17.44744244599997</v>
+        <v>17.44744244600003</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01694061262536906</v>
+        <v>0.01694061262547919</v>
       </c>
       <c r="D5">
-        <v>0.04548628879435057</v>
+        <v>0.04548628879446426</v>
       </c>
       <c r="E5">
-        <v>0.392284867772382</v>
+        <v>0.3922848677723465</v>
       </c>
       <c r="F5">
-        <v>1.041358431682056</v>
+        <v>1.041358431682042</v>
       </c>
       <c r="G5">
         <v>0.6924237851039265</v>
       </c>
       <c r="H5">
-        <v>0.7010671879337309</v>
+        <v>0.7010671879337451</v>
       </c>
       <c r="I5">
-        <v>0.2371225628984774</v>
+        <v>0.2371225628984703</v>
       </c>
       <c r="J5">
-        <v>16.67647535366098</v>
+        <v>16.67647535366081</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01675838822222886</v>
+        <v>0.01675838822209741</v>
       </c>
       <c r="D6">
-        <v>0.04502236467086362</v>
+        <v>0.04502236467089915</v>
       </c>
       <c r="E6">
-        <v>0.389098229795664</v>
+        <v>0.3890982297956427</v>
       </c>
       <c r="F6">
-        <v>1.030747952530319</v>
+        <v>1.030747952530291</v>
       </c>
       <c r="G6">
         <v>0.6847658565931951</v>
       </c>
       <c r="H6">
-        <v>0.6936481520463644</v>
+        <v>0.6936481520463573</v>
       </c>
       <c r="I6">
-        <v>0.2350681581720977</v>
+        <v>0.2350681581720835</v>
       </c>
       <c r="J6">
-        <v>16.54904293409578</v>
+        <v>16.54904293409572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01805040060003194</v>
+        <v>0.01805040059991825</v>
       </c>
       <c r="D7">
-        <v>0.04829389950968022</v>
+        <v>0.04829389950967311</v>
       </c>
       <c r="E7">
-        <v>0.4113669672147111</v>
+        <v>0.4113669672147182</v>
       </c>
       <c r="F7">
         <v>1.106063581681283</v>
       </c>
       <c r="G7">
-        <v>0.7392940759770426</v>
+        <v>0.7392940759770354</v>
       </c>
       <c r="H7">
         <v>0.7463690574246513</v>
       </c>
       <c r="I7">
-        <v>0.2494651546675186</v>
+        <v>0.2494651546675257</v>
       </c>
       <c r="J7">
-        <v>17.43700392652238</v>
+        <v>17.43700392652232</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02456608672333616</v>
+        <v>0.0245660867233326</v>
       </c>
       <c r="D8">
-        <v>0.06427492114146816</v>
+        <v>0.06427492114163869</v>
       </c>
       <c r="E8">
-        <v>0.5141168218013092</v>
+        <v>0.5141168218012879</v>
       </c>
       <c r="F8">
         <v>1.48721799751138</v>
@@ -658,13 +658,13 @@
         <v>1.020149829789915</v>
       </c>
       <c r="H8">
-        <v>1.014872777875752</v>
+        <v>1.014872777875738</v>
       </c>
       <c r="I8">
-        <v>0.3170798919947586</v>
+        <v>0.3170798919947515</v>
       </c>
       <c r="J8">
-        <v>21.46078912410462</v>
+        <v>21.46078912410451</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04219501936384518</v>
+        <v>0.04219501936385939</v>
       </c>
       <c r="D9">
-        <v>0.1048355133841596</v>
+        <v>0.1048355133842662</v>
       </c>
       <c r="E9">
-        <v>0.7419124782070412</v>
+        <v>0.741912478207027</v>
       </c>
       <c r="F9">
-        <v>2.510469085543576</v>
+        <v>2.510469085543562</v>
       </c>
       <c r="G9">
-        <v>1.798679024444667</v>
+        <v>1.79867902444461</v>
       </c>
       <c r="H9">
-        <v>1.744208372304414</v>
+        <v>1.744208372304399</v>
       </c>
       <c r="I9">
-        <v>0.4735332539343418</v>
+        <v>0.4735332539343347</v>
       </c>
       <c r="J9">
         <v>29.99465865244156</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06120412461463332</v>
+        <v>0.06120412461451963</v>
       </c>
       <c r="D10">
-        <v>0.1460957936555829</v>
+        <v>0.1460957936556611</v>
       </c>
       <c r="E10">
-        <v>0.941156731769226</v>
+        <v>0.9411567317691976</v>
       </c>
       <c r="F10">
-        <v>3.58813839605746</v>
+        <v>3.588138396057602</v>
       </c>
       <c r="G10">
-        <v>2.640483471677157</v>
+        <v>2.640483471677243</v>
       </c>
       <c r="H10">
-        <v>2.519889096857014</v>
+        <v>2.519889096857085</v>
       </c>
       <c r="I10">
-        <v>0.6174864210581958</v>
+        <v>0.6174864210581674</v>
       </c>
       <c r="J10">
-        <v>37.05680518036047</v>
+        <v>37.05680518036075</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07248680526328855</v>
+        <v>0.07248680526318907</v>
       </c>
       <c r="D11">
-        <v>0.1698083024126689</v>
+        <v>0.1698083024126618</v>
       </c>
       <c r="E11">
-        <v>1.045261988000206</v>
+        <v>1.045261988000192</v>
       </c>
       <c r="F11">
-        <v>4.214901541981774</v>
+        <v>4.214901541981703</v>
       </c>
       <c r="G11">
-        <v>3.136729062968811</v>
+        <v>3.136729062968797</v>
       </c>
       <c r="H11">
-        <v>2.973295268345808</v>
+        <v>2.973295268345794</v>
       </c>
       <c r="I11">
-        <v>0.6953213696866243</v>
+        <v>0.695321369686603</v>
       </c>
       <c r="J11">
-        <v>40.60096878790966</v>
+        <v>40.60096878790961</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07734848699949026</v>
+        <v>0.07734848699959684</v>
       </c>
       <c r="D12">
-        <v>0.1798851312138368</v>
+        <v>0.1798851312139362</v>
       </c>
       <c r="E12">
         <v>1.087641485168803</v>
       </c>
       <c r="F12">
-        <v>4.48219091907815</v>
+        <v>4.482190919078135</v>
       </c>
       <c r="G12">
         <v>3.3495358605376</v>
       </c>
       <c r="H12">
-        <v>3.167053139697458</v>
+        <v>3.16705313969743</v>
       </c>
       <c r="I12">
-        <v>0.7275250334086678</v>
+        <v>0.7275250334087033</v>
       </c>
       <c r="J12">
         <v>42.0147896406703</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07627022239345393</v>
+        <v>0.07627022239335446</v>
       </c>
       <c r="D13">
         <v>0.1776569380441657</v>
       </c>
       <c r="E13">
-        <v>1.078358681587403</v>
+        <v>1.078358681587417</v>
       </c>
       <c r="F13">
-        <v>4.423049378736124</v>
+        <v>4.423049378736081</v>
       </c>
       <c r="G13">
-        <v>3.302393618472522</v>
+        <v>3.302393618472465</v>
       </c>
       <c r="H13">
-        <v>3.124162735478535</v>
+        <v>3.124162735478492</v>
       </c>
       <c r="I13">
-        <v>0.7204453788206351</v>
+        <v>0.7204453788206422</v>
       </c>
       <c r="J13">
-        <v>41.70655105208192</v>
+        <v>41.70655105208164</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07287323297212112</v>
+        <v>0.07287323297229165</v>
       </c>
       <c r="D14">
-        <v>0.1706121566304617</v>
+        <v>0.1706121566304688</v>
       </c>
       <c r="E14">
-        <v>1.048680944321958</v>
+        <v>1.04868094432193</v>
       </c>
       <c r="F14">
-        <v>4.236206701193282</v>
+        <v>4.236206701193296</v>
       </c>
       <c r="G14">
-        <v>3.153667354932153</v>
+        <v>3.153667354932139</v>
       </c>
       <c r="H14">
         <v>2.988731228035576</v>
       </c>
       <c r="I14">
-        <v>0.6979082334872118</v>
+        <v>0.6979082334871691</v>
       </c>
       <c r="J14">
-        <v>40.71565352724667</v>
+        <v>40.71565352724679</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07087790429952179</v>
+        <v>0.07087790429934415</v>
       </c>
       <c r="D15">
-        <v>0.1664558581693427</v>
+        <v>0.1664558581692361</v>
       </c>
       <c r="E15">
         <v>1.030929474766552</v>
       </c>
       <c r="F15">
-        <v>4.126084436034461</v>
+        <v>4.126084436034503</v>
       </c>
       <c r="G15">
-        <v>3.066163257639758</v>
+        <v>3.066163257639829</v>
       </c>
       <c r="H15">
-        <v>2.908961476087413</v>
+        <v>2.908961476087455</v>
       </c>
       <c r="I15">
-        <v>0.6844983232745037</v>
+        <v>0.684498323274525</v>
       </c>
       <c r="J15">
-        <v>40.11901262581625</v>
+        <v>40.11901262581654</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06053483388155456</v>
+        <v>0.0605348338814693</v>
       </c>
       <c r="D16">
-        <v>0.1446733197737444</v>
+        <v>0.1446733197735597</v>
       </c>
       <c r="E16">
-        <v>0.9346975413237004</v>
+        <v>0.934697541323672</v>
       </c>
       <c r="F16">
-        <v>3.550665665439453</v>
+        <v>3.550665665439439</v>
       </c>
       <c r="G16">
-        <v>2.610949442683179</v>
+        <v>2.61094944268315</v>
       </c>
       <c r="H16">
-        <v>2.492826999036168</v>
+        <v>2.492826999036154</v>
       </c>
       <c r="I16">
-        <v>0.6127165511643327</v>
+        <v>0.6127165511643184</v>
       </c>
       <c r="J16">
-        <v>36.83360256613543</v>
+        <v>36.83360256613548</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05497686965573934</v>
+        <v>0.05497686965579618</v>
       </c>
       <c r="D17">
-        <v>0.1327838666525949</v>
+        <v>0.1327838666527867</v>
       </c>
       <c r="E17">
         <v>0.8796610492132686</v>
       </c>
       <c r="F17">
-        <v>3.238174475671457</v>
+        <v>3.238174475671443</v>
       </c>
       <c r="G17">
-        <v>2.36532586942873</v>
+        <v>2.365325869428716</v>
       </c>
       <c r="H17">
-        <v>2.267379167901211</v>
+        <v>2.267379167901197</v>
       </c>
       <c r="I17">
-        <v>0.5723546791865886</v>
+        <v>0.5723546791865957</v>
       </c>
       <c r="J17">
-        <v>34.91617878020486</v>
+        <v>34.91617878020469</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05201078507803203</v>
+        <v>0.05201078507787571</v>
       </c>
       <c r="D18">
-        <v>0.1263788221973172</v>
+        <v>0.1263788221973314</v>
       </c>
       <c r="E18">
-        <v>0.8491895001989747</v>
+        <v>0.8491895001989604</v>
       </c>
       <c r="F18">
-        <v>3.070440804951843</v>
+        <v>3.070440804951829</v>
       </c>
       <c r="G18">
-        <v>2.234007908097979</v>
+        <v>2.234007908097993</v>
       </c>
       <c r="H18">
-        <v>2.146546519111183</v>
+        <v>2.146546519111155</v>
       </c>
       <c r="I18">
-        <v>0.5502236227086854</v>
+        <v>0.5502236227087138</v>
       </c>
       <c r="J18">
         <v>33.84258059948388</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05104168378498741</v>
+        <v>0.05104168378483109</v>
       </c>
       <c r="D19">
-        <v>0.1242763721546751</v>
+        <v>0.1242763721544975</v>
       </c>
       <c r="E19">
-        <v>0.8390538184387282</v>
+        <v>0.8390538184386855</v>
       </c>
       <c r="F19">
         <v>3.015489827279993</v>
       </c>
       <c r="G19">
-        <v>2.191072421758179</v>
+        <v>2.191072421758165</v>
       </c>
       <c r="H19">
-        <v>2.106990036237164</v>
+        <v>2.10699003623715</v>
       </c>
       <c r="I19">
-        <v>0.5428962776028641</v>
+        <v>0.5428962776028854</v>
       </c>
       <c r="J19">
-        <v>33.48357642511309</v>
+        <v>33.48357642511286</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05554352926793626</v>
+        <v>0.05554352926760942</v>
       </c>
       <c r="D20">
-        <v>0.1340025910534166</v>
+        <v>0.13400259105331</v>
       </c>
       <c r="E20">
         <v>0.8853917643014029</v>
       </c>
       <c r="F20">
-        <v>3.270142186274839</v>
+        <v>3.270142186274782</v>
       </c>
       <c r="G20">
-        <v>2.390396275347072</v>
+        <v>2.39039627534703</v>
       </c>
       <c r="H20">
-        <v>2.290422950771145</v>
+        <v>2.290422950771131</v>
       </c>
       <c r="I20">
-        <v>0.5765339868539172</v>
+        <v>0.576533986853903</v>
       </c>
       <c r="J20">
-        <v>35.11713286186381</v>
+        <v>35.11713286186364</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07385260199573196</v>
+        <v>0.07385260199554722</v>
       </c>
       <c r="D21">
-        <v>0.1726471713693414</v>
+        <v>0.1726471713692419</v>
       </c>
       <c r="E21">
-        <v>1.057306115212882</v>
+        <v>1.057306115212853</v>
       </c>
       <c r="F21">
-        <v>4.290156246950389</v>
+        <v>4.290156246950431</v>
       </c>
       <c r="G21">
-        <v>3.196578054205801</v>
+        <v>3.196578054205858</v>
       </c>
       <c r="H21">
-        <v>3.027825042006796</v>
+        <v>3.027825042006825</v>
       </c>
       <c r="I21">
-        <v>0.704442937253404</v>
+        <v>0.7044429372534182</v>
       </c>
       <c r="J21">
-        <v>41.00448795521174</v>
+        <v>41.00448795521191</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08949112106272139</v>
+        <v>0.0894911210627356</v>
       </c>
       <c r="D22">
-        <v>0.2047332073902055</v>
+        <v>0.2047332073904116</v>
       </c>
       <c r="E22">
         <v>1.188035519696214</v>
       </c>
       <c r="F22">
-        <v>5.142878167973322</v>
+        <v>5.142878167973095</v>
       </c>
       <c r="G22">
-        <v>3.878156669602333</v>
+        <v>3.878156669602149</v>
       </c>
       <c r="H22">
-        <v>3.646856287505841</v>
+        <v>3.646856287505699</v>
       </c>
       <c r="I22">
-        <v>0.8050202539676903</v>
+        <v>0.8050202539676832</v>
       </c>
       <c r="J22">
-        <v>45.29602944358635</v>
+        <v>45.29602944358578</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08069142119620665</v>
+        <v>0.0806914211964056</v>
       </c>
       <c r="D23">
-        <v>0.1867697750641781</v>
+        <v>0.1867697750641</v>
       </c>
       <c r="E23">
-        <v>1.116019751850246</v>
+        <v>1.11601975185026</v>
       </c>
       <c r="F23">
         <v>4.665047864525036</v>
       </c>
       <c r="G23">
-        <v>3.495484871389777</v>
+        <v>3.495484871389792</v>
       </c>
       <c r="H23">
         <v>3.299728378509514</v>
       </c>
       <c r="I23">
-        <v>0.749257956925895</v>
+        <v>0.7492579569259092</v>
       </c>
       <c r="J23">
-        <v>42.95204698453676</v>
+        <v>42.95204698453688</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05528664180764054</v>
+        <v>0.05528664180737763</v>
       </c>
       <c r="D24">
-        <v>0.1334502901041787</v>
+        <v>0.1334502901041859</v>
       </c>
       <c r="E24">
         <v>0.882797330412032</v>
       </c>
       <c r="F24">
-        <v>3.255653113940085</v>
+        <v>3.255653113940014</v>
       </c>
       <c r="G24">
-        <v>2.379031678553687</v>
+        <v>2.379031678553645</v>
       </c>
       <c r="H24">
-        <v>2.279977996552432</v>
+        <v>2.279977996552375</v>
       </c>
       <c r="I24">
-        <v>0.5746412392279368</v>
+        <v>0.5746412392279225</v>
       </c>
       <c r="J24">
-        <v>35.02619352207029</v>
+        <v>35.02619352207012</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03666182483433289</v>
+        <v>0.03666182483431868</v>
       </c>
       <c r="D25">
-        <v>0.09241170876366311</v>
+        <v>0.09241170876354943</v>
       </c>
       <c r="E25">
-        <v>0.6761996362750153</v>
+        <v>0.6761996362750367</v>
       </c>
       <c r="F25">
-        <v>2.191530416601495</v>
+        <v>2.191530416601438</v>
       </c>
       <c r="G25">
-        <v>1.553237042165037</v>
+        <v>1.553237042164994</v>
       </c>
       <c r="H25">
-        <v>1.515916829551301</v>
+        <v>1.515916829551259</v>
       </c>
       <c r="I25">
-        <v>0.427500728960851</v>
+        <v>0.4275007289608723</v>
       </c>
       <c r="J25">
-        <v>27.584540093344</v>
+        <v>27.58454009334383</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -418,22 +418,22 @@
         <v>0.02658300710354666</v>
       </c>
       <c r="D2">
-        <v>0.06908298251504874</v>
+        <v>0.06908298251506295</v>
       </c>
       <c r="E2">
-        <v>0.5433339547133471</v>
+        <v>0.5433339547133968</v>
       </c>
       <c r="F2">
         <v>1.605178122165981</v>
       </c>
       <c r="G2">
-        <v>1.108364401565893</v>
+        <v>1.108364401565879</v>
       </c>
       <c r="H2">
-        <v>1.098418421947017</v>
+        <v>1.098418421946988</v>
       </c>
       <c r="I2">
-        <v>0.3366506748748321</v>
+        <v>0.3366506748748677</v>
       </c>
       <c r="J2">
         <v>22.58416498588213</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02103832092725355</v>
+        <v>0.02103832092715052</v>
       </c>
       <c r="D3">
-        <v>0.05571819767204289</v>
+        <v>0.05571819767214947</v>
       </c>
       <c r="E3">
-        <v>0.4602639694837194</v>
+        <v>0.4602639694837265</v>
       </c>
       <c r="F3">
-        <v>1.280733897576027</v>
+        <v>1.280733897576042</v>
       </c>
       <c r="G3">
-        <v>0.8671011109588846</v>
+        <v>0.8671011109588918</v>
       </c>
       <c r="H3">
-        <v>0.8691037266906392</v>
+        <v>0.8691037266906463</v>
       </c>
       <c r="I3">
-        <v>0.2814029459505036</v>
+        <v>0.2814029459504965</v>
       </c>
       <c r="J3">
         <v>19.36646398928366</v>
@@ -494,25 +494,25 @@
         <v>0.01806589863867103</v>
       </c>
       <c r="D4">
-        <v>0.0483328993545058</v>
+        <v>0.04833289935438501</v>
       </c>
       <c r="E4">
-        <v>0.411629634512046</v>
+        <v>0.4116296345120318</v>
       </c>
       <c r="F4">
         <v>1.106968081451399</v>
       </c>
       <c r="G4">
-        <v>0.7399512532063426</v>
+        <v>0.7399512532063497</v>
       </c>
       <c r="H4">
-        <v>0.7470030094031443</v>
+        <v>0.7470030094031301</v>
       </c>
       <c r="I4">
         <v>0.2496355327403421</v>
       </c>
       <c r="J4">
-        <v>17.44744244600003</v>
+        <v>17.44744244599997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01694061262547919</v>
+        <v>0.01694061262536906</v>
       </c>
       <c r="D5">
-        <v>0.04548628879446426</v>
+        <v>0.04548628879435057</v>
       </c>
       <c r="E5">
-        <v>0.3922848677723465</v>
+        <v>0.392284867772382</v>
       </c>
       <c r="F5">
-        <v>1.041358431682042</v>
+        <v>1.041358431682056</v>
       </c>
       <c r="G5">
         <v>0.6924237851039265</v>
       </c>
       <c r="H5">
-        <v>0.7010671879337451</v>
+        <v>0.7010671879337309</v>
       </c>
       <c r="I5">
-        <v>0.2371225628984703</v>
+        <v>0.2371225628984774</v>
       </c>
       <c r="J5">
-        <v>16.67647535366081</v>
+        <v>16.67647535366098</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01675838822209741</v>
+        <v>0.01675838822222886</v>
       </c>
       <c r="D6">
-        <v>0.04502236467089915</v>
+        <v>0.04502236467086362</v>
       </c>
       <c r="E6">
-        <v>0.3890982297956427</v>
+        <v>0.389098229795664</v>
       </c>
       <c r="F6">
-        <v>1.030747952530291</v>
+        <v>1.030747952530319</v>
       </c>
       <c r="G6">
         <v>0.6847658565931951</v>
       </c>
       <c r="H6">
-        <v>0.6936481520463573</v>
+        <v>0.6936481520463644</v>
       </c>
       <c r="I6">
-        <v>0.2350681581720835</v>
+        <v>0.2350681581720977</v>
       </c>
       <c r="J6">
-        <v>16.54904293409572</v>
+        <v>16.54904293409578</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01805040059991825</v>
+        <v>0.01805040060003194</v>
       </c>
       <c r="D7">
-        <v>0.04829389950967311</v>
+        <v>0.04829389950968022</v>
       </c>
       <c r="E7">
-        <v>0.4113669672147182</v>
+        <v>0.4113669672147111</v>
       </c>
       <c r="F7">
         <v>1.106063581681283</v>
       </c>
       <c r="G7">
-        <v>0.7392940759770354</v>
+        <v>0.7392940759770426</v>
       </c>
       <c r="H7">
         <v>0.7463690574246513</v>
       </c>
       <c r="I7">
-        <v>0.2494651546675257</v>
+        <v>0.2494651546675186</v>
       </c>
       <c r="J7">
-        <v>17.43700392652232</v>
+        <v>17.43700392652238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0245660867233326</v>
+        <v>0.02456608672333616</v>
       </c>
       <c r="D8">
-        <v>0.06427492114163869</v>
+        <v>0.06427492114146816</v>
       </c>
       <c r="E8">
-        <v>0.5141168218012879</v>
+        <v>0.5141168218013092</v>
       </c>
       <c r="F8">
         <v>1.48721799751138</v>
@@ -658,13 +658,13 @@
         <v>1.020149829789915</v>
       </c>
       <c r="H8">
-        <v>1.014872777875738</v>
+        <v>1.014872777875752</v>
       </c>
       <c r="I8">
-        <v>0.3170798919947515</v>
+        <v>0.3170798919947586</v>
       </c>
       <c r="J8">
-        <v>21.46078912410451</v>
+        <v>21.46078912410462</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04219501936385939</v>
+        <v>0.04219501936384518</v>
       </c>
       <c r="D9">
-        <v>0.1048355133842662</v>
+        <v>0.1048355133841596</v>
       </c>
       <c r="E9">
-        <v>0.741912478207027</v>
+        <v>0.7419124782070412</v>
       </c>
       <c r="F9">
-        <v>2.510469085543562</v>
+        <v>2.510469085543576</v>
       </c>
       <c r="G9">
-        <v>1.79867902444461</v>
+        <v>1.798679024444667</v>
       </c>
       <c r="H9">
-        <v>1.744208372304399</v>
+        <v>1.744208372304414</v>
       </c>
       <c r="I9">
-        <v>0.4735332539343347</v>
+        <v>0.4735332539343418</v>
       </c>
       <c r="J9">
         <v>29.99465865244156</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06120412461451963</v>
+        <v>0.06120412461463332</v>
       </c>
       <c r="D10">
-        <v>0.1460957936556611</v>
+        <v>0.1460957936555829</v>
       </c>
       <c r="E10">
-        <v>0.9411567317691976</v>
+        <v>0.941156731769226</v>
       </c>
       <c r="F10">
-        <v>3.588138396057602</v>
+        <v>3.58813839605746</v>
       </c>
       <c r="G10">
-        <v>2.640483471677243</v>
+        <v>2.640483471677157</v>
       </c>
       <c r="H10">
-        <v>2.519889096857085</v>
+        <v>2.519889096857014</v>
       </c>
       <c r="I10">
-        <v>0.6174864210581674</v>
+        <v>0.6174864210581958</v>
       </c>
       <c r="J10">
-        <v>37.05680518036075</v>
+        <v>37.05680518036047</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07248680526318907</v>
+        <v>0.07248680526328855</v>
       </c>
       <c r="D11">
-        <v>0.1698083024126618</v>
+        <v>0.1698083024126689</v>
       </c>
       <c r="E11">
-        <v>1.045261988000192</v>
+        <v>1.045261988000206</v>
       </c>
       <c r="F11">
-        <v>4.214901541981703</v>
+        <v>4.214901541981774</v>
       </c>
       <c r="G11">
-        <v>3.136729062968797</v>
+        <v>3.136729062968811</v>
       </c>
       <c r="H11">
-        <v>2.973295268345794</v>
+        <v>2.973295268345808</v>
       </c>
       <c r="I11">
-        <v>0.695321369686603</v>
+        <v>0.6953213696866243</v>
       </c>
       <c r="J11">
-        <v>40.60096878790961</v>
+        <v>40.60096878790966</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07734848699959684</v>
+        <v>0.07734848699949026</v>
       </c>
       <c r="D12">
-        <v>0.1798851312139362</v>
+        <v>0.1798851312138368</v>
       </c>
       <c r="E12">
         <v>1.087641485168803</v>
       </c>
       <c r="F12">
-        <v>4.482190919078135</v>
+        <v>4.48219091907815</v>
       </c>
       <c r="G12">
         <v>3.3495358605376</v>
       </c>
       <c r="H12">
-        <v>3.16705313969743</v>
+        <v>3.167053139697458</v>
       </c>
       <c r="I12">
-        <v>0.7275250334087033</v>
+        <v>0.7275250334086678</v>
       </c>
       <c r="J12">
         <v>42.0147896406703</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07627022239335446</v>
+        <v>0.07627022239345393</v>
       </c>
       <c r="D13">
         <v>0.1776569380441657</v>
       </c>
       <c r="E13">
-        <v>1.078358681587417</v>
+        <v>1.078358681587403</v>
       </c>
       <c r="F13">
-        <v>4.423049378736081</v>
+        <v>4.423049378736124</v>
       </c>
       <c r="G13">
-        <v>3.302393618472465</v>
+        <v>3.302393618472522</v>
       </c>
       <c r="H13">
-        <v>3.124162735478492</v>
+        <v>3.124162735478535</v>
       </c>
       <c r="I13">
-        <v>0.7204453788206422</v>
+        <v>0.7204453788206351</v>
       </c>
       <c r="J13">
-        <v>41.70655105208164</v>
+        <v>41.70655105208192</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07287323297229165</v>
+        <v>0.07287323297212112</v>
       </c>
       <c r="D14">
-        <v>0.1706121566304688</v>
+        <v>0.1706121566304617</v>
       </c>
       <c r="E14">
-        <v>1.04868094432193</v>
+        <v>1.048680944321958</v>
       </c>
       <c r="F14">
-        <v>4.236206701193296</v>
+        <v>4.236206701193282</v>
       </c>
       <c r="G14">
-        <v>3.153667354932139</v>
+        <v>3.153667354932153</v>
       </c>
       <c r="H14">
         <v>2.988731228035576</v>
       </c>
       <c r="I14">
-        <v>0.6979082334871691</v>
+        <v>0.6979082334872118</v>
       </c>
       <c r="J14">
-        <v>40.71565352724679</v>
+        <v>40.71565352724667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07087790429934415</v>
+        <v>0.07087790429952179</v>
       </c>
       <c r="D15">
-        <v>0.1664558581692361</v>
+        <v>0.1664558581693427</v>
       </c>
       <c r="E15">
         <v>1.030929474766552</v>
       </c>
       <c r="F15">
-        <v>4.126084436034503</v>
+        <v>4.126084436034461</v>
       </c>
       <c r="G15">
-        <v>3.066163257639829</v>
+        <v>3.066163257639758</v>
       </c>
       <c r="H15">
-        <v>2.908961476087455</v>
+        <v>2.908961476087413</v>
       </c>
       <c r="I15">
-        <v>0.684498323274525</v>
+        <v>0.6844983232745037</v>
       </c>
       <c r="J15">
-        <v>40.11901262581654</v>
+        <v>40.11901262581625</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0605348338814693</v>
+        <v>0.06053483388155456</v>
       </c>
       <c r="D16">
-        <v>0.1446733197735597</v>
+        <v>0.1446733197737444</v>
       </c>
       <c r="E16">
-        <v>0.934697541323672</v>
+        <v>0.9346975413237004</v>
       </c>
       <c r="F16">
-        <v>3.550665665439439</v>
+        <v>3.550665665439453</v>
       </c>
       <c r="G16">
-        <v>2.61094944268315</v>
+        <v>2.610949442683179</v>
       </c>
       <c r="H16">
-        <v>2.492826999036154</v>
+        <v>2.492826999036168</v>
       </c>
       <c r="I16">
-        <v>0.6127165511643184</v>
+        <v>0.6127165511643327</v>
       </c>
       <c r="J16">
-        <v>36.83360256613548</v>
+        <v>36.83360256613543</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05497686965579618</v>
+        <v>0.05497686965573934</v>
       </c>
       <c r="D17">
-        <v>0.1327838666527867</v>
+        <v>0.1327838666525949</v>
       </c>
       <c r="E17">
         <v>0.8796610492132686</v>
       </c>
       <c r="F17">
-        <v>3.238174475671443</v>
+        <v>3.238174475671457</v>
       </c>
       <c r="G17">
-        <v>2.365325869428716</v>
+        <v>2.36532586942873</v>
       </c>
       <c r="H17">
-        <v>2.267379167901197</v>
+        <v>2.267379167901211</v>
       </c>
       <c r="I17">
-        <v>0.5723546791865957</v>
+        <v>0.5723546791865886</v>
       </c>
       <c r="J17">
-        <v>34.91617878020469</v>
+        <v>34.91617878020486</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05201078507787571</v>
+        <v>0.05201078507803203</v>
       </c>
       <c r="D18">
-        <v>0.1263788221973314</v>
+        <v>0.1263788221973172</v>
       </c>
       <c r="E18">
-        <v>0.8491895001989604</v>
+        <v>0.8491895001989747</v>
       </c>
       <c r="F18">
-        <v>3.070440804951829</v>
+        <v>3.070440804951843</v>
       </c>
       <c r="G18">
-        <v>2.234007908097993</v>
+        <v>2.234007908097979</v>
       </c>
       <c r="H18">
-        <v>2.146546519111155</v>
+        <v>2.146546519111183</v>
       </c>
       <c r="I18">
-        <v>0.5502236227087138</v>
+        <v>0.5502236227086854</v>
       </c>
       <c r="J18">
         <v>33.84258059948388</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05104168378483109</v>
+        <v>0.05104168378498741</v>
       </c>
       <c r="D19">
-        <v>0.1242763721544975</v>
+        <v>0.1242763721546751</v>
       </c>
       <c r="E19">
-        <v>0.8390538184386855</v>
+        <v>0.8390538184387282</v>
       </c>
       <c r="F19">
         <v>3.015489827279993</v>
       </c>
       <c r="G19">
-        <v>2.191072421758165</v>
+        <v>2.191072421758179</v>
       </c>
       <c r="H19">
-        <v>2.10699003623715</v>
+        <v>2.106990036237164</v>
       </c>
       <c r="I19">
-        <v>0.5428962776028854</v>
+        <v>0.5428962776028641</v>
       </c>
       <c r="J19">
-        <v>33.48357642511286</v>
+        <v>33.48357642511309</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05554352926760942</v>
+        <v>0.05554352926793626</v>
       </c>
       <c r="D20">
-        <v>0.13400259105331</v>
+        <v>0.1340025910534166</v>
       </c>
       <c r="E20">
         <v>0.8853917643014029</v>
       </c>
       <c r="F20">
-        <v>3.270142186274782</v>
+        <v>3.270142186274839</v>
       </c>
       <c r="G20">
-        <v>2.39039627534703</v>
+        <v>2.390396275347072</v>
       </c>
       <c r="H20">
-        <v>2.290422950771131</v>
+        <v>2.290422950771145</v>
       </c>
       <c r="I20">
-        <v>0.576533986853903</v>
+        <v>0.5765339868539172</v>
       </c>
       <c r="J20">
-        <v>35.11713286186364</v>
+        <v>35.11713286186381</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07385260199554722</v>
+        <v>0.07385260199573196</v>
       </c>
       <c r="D21">
-        <v>0.1726471713692419</v>
+        <v>0.1726471713693414</v>
       </c>
       <c r="E21">
-        <v>1.057306115212853</v>
+        <v>1.057306115212882</v>
       </c>
       <c r="F21">
-        <v>4.290156246950431</v>
+        <v>4.290156246950389</v>
       </c>
       <c r="G21">
-        <v>3.196578054205858</v>
+        <v>3.196578054205801</v>
       </c>
       <c r="H21">
-        <v>3.027825042006825</v>
+        <v>3.027825042006796</v>
       </c>
       <c r="I21">
-        <v>0.7044429372534182</v>
+        <v>0.704442937253404</v>
       </c>
       <c r="J21">
-        <v>41.00448795521191</v>
+        <v>41.00448795521174</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0894911210627356</v>
+        <v>0.08949112106272139</v>
       </c>
       <c r="D22">
-        <v>0.2047332073904116</v>
+        <v>0.2047332073902055</v>
       </c>
       <c r="E22">
         <v>1.188035519696214</v>
       </c>
       <c r="F22">
-        <v>5.142878167973095</v>
+        <v>5.142878167973322</v>
       </c>
       <c r="G22">
-        <v>3.878156669602149</v>
+        <v>3.878156669602333</v>
       </c>
       <c r="H22">
-        <v>3.646856287505699</v>
+        <v>3.646856287505841</v>
       </c>
       <c r="I22">
-        <v>0.8050202539676832</v>
+        <v>0.8050202539676903</v>
       </c>
       <c r="J22">
-        <v>45.29602944358578</v>
+        <v>45.29602944358635</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0806914211964056</v>
+        <v>0.08069142119620665</v>
       </c>
       <c r="D23">
-        <v>0.1867697750641</v>
+        <v>0.1867697750641781</v>
       </c>
       <c r="E23">
-        <v>1.11601975185026</v>
+        <v>1.116019751850246</v>
       </c>
       <c r="F23">
         <v>4.665047864525036</v>
       </c>
       <c r="G23">
-        <v>3.495484871389792</v>
+        <v>3.495484871389777</v>
       </c>
       <c r="H23">
         <v>3.299728378509514</v>
       </c>
       <c r="I23">
-        <v>0.7492579569259092</v>
+        <v>0.749257956925895</v>
       </c>
       <c r="J23">
-        <v>42.95204698453688</v>
+        <v>42.95204698453676</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05528664180737763</v>
+        <v>0.05528664180764054</v>
       </c>
       <c r="D24">
-        <v>0.1334502901041859</v>
+        <v>0.1334502901041787</v>
       </c>
       <c r="E24">
         <v>0.882797330412032</v>
       </c>
       <c r="F24">
-        <v>3.255653113940014</v>
+        <v>3.255653113940085</v>
       </c>
       <c r="G24">
-        <v>2.379031678553645</v>
+        <v>2.379031678553687</v>
       </c>
       <c r="H24">
-        <v>2.279977996552375</v>
+        <v>2.279977996552432</v>
       </c>
       <c r="I24">
-        <v>0.5746412392279225</v>
+        <v>0.5746412392279368</v>
       </c>
       <c r="J24">
-        <v>35.02619352207012</v>
+        <v>35.02619352207029</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03666182483431868</v>
+        <v>0.03666182483433289</v>
       </c>
       <c r="D25">
-        <v>0.09241170876354943</v>
+        <v>0.09241170876366311</v>
       </c>
       <c r="E25">
-        <v>0.6761996362750367</v>
+        <v>0.6761996362750153</v>
       </c>
       <c r="F25">
-        <v>2.191530416601438</v>
+        <v>2.191530416601495</v>
       </c>
       <c r="G25">
-        <v>1.553237042164994</v>
+        <v>1.553237042165037</v>
       </c>
       <c r="H25">
-        <v>1.515916829551259</v>
+        <v>1.515916829551301</v>
       </c>
       <c r="I25">
-        <v>0.4275007289608723</v>
+        <v>0.427500728960851</v>
       </c>
       <c r="J25">
-        <v>27.58454009334383</v>
+        <v>27.584540093344</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02658300710354666</v>
+        <v>0.02660430275441783</v>
       </c>
       <c r="D2">
-        <v>0.06908298251506295</v>
+        <v>0.06912555487757999</v>
       </c>
       <c r="E2">
-        <v>0.5433339547133968</v>
+        <v>0.5433289242199564</v>
       </c>
       <c r="F2">
-        <v>1.605178122165981</v>
+        <v>1.602885123810111</v>
       </c>
       <c r="G2">
-        <v>1.108364401565879</v>
+        <v>0.3991274864897605</v>
       </c>
       <c r="H2">
-        <v>1.098418421946988</v>
+        <v>0.7106868975587872</v>
       </c>
       <c r="I2">
-        <v>0.3366506748748677</v>
+        <v>1.096723597476753</v>
       </c>
       <c r="J2">
-        <v>22.58416498588213</v>
+        <v>0.3365388779258183</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.58230036077208</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02103832092715052</v>
+        <v>0.02106328023595694</v>
       </c>
       <c r="D3">
-        <v>0.05571819767214947</v>
+        <v>0.05576930108507838</v>
       </c>
       <c r="E3">
-        <v>0.4602639694837265</v>
+        <v>0.4602728203270772</v>
       </c>
       <c r="F3">
-        <v>1.280733897576042</v>
+        <v>1.278959666831412</v>
       </c>
       <c r="G3">
-        <v>0.8671011109588918</v>
+        <v>0.3113932500347687</v>
       </c>
       <c r="H3">
-        <v>0.8691037266906463</v>
+        <v>0.5578698069762638</v>
       </c>
       <c r="I3">
-        <v>0.2814029459504965</v>
+        <v>0.8677962044372265</v>
       </c>
       <c r="J3">
-        <v>19.36646398928366</v>
+        <v>0.2813192715853461</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.36522190777026</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01806589863867103</v>
+        <v>0.0180918325446271</v>
       </c>
       <c r="D4">
-        <v>0.04833289935438501</v>
+        <v>0.04838666062379815</v>
       </c>
       <c r="E4">
-        <v>0.4116296345120318</v>
+        <v>0.4116441512725117</v>
       </c>
       <c r="F4">
-        <v>1.106968081451399</v>
+        <v>1.105461249404627</v>
       </c>
       <c r="G4">
-        <v>0.7399512532063497</v>
+        <v>0.2645407200678562</v>
       </c>
       <c r="H4">
-        <v>0.7470030094031301</v>
+        <v>0.4779483845877834</v>
       </c>
       <c r="I4">
-        <v>0.2496355327403421</v>
+        <v>0.74589489201162</v>
       </c>
       <c r="J4">
-        <v>17.44744244599997</v>
+        <v>0.2495660350786437</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.44650227921085</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01694061262536906</v>
+        <v>0.01696669454003441</v>
       </c>
       <c r="D5">
-        <v>0.04548628879435057</v>
+        <v>0.04554062759189748</v>
       </c>
       <c r="E5">
-        <v>0.392284867772382</v>
+        <v>0.3923011697909757</v>
       </c>
       <c r="F5">
-        <v>1.041358431682056</v>
+        <v>1.039950741085448</v>
       </c>
       <c r="G5">
-        <v>0.6924237851039265</v>
+        <v>0.2468762124363693</v>
       </c>
       <c r="H5">
-        <v>0.7010671879337309</v>
+        <v>0.4482266724746893</v>
       </c>
       <c r="I5">
-        <v>0.2371225628984774</v>
+        <v>0.700032941308649</v>
       </c>
       <c r="J5">
-        <v>16.67647535366098</v>
+        <v>0.2370582698323105</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.67564315294885</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01675838822222886</v>
+        <v>0.01678448138171618</v>
       </c>
       <c r="D6">
-        <v>0.04502236467086362</v>
+        <v>0.04507677229074147</v>
       </c>
       <c r="E6">
-        <v>0.389098229795664</v>
+        <v>0.3891148011664356</v>
       </c>
       <c r="F6">
-        <v>1.030747952530319</v>
+        <v>1.029356203311551</v>
       </c>
       <c r="G6">
-        <v>0.6847658565931951</v>
+        <v>0.2440208234995112</v>
       </c>
       <c r="H6">
-        <v>0.6936481520463644</v>
+        <v>0.443446950212774</v>
       </c>
       <c r="I6">
-        <v>0.2350681581720977</v>
+        <v>0.692625779631534</v>
       </c>
       <c r="J6">
-        <v>16.54904293409578</v>
+        <v>0.2350046995443691</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.54822787258257</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01805040060003194</v>
+        <v>0.01807633743090875</v>
       </c>
       <c r="D7">
-        <v>0.04829389950968022</v>
+        <v>0.04834767045390009</v>
       </c>
       <c r="E7">
-        <v>0.4113669672147111</v>
+        <v>0.4113815099599663</v>
       </c>
       <c r="F7">
-        <v>1.106063581681283</v>
+        <v>1.104558123101597</v>
       </c>
       <c r="G7">
-        <v>0.7392940759770426</v>
+        <v>0.2642970988675373</v>
       </c>
       <c r="H7">
-        <v>0.7463690574246513</v>
+        <v>0.4775367779086324</v>
       </c>
       <c r="I7">
-        <v>0.2494651546675186</v>
+        <v>0.745261963669634</v>
       </c>
       <c r="J7">
-        <v>17.43700392652238</v>
+        <v>0.2493957292909741</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.43606527114173</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02456608672333616</v>
+        <v>0.0245889604711742</v>
       </c>
       <c r="D8">
-        <v>0.06427492114146816</v>
+        <v>0.06432107093432649</v>
       </c>
       <c r="E8">
-        <v>0.5141168218013092</v>
+        <v>0.5141173107839023</v>
       </c>
       <c r="F8">
-        <v>1.48721799751138</v>
+        <v>1.485116621012921</v>
       </c>
       <c r="G8">
-        <v>1.020149829789915</v>
+        <v>0.3671926324354189</v>
       </c>
       <c r="H8">
-        <v>1.014872777875752</v>
+        <v>0.6546677949388027</v>
       </c>
       <c r="I8">
-        <v>0.3170798919947586</v>
+        <v>1.013321065249102</v>
       </c>
       <c r="J8">
-        <v>21.46078912410462</v>
+        <v>0.3169785797299909</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.45915947459486</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04219501936384518</v>
+        <v>0.04219682480344034</v>
       </c>
       <c r="D9">
-        <v>0.1048355133841596</v>
+        <v>0.1048364431401652</v>
       </c>
       <c r="E9">
-        <v>0.7419124782070412</v>
+        <v>0.7418483580065782</v>
       </c>
       <c r="F9">
-        <v>2.510469085543576</v>
+        <v>2.506581583258296</v>
       </c>
       <c r="G9">
-        <v>1.798679024444667</v>
+        <v>0.6454225400234748</v>
       </c>
       <c r="H9">
-        <v>1.744208372304414</v>
+        <v>1.152620451753279</v>
       </c>
       <c r="I9">
-        <v>0.4735332539343418</v>
+        <v>1.74132178516065</v>
       </c>
       <c r="J9">
-        <v>29.99465865244156</v>
+        <v>0.4733299772052675</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>29.99067023715082</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06120412461463332</v>
+        <v>0.06116878007760107</v>
       </c>
       <c r="D10">
-        <v>0.1460957936555829</v>
+        <v>0.1460206901599292</v>
       </c>
       <c r="E10">
-        <v>0.941156731769226</v>
+        <v>0.9409832990634754</v>
       </c>
       <c r="F10">
-        <v>3.58813839605746</v>
+        <v>3.582020726536157</v>
       </c>
       <c r="G10">
-        <v>2.640483471677157</v>
+        <v>0.9408262659982398</v>
       </c>
       <c r="H10">
-        <v>2.519889096857014</v>
+        <v>1.696282334326099</v>
       </c>
       <c r="I10">
-        <v>0.6174864210581958</v>
+        <v>2.515335824919916</v>
       </c>
       <c r="J10">
-        <v>37.05680518036047</v>
+        <v>0.6171440564068718</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>37.04951244680495</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07248680526328855</v>
+        <v>0.07242332162001475</v>
       </c>
       <c r="D11">
-        <v>0.1698083024126689</v>
+        <v>0.1696768206545372</v>
       </c>
       <c r="E11">
-        <v>1.045261988000206</v>
+        <v>1.045003089035504</v>
       </c>
       <c r="F11">
-        <v>4.214901541981774</v>
+        <v>4.207283042967248</v>
       </c>
       <c r="G11">
-        <v>3.136729062968811</v>
+        <v>1.11347873474017</v>
       </c>
       <c r="H11">
-        <v>2.973295268345808</v>
+        <v>2.018117979959996</v>
       </c>
       <c r="I11">
-        <v>0.6953213696866243</v>
+        <v>2.967621350390786</v>
       </c>
       <c r="J11">
-        <v>40.60096878790966</v>
+        <v>0.6948792979394298</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>40.5913105367361</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07734848699949026</v>
+        <v>0.07727147304270687</v>
       </c>
       <c r="D12">
-        <v>0.1798851312138368</v>
+        <v>0.1797267973712948</v>
       </c>
       <c r="E12">
-        <v>1.087641485168803</v>
+        <v>1.087340525566759</v>
       </c>
       <c r="F12">
-        <v>4.48219091907815</v>
+        <v>4.473878349586542</v>
       </c>
       <c r="G12">
-        <v>3.3495358605376</v>
+        <v>1.187266366136853</v>
       </c>
       <c r="H12">
-        <v>3.167053139697458</v>
+        <v>2.156343356952178</v>
       </c>
       <c r="I12">
-        <v>0.7275250334086678</v>
+        <v>3.160861287399499</v>
       </c>
       <c r="J12">
-        <v>42.0147896406703</v>
+        <v>0.7270354094385425</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>42.00400865646196</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07627022239345393</v>
+        <v>0.07619628404297174</v>
       </c>
       <c r="D13">
-        <v>0.1776569380441657</v>
+        <v>0.177504695038138</v>
       </c>
       <c r="E13">
-        <v>1.078358681587403</v>
+        <v>1.078067337774954</v>
       </c>
       <c r="F13">
-        <v>4.423049378736124</v>
+        <v>4.414893386787739</v>
       </c>
       <c r="G13">
-        <v>3.302393618472522</v>
+        <v>1.170932236234989</v>
       </c>
       <c r="H13">
-        <v>3.124162735478535</v>
+        <v>2.125713355023549</v>
       </c>
       <c r="I13">
-        <v>0.7204453788206351</v>
+        <v>3.118087707764502</v>
       </c>
       <c r="J13">
-        <v>41.70655105208192</v>
+        <v>0.7199665571933309</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>41.69602475939939</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07287323297212112</v>
+        <v>0.07280870535733897</v>
       </c>
       <c r="D14">
-        <v>0.1706121566304617</v>
+        <v>0.1704785976237702</v>
       </c>
       <c r="E14">
-        <v>1.048680944321958</v>
+        <v>1.048418822367708</v>
       </c>
       <c r="F14">
-        <v>4.236206701193282</v>
+        <v>4.228534135706539</v>
       </c>
       <c r="G14">
-        <v>3.153667354932153</v>
+        <v>1.119356937290135</v>
       </c>
       <c r="H14">
-        <v>2.988731228035576</v>
+        <v>2.029115831410948</v>
       </c>
       <c r="I14">
-        <v>0.6979082334872118</v>
+        <v>2.983016956873641</v>
       </c>
       <c r="J14">
-        <v>40.71565352724667</v>
+        <v>0.697462488763847</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>40.70590841353197</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07087790429952179</v>
+        <v>0.07081870948637459</v>
       </c>
       <c r="D15">
-        <v>0.1664558581693427</v>
+        <v>0.1663329200937227</v>
       </c>
       <c r="E15">
-        <v>1.030929474766552</v>
+        <v>1.030683777101046</v>
       </c>
       <c r="F15">
-        <v>4.126084436034461</v>
+        <v>4.118689062134948</v>
       </c>
       <c r="G15">
-        <v>3.066163257639758</v>
+        <v>1.088979947401938</v>
       </c>
       <c r="H15">
-        <v>2.908961476087413</v>
+        <v>1.9723085580125</v>
       </c>
       <c r="I15">
-        <v>0.6844983232745037</v>
+        <v>2.903454103462536</v>
       </c>
       <c r="J15">
-        <v>40.11901262581625</v>
+        <v>0.6840713520553692</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>40.10971172393312</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06053483388155456</v>
+        <v>0.06050101765830362</v>
       </c>
       <c r="D16">
-        <v>0.1446733197737444</v>
+        <v>0.1446013024033874</v>
       </c>
       <c r="E16">
-        <v>0.9346975413237004</v>
+        <v>0.9345286744288899</v>
       </c>
       <c r="F16">
-        <v>3.550665665439453</v>
+        <v>3.544632557577771</v>
       </c>
       <c r="G16">
-        <v>2.610949442683179</v>
+        <v>0.9305216509511496</v>
       </c>
       <c r="H16">
-        <v>2.492826999036168</v>
+        <v>1.677153781136354</v>
       </c>
       <c r="I16">
-        <v>0.6127165511643327</v>
+        <v>2.488336894703536</v>
       </c>
       <c r="J16">
-        <v>36.83360256613543</v>
+        <v>0.6123796683048681</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>36.82644021181335</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05497686965573934</v>
+        <v>0.05495513582827272</v>
       </c>
       <c r="D17">
-        <v>0.1327838666525949</v>
+        <v>0.1327363527830627</v>
       </c>
       <c r="E17">
-        <v>0.8796610492132686</v>
+        <v>0.8795280239896215</v>
       </c>
       <c r="F17">
-        <v>3.238174475671457</v>
+        <v>3.23282568943138</v>
       </c>
       <c r="G17">
-        <v>2.36532586942873</v>
+        <v>0.8446755265573813</v>
       </c>
       <c r="H17">
-        <v>2.267379167901211</v>
+        <v>1.518200559174559</v>
       </c>
       <c r="I17">
-        <v>0.5723546791865886</v>
+        <v>2.263400347680175</v>
       </c>
       <c r="J17">
-        <v>34.91617878020486</v>
+        <v>0.5720615845072032</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>34.91005835419406</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05201078507803203</v>
+        <v>0.05199505039534813</v>
       </c>
       <c r="D18">
-        <v>0.1263788221973172</v>
+        <v>0.1263435531192059</v>
       </c>
       <c r="E18">
-        <v>0.8491895001989747</v>
+        <v>0.8490741194015783</v>
       </c>
       <c r="F18">
-        <v>3.070440804951843</v>
+        <v>3.065444626520275</v>
       </c>
       <c r="G18">
-        <v>2.234007908097979</v>
+        <v>0.7986627959612775</v>
       </c>
       <c r="H18">
-        <v>2.146546519111183</v>
+        <v>1.433325907557631</v>
       </c>
       <c r="I18">
-        <v>0.5502236227086854</v>
+        <v>2.142831207245308</v>
       </c>
       <c r="J18">
-        <v>33.84258059948388</v>
+        <v>0.5499526769389007</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>33.83698713346325</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05104168378498741</v>
+        <v>0.05102784052851916</v>
       </c>
       <c r="D19">
-        <v>0.1242763721546751</v>
+        <v>0.1242449759890718</v>
       </c>
       <c r="E19">
-        <v>0.8390538184387282</v>
+        <v>0.8389439831480701</v>
       </c>
       <c r="F19">
-        <v>3.015489827279993</v>
+        <v>3.010607027545362</v>
       </c>
       <c r="G19">
-        <v>2.191072421758179</v>
+        <v>0.783599226502389</v>
       </c>
       <c r="H19">
-        <v>2.106990036237164</v>
+        <v>1.405593342842678</v>
       </c>
       <c r="I19">
-        <v>0.5428962776028641</v>
+        <v>2.103359461509157</v>
       </c>
       <c r="J19">
-        <v>33.48357642511309</v>
+        <v>0.5426323915563032</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>33.47815084273611</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05554352926793626</v>
+        <v>0.05552061357182225</v>
       </c>
       <c r="D20">
-        <v>0.1340025910534166</v>
+        <v>0.1339526714463162</v>
       </c>
       <c r="E20">
-        <v>0.8853917643014029</v>
+        <v>0.8852552520248338</v>
       </c>
       <c r="F20">
-        <v>3.270142186274839</v>
+        <v>3.264725058938694</v>
       </c>
       <c r="G20">
-        <v>2.390396275347072</v>
+        <v>0.8534503070079751</v>
       </c>
       <c r="H20">
-        <v>2.290422950771145</v>
+        <v>1.534413208917044</v>
       </c>
       <c r="I20">
-        <v>0.5765339868539172</v>
+        <v>2.286393062894618</v>
       </c>
       <c r="J20">
-        <v>35.11713286186381</v>
+        <v>0.5762365661427182</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>35.11090948808629</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07385260199573196</v>
+        <v>0.07378540433137459</v>
       </c>
       <c r="D21">
-        <v>0.1726471713693414</v>
+        <v>0.1725083038352793</v>
       </c>
       <c r="E21">
-        <v>1.057306115212882</v>
+        <v>1.057035733147316</v>
       </c>
       <c r="F21">
-        <v>4.290156246950389</v>
+        <v>4.282345816930658</v>
       </c>
       <c r="G21">
-        <v>3.196578054205801</v>
+        <v>1.134244474570707</v>
       </c>
       <c r="H21">
-        <v>3.027825042006796</v>
+        <v>2.056980607135515</v>
       </c>
       <c r="I21">
-        <v>0.704442937253404</v>
+        <v>3.022007879469498</v>
       </c>
       <c r="J21">
-        <v>41.00448795521174</v>
+        <v>0.7039878025422652</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>40.99452088166646</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08949112106272139</v>
+        <v>0.08937640692097659</v>
       </c>
       <c r="D22">
-        <v>0.2047332073902055</v>
+        <v>0.2045007633733675</v>
       </c>
       <c r="E22">
-        <v>1.188035519696214</v>
+        <v>1.187614140730787</v>
       </c>
       <c r="F22">
-        <v>5.142878167973322</v>
+        <v>5.132689170854121</v>
       </c>
       <c r="G22">
-        <v>3.878156669602333</v>
+        <v>1.37001018354276</v>
       </c>
       <c r="H22">
-        <v>3.646856287505841</v>
+        <v>2.500125534550293</v>
       </c>
       <c r="I22">
-        <v>0.8050202539676903</v>
+        <v>3.63926521231329</v>
       </c>
       <c r="J22">
-        <v>45.29602944358635</v>
+        <v>0.8043980187957942</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>45.28214028826932</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08069142119620665</v>
+        <v>0.080604596341324</v>
       </c>
       <c r="D23">
-        <v>0.1867697750641781</v>
+        <v>0.1865920600782829</v>
       </c>
       <c r="E23">
-        <v>1.116019751850246</v>
+        <v>1.115687905261439</v>
       </c>
       <c r="F23">
-        <v>4.665047864525036</v>
+        <v>4.65623990061934</v>
       </c>
       <c r="G23">
-        <v>3.495484871389777</v>
+        <v>1.237795299121487</v>
       </c>
       <c r="H23">
-        <v>3.299728378509514</v>
+        <v>2.251203443633074</v>
       </c>
       <c r="I23">
-        <v>0.749257956925895</v>
+        <v>3.293166974421666</v>
       </c>
       <c r="J23">
-        <v>42.95204698453676</v>
+        <v>0.7487338778680481</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>42.94045510803181</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05528664180764054</v>
+        <v>0.0552642633096454</v>
       </c>
       <c r="D24">
-        <v>0.1334502901041787</v>
+        <v>0.1334014637288234</v>
       </c>
       <c r="E24">
-        <v>0.882797330412032</v>
+        <v>0.882662403591155</v>
       </c>
       <c r="F24">
-        <v>3.255653113940085</v>
+        <v>3.250267007446809</v>
       </c>
       <c r="G24">
-        <v>2.379031678553687</v>
+        <v>0.849473007904578</v>
       </c>
       <c r="H24">
-        <v>2.279977996552432</v>
+        <v>1.527063556079312</v>
       </c>
       <c r="I24">
-        <v>0.5746412392279368</v>
+        <v>2.275971288707183</v>
       </c>
       <c r="J24">
-        <v>35.02619352207029</v>
+        <v>0.5743457834736887</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>35.02001690935867</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03666182483433289</v>
+        <v>0.03667183968533294</v>
       </c>
       <c r="D25">
-        <v>0.09241170876366311</v>
+        <v>0.09242988052124446</v>
       </c>
       <c r="E25">
-        <v>0.6761996362750153</v>
+        <v>0.6761596523762918</v>
       </c>
       <c r="F25">
-        <v>2.191530416601495</v>
+        <v>2.188230849546827</v>
       </c>
       <c r="G25">
-        <v>1.553237042165037</v>
+        <v>0.5584274679733454</v>
       </c>
       <c r="H25">
-        <v>1.515916829551301</v>
+        <v>0.9949276060769989</v>
       </c>
       <c r="I25">
-        <v>0.427500728960851</v>
+        <v>1.513469764881904</v>
       </c>
       <c r="J25">
-        <v>27.584540093344</v>
+        <v>0.4273320328205727</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.58136470978332</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02660430275441783</v>
+        <v>0.07384614256088895</v>
       </c>
       <c r="D2">
-        <v>0.06912555487757999</v>
+        <v>0.2076268150261313</v>
       </c>
       <c r="E2">
-        <v>0.5433289242199564</v>
+        <v>0.0235169011861931</v>
       </c>
       <c r="F2">
-        <v>1.602885123810111</v>
+        <v>7.357379469354242</v>
       </c>
       <c r="G2">
-        <v>0.3991274864897605</v>
+        <v>0.0008099176931471884</v>
       </c>
       <c r="H2">
-        <v>0.7106868975587872</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.096723597476753</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3365388779258183</v>
+        <v>0.0728689401010385</v>
       </c>
       <c r="K2">
-        <v>22.58230036077208</v>
+        <v>7.424855383481571</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09996988604967783</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.754000613320841</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02106328023595694</v>
+        <v>0.07129455893378633</v>
       </c>
       <c r="D3">
-        <v>0.05576930108507838</v>
+        <v>0.1766449016556351</v>
       </c>
       <c r="E3">
-        <v>0.4602728203270772</v>
+        <v>0.02148109764488915</v>
       </c>
       <c r="F3">
-        <v>1.278959666831412</v>
+        <v>6.699118801492205</v>
       </c>
       <c r="G3">
-        <v>0.3113932500347687</v>
+        <v>0.0008377401826460336</v>
       </c>
       <c r="H3">
-        <v>0.5578698069762638</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8677962044372265</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2813192715853461</v>
+        <v>0.07753425231225108</v>
       </c>
       <c r="K3">
-        <v>19.36522190777026</v>
+        <v>6.41984899824385</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08435427703924603</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.133708166052671</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0180918325446271</v>
+        <v>0.06996279523355042</v>
       </c>
       <c r="D4">
-        <v>0.04838666062379815</v>
+        <v>0.1597679787118835</v>
       </c>
       <c r="E4">
-        <v>0.4116441512725117</v>
+        <v>0.0202968726061119</v>
       </c>
       <c r="F4">
-        <v>1.105461249404627</v>
+        <v>6.346828484000127</v>
       </c>
       <c r="G4">
-        <v>0.2645407200678562</v>
+        <v>0.0008546962582999206</v>
       </c>
       <c r="H4">
-        <v>0.4779483845877834</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.74589489201162</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2495660350786437</v>
+        <v>0.08073662191467079</v>
       </c>
       <c r="K4">
-        <v>17.44650227921085</v>
+        <v>5.83389494331999</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07528592307183857</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.772246071574287</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01696669454003441</v>
+        <v>0.06947086766709276</v>
       </c>
       <c r="D5">
-        <v>0.04554062759189748</v>
+        <v>0.1533237775876586</v>
       </c>
       <c r="E5">
-        <v>0.3923011697909757</v>
+        <v>0.01982687543799688</v>
       </c>
       <c r="F5">
-        <v>1.039950741085448</v>
+        <v>6.214007798444499</v>
       </c>
       <c r="G5">
-        <v>0.2468762124363693</v>
+        <v>0.0008616051239339787</v>
       </c>
       <c r="H5">
-        <v>0.4482266724746893</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.700032941308649</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2370582698323105</v>
+        <v>0.08211712615216271</v>
       </c>
       <c r="K5">
-        <v>16.67564315294885</v>
+        <v>5.601375475286403</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07169200891057415</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.628864141606556</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01678448138171618</v>
+        <v>0.06939204313243152</v>
       </c>
       <c r="D6">
-        <v>0.04507677229074147</v>
+        <v>0.15227725576149</v>
       </c>
       <c r="E6">
-        <v>0.3891148011664356</v>
+        <v>0.01974949508450941</v>
       </c>
       <c r="F6">
-        <v>1.029356203311551</v>
+        <v>6.19254436760707</v>
       </c>
       <c r="G6">
-        <v>0.2440208234995112</v>
+        <v>0.000862753058705123</v>
       </c>
       <c r="H6">
-        <v>0.443446950212774</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.692625779631534</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2350046995443691</v>
+        <v>0.0823506849731146</v>
       </c>
       <c r="K6">
-        <v>16.54822787258257</v>
+        <v>5.563104927169491</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07110064863000076</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.605268244829219</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01807633743090875</v>
+        <v>0.06995596491420741</v>
       </c>
       <c r="D7">
-        <v>0.04834767045390009</v>
+        <v>0.159679437703204</v>
       </c>
       <c r="E7">
-        <v>0.4113815099599663</v>
+        <v>0.02029048763488905</v>
       </c>
       <c r="F7">
-        <v>1.104558123101597</v>
+        <v>6.344996384710385</v>
       </c>
       <c r="G7">
-        <v>0.2642970988675373</v>
+        <v>0.0008547894013420988</v>
       </c>
       <c r="H7">
-        <v>0.4775367779086324</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.745261963669634</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2493957292909741</v>
+        <v>0.08075494494976354</v>
       </c>
       <c r="K7">
-        <v>17.43606527114173</v>
+        <v>5.830735558345708</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07523707681507119</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.770297624152747</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0245889604711742</v>
+        <v>0.07291193073414348</v>
       </c>
       <c r="D8">
-        <v>0.06432107093432649</v>
+        <v>0.1964257171237307</v>
       </c>
       <c r="E8">
-        <v>0.5141173107839023</v>
+        <v>0.02279858371663757</v>
       </c>
       <c r="F8">
-        <v>1.485116621012921</v>
+        <v>7.118061580924547</v>
       </c>
       <c r="G8">
-        <v>0.3671926324354189</v>
+        <v>0.0008195585017485296</v>
       </c>
       <c r="H8">
-        <v>0.6546677949388027</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.013321065249102</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3169785797299909</v>
+        <v>0.07440092198670101</v>
       </c>
       <c r="K8">
-        <v>21.45915947459486</v>
+        <v>7.070799647343392</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09445775363099074</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.535440177447811</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04219682480344034</v>
+        <v>0.08110027330762648</v>
       </c>
       <c r="D9">
-        <v>0.1048364431401652</v>
+        <v>0.292399625799419</v>
       </c>
       <c r="E9">
-        <v>0.7418483580065782</v>
+        <v>0.02849618881330152</v>
       </c>
       <c r="F9">
-        <v>2.506581583258296</v>
+        <v>9.19389037095317</v>
       </c>
       <c r="G9">
-        <v>0.6454225400234748</v>
+        <v>0.0007474806836966671</v>
       </c>
       <c r="H9">
-        <v>1.152620451753279</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.74132178516065</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4733299772052675</v>
+        <v>0.06523455895020547</v>
       </c>
       <c r="K9">
-        <v>29.99067023715082</v>
+        <v>9.849196999885351</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1381503454165625</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.251011916071178</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06116878007760107</v>
+        <v>0.0897700476830039</v>
       </c>
       <c r="D10">
-        <v>0.1460206901599292</v>
+        <v>0.3934978018322539</v>
       </c>
       <c r="E10">
-        <v>0.9409832990634754</v>
+        <v>0.03376036268962146</v>
       </c>
       <c r="F10">
-        <v>3.582020726536157</v>
+        <v>11.40114947955522</v>
       </c>
       <c r="G10">
-        <v>0.9408262659982398</v>
+        <v>0.0006881843495678492</v>
       </c>
       <c r="H10">
-        <v>1.696282334326099</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.515335824919916</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6171440564068718</v>
+        <v>0.06194008076664659</v>
       </c>
       <c r="K10">
-        <v>37.04951244680495</v>
+        <v>12.32802261941367</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1782374557668263</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.7813079435482</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07242332162001475</v>
+        <v>0.09484981062124831</v>
       </c>
       <c r="D11">
-        <v>0.1696768206545372</v>
+        <v>0.4538707974827219</v>
       </c>
       <c r="E11">
-        <v>1.045003089035504</v>
+        <v>0.03668399254647348</v>
       </c>
       <c r="F11">
-        <v>4.207283042967248</v>
+        <v>12.71609294971313</v>
       </c>
       <c r="G11">
-        <v>1.11347873474017</v>
+        <v>0.0006576976391198491</v>
       </c>
       <c r="H11">
-        <v>2.018117979959996</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.967621350390786</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6948792979394298</v>
+        <v>0.06188397153607639</v>
       </c>
       <c r="K11">
-        <v>40.5913105367361</v>
+        <v>13.65680972578315</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2002800105961313</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.601028622958921</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07727147304270687</v>
+        <v>0.09703863223441545</v>
       </c>
       <c r="D12">
-        <v>0.1797267973712948</v>
+        <v>0.4802486663856769</v>
       </c>
       <c r="E12">
-        <v>1.087340525566759</v>
+        <v>0.03792282866152874</v>
       </c>
       <c r="F12">
-        <v>4.473878349586542</v>
+        <v>13.28885526955355</v>
       </c>
       <c r="G12">
-        <v>1.187266366136853</v>
+        <v>0.0006452553910663602</v>
       </c>
       <c r="H12">
-        <v>2.156343356952178</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.160861287399499</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7270354094385425</v>
+        <v>0.06220055072201447</v>
       </c>
       <c r="K12">
-        <v>42.00400865646196</v>
+        <v>14.20830128604044</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2095592492889011</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8.941058778459279</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07619628404297174</v>
+        <v>0.09655271881715777</v>
       </c>
       <c r="D13">
-        <v>0.177504695038138</v>
+        <v>0.4743722059759818</v>
       </c>
       <c r="E13">
-        <v>1.078067337774954</v>
+        <v>0.03764865081668667</v>
       </c>
       <c r="F13">
-        <v>4.414893386787739</v>
+        <v>13.16136296849993</v>
       </c>
       <c r="G13">
-        <v>1.170932236234989</v>
+        <v>0.0006479854961536741</v>
       </c>
       <c r="H13">
-        <v>2.125713355023549</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.118087707764502</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7199665571933309</v>
+        <v>0.06211382009431432</v>
       </c>
       <c r="K13">
-        <v>41.69602475939939</v>
+        <v>14.08686140235687</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2075089688435625</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.866193584580031</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07280870535733897</v>
+        <v>0.09502364189854262</v>
       </c>
       <c r="D14">
-        <v>0.1704785976237702</v>
+        <v>0.4559570868889296</v>
       </c>
       <c r="E14">
-        <v>1.048418822367708</v>
+        <v>0.03678275567800426</v>
       </c>
       <c r="F14">
-        <v>4.228534135706539</v>
+        <v>12.76143810568038</v>
       </c>
       <c r="G14">
-        <v>1.119356937290135</v>
+        <v>0.0006566955943413419</v>
       </c>
       <c r="H14">
-        <v>2.029115831410948</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.983016956873641</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.697462488763847</v>
+        <v>0.0619020421845633</v>
       </c>
       <c r="K14">
-        <v>40.70590841353197</v>
+        <v>13.70103603030216</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2010211932664205</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.628301321816195</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07081870948637459</v>
+        <v>0.09412616727745871</v>
       </c>
       <c r="D15">
-        <v>0.1663329200937227</v>
+        <v>0.4452011265083797</v>
       </c>
       <c r="E15">
-        <v>1.030683777101046</v>
+        <v>0.03627207166358204</v>
       </c>
       <c r="F15">
-        <v>4.118689062134948</v>
+        <v>12.52758287842846</v>
       </c>
       <c r="G15">
-        <v>1.088979947401938</v>
+        <v>0.0006618961270981993</v>
       </c>
       <c r="H15">
-        <v>1.9723085580125</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.903454103462536</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6840713520553692</v>
+        <v>0.06182225692082355</v>
       </c>
       <c r="K15">
-        <v>40.10971172393312</v>
+        <v>13.4718725743646</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1971861282171545</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.486977068849313</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06050101765830362</v>
+        <v>0.08946783126857838</v>
       </c>
       <c r="D16">
-        <v>0.1446013024033874</v>
+        <v>0.3899389599184531</v>
       </c>
       <c r="E16">
-        <v>0.9345286744288899</v>
+        <v>0.03358366681739433</v>
       </c>
       <c r="F16">
-        <v>3.544632557577771</v>
+        <v>11.32349993379484</v>
       </c>
       <c r="G16">
-        <v>0.9305216509511496</v>
+        <v>0.0006900795494237576</v>
       </c>
       <c r="H16">
-        <v>1.677153781136354</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.488336894703536</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6123796683048681</v>
+        <v>0.06198153488091762</v>
       </c>
       <c r="K16">
-        <v>36.82644021181335</v>
+        <v>12.24654236122041</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.176899425070836</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.731026022803377</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05495513582827272</v>
+        <v>0.08695110817336626</v>
       </c>
       <c r="D17">
-        <v>0.1327363527830627</v>
+        <v>0.3604236340527791</v>
       </c>
       <c r="E17">
-        <v>0.8795280239896215</v>
+        <v>0.03209675332369777</v>
       </c>
       <c r="F17">
-        <v>3.23282568943138</v>
+        <v>10.67913995760819</v>
       </c>
       <c r="G17">
-        <v>0.8446755265573813</v>
+        <v>0.0007062775672648327</v>
       </c>
       <c r="H17">
-        <v>1.518200559174559</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.263400347680175</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5720615845072032</v>
+        <v>0.06251197703835132</v>
       </c>
       <c r="K17">
-        <v>34.91005835419406</v>
+        <v>11.55587492062742</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.165616483004662</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.304745547773052</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05199505039534813</v>
+        <v>0.08560191675208983</v>
       </c>
       <c r="D18">
-        <v>0.1263435531192059</v>
+        <v>0.3446789529342169</v>
       </c>
       <c r="E18">
-        <v>0.8490741194015783</v>
+        <v>0.03128660657420568</v>
       </c>
       <c r="F18">
-        <v>3.065444626520275</v>
+        <v>10.33524509827873</v>
       </c>
       <c r="G18">
-        <v>0.7986627959612775</v>
+        <v>0.0007152966107942663</v>
       </c>
       <c r="H18">
-        <v>1.433325907557631</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.142831207245308</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5499526769389007</v>
+        <v>0.062941857611019</v>
       </c>
       <c r="K18">
-        <v>33.83698713346325</v>
+        <v>11.17592812482962</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.159452745446039</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.070197995856262</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05102784052851916</v>
+        <v>0.08516005085007095</v>
       </c>
       <c r="D19">
-        <v>0.1242449759890718</v>
+        <v>0.3395324530955435</v>
       </c>
       <c r="E19">
-        <v>0.8389439831480701</v>
+        <v>0.03101901081506497</v>
       </c>
       <c r="F19">
-        <v>3.010607027545362</v>
+        <v>10.22282881179342</v>
       </c>
       <c r="G19">
-        <v>0.783599226502389</v>
+        <v>0.0007183066316167877</v>
       </c>
       <c r="H19">
-        <v>1.405593342842678</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.103359461509157</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5426323915563032</v>
+        <v>0.06310639250969885</v>
       </c>
       <c r="K19">
-        <v>33.47815084273611</v>
+        <v>11.04988778962431</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1574145314862179</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.992385263213606</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05552061357182225</v>
+        <v>0.08720834467120397</v>
       </c>
       <c r="D20">
-        <v>0.1339526714463162</v>
+        <v>0.3634312109643076</v>
       </c>
       <c r="E20">
-        <v>0.8852552520248338</v>
+        <v>0.03225010791049421</v>
       </c>
       <c r="F20">
-        <v>3.264725058938694</v>
+        <v>10.74482297900875</v>
       </c>
       <c r="G20">
-        <v>0.8534503070079751</v>
+        <v>0.0007045859511154082</v>
       </c>
       <c r="H20">
-        <v>1.534413208917044</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.286393062894618</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5762365661427182</v>
+        <v>0.0624419746588778</v>
       </c>
       <c r="K20">
-        <v>35.11090948808629</v>
+        <v>11.62751288939572</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1667820005420779</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.348965625275639</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07378540433137459</v>
+        <v>0.09546427794636259</v>
       </c>
       <c r="D21">
-        <v>0.1725083038352793</v>
+        <v>0.4612520259999826</v>
       </c>
       <c r="E21">
-        <v>1.057035733147316</v>
+        <v>0.03703279599164411</v>
       </c>
       <c r="F21">
-        <v>4.282345816930658</v>
+        <v>12.87648985108513</v>
       </c>
       <c r="G21">
-        <v>1.134244474570707</v>
+        <v>0.000654166594438673</v>
       </c>
       <c r="H21">
-        <v>2.056980607135515</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.022007879469498</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7039878025422652</v>
+        <v>0.06195340237619718</v>
       </c>
       <c r="K21">
-        <v>40.99452088166646</v>
+        <v>13.81280478901644</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2028965793877688</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.69722163976121</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08937640692097659</v>
+        <v>0.1025549593251043</v>
       </c>
       <c r="D22">
-        <v>0.2045007633733675</v>
+        <v>0.5478547507310623</v>
       </c>
       <c r="E22">
-        <v>1.187614140730787</v>
+        <v>0.04101106984032121</v>
       </c>
       <c r="F22">
-        <v>5.132689170854121</v>
+        <v>14.75060251279115</v>
       </c>
       <c r="G22">
-        <v>1.37001018354276</v>
+        <v>0.0006154017858576557</v>
       </c>
       <c r="H22">
-        <v>2.500125534550293</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.63926521231329</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8043980187957942</v>
+        <v>0.06379915908695466</v>
       </c>
       <c r="K22">
-        <v>45.28214028826932</v>
+        <v>15.55108436085965</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2325084485988071</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.768417786000327</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.080604596341324</v>
+        <v>0.09854783607755735</v>
       </c>
       <c r="D23">
-        <v>0.1865920600782829</v>
+        <v>0.4985785765470041</v>
       </c>
       <c r="E23">
-        <v>1.115687905261439</v>
+        <v>0.03877176694940943</v>
       </c>
       <c r="F23">
-        <v>4.65623990061934</v>
+        <v>13.68610845492884</v>
       </c>
       <c r="G23">
-        <v>1.237795299121487</v>
+        <v>0.0006368858578509495</v>
       </c>
       <c r="H23">
-        <v>2.251203443633074</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.293166974421666</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7487338778680481</v>
+        <v>0.06252770682382547</v>
       </c>
       <c r="K23">
-        <v>42.94045510803181</v>
+        <v>14.58205579472803</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2158948155577889</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9.171431860990509</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0552642633096454</v>
+        <v>0.08709174981861878</v>
       </c>
       <c r="D24">
-        <v>0.1334014637288234</v>
+        <v>0.3620677585741987</v>
       </c>
       <c r="E24">
-        <v>0.882662403591155</v>
+        <v>0.03218064035975843</v>
       </c>
       <c r="F24">
-        <v>3.250267007446809</v>
+        <v>10.71504676102262</v>
       </c>
       <c r="G24">
-        <v>0.849473007904578</v>
+        <v>0.000705351621167351</v>
       </c>
       <c r="H24">
-        <v>1.527063556079312</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.275971288707183</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5743457834736887</v>
+        <v>0.06247324136203503</v>
       </c>
       <c r="K24">
-        <v>35.02001690935867</v>
+        <v>11.59507317538225</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1662540869340035</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.328941648459846</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03667183968533294</v>
+        <v>0.07853739720207642</v>
       </c>
       <c r="D25">
-        <v>0.09242988052124446</v>
+        <v>0.262668251313201</v>
       </c>
       <c r="E25">
-        <v>0.6761596523762918</v>
+        <v>0.02682612927208261</v>
       </c>
       <c r="F25">
-        <v>2.188230849546827</v>
+        <v>8.546507479493357</v>
       </c>
       <c r="G25">
-        <v>0.5584274679733454</v>
+        <v>0.0007676447256615343</v>
       </c>
       <c r="H25">
-        <v>0.9949276060769989</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.513469764881904</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4273320328205727</v>
+        <v>0.06725397461912053</v>
       </c>
       <c r="K25">
-        <v>27.58136470978332</v>
+        <v>9.043130310098064</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1253596750103654</v>
       </c>
       <c r="M25">
+        <v>5.753240133484496</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07384614256088895</v>
+        <v>0.1339428209161326</v>
       </c>
       <c r="D2">
-        <v>0.2076268150261313</v>
+        <v>0.1112100448738218</v>
       </c>
       <c r="E2">
-        <v>0.0235169011861931</v>
+        <v>0.06443492551101393</v>
       </c>
       <c r="F2">
-        <v>7.357379469354242</v>
+        <v>0.6350225686920226</v>
       </c>
       <c r="G2">
-        <v>0.0008099176931471884</v>
+        <v>0.3883122364051559</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3288887985462878</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4384604910354284</v>
       </c>
       <c r="J2">
-        <v>0.0728689401010385</v>
+        <v>0.0602884058977935</v>
       </c>
       <c r="K2">
-        <v>7.424855383481571</v>
+        <v>2.354963478257787</v>
       </c>
       <c r="L2">
-        <v>0.09996988604967783</v>
+        <v>0.07168809965368439</v>
       </c>
       <c r="M2">
-        <v>4.754000613320841</v>
+        <v>0.5345574829835087</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9906179191175966</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.459716464034443</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07129455893378633</v>
+        <v>0.1233200588281278</v>
       </c>
       <c r="D3">
-        <v>0.1766449016556351</v>
+        <v>0.1020025870856287</v>
       </c>
       <c r="E3">
-        <v>0.02148109764488915</v>
+        <v>0.06227768484468221</v>
       </c>
       <c r="F3">
-        <v>6.699118801492205</v>
+        <v>0.6160336475625527</v>
       </c>
       <c r="G3">
-        <v>0.0008377401826460336</v>
+        <v>0.375704128399228</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3286853737148761</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4259687466251521</v>
       </c>
       <c r="J3">
-        <v>0.07753425231225108</v>
+        <v>0.06088580567294244</v>
       </c>
       <c r="K3">
-        <v>6.41984899824385</v>
+        <v>2.050615862991805</v>
       </c>
       <c r="L3">
-        <v>0.08435427703924603</v>
+        <v>0.07172974035047375</v>
       </c>
       <c r="M3">
-        <v>4.133708166052671</v>
+        <v>0.4679937788751403</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9866154633378201</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.432201863305025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06996279523355042</v>
+        <v>0.1168994869860143</v>
       </c>
       <c r="D4">
-        <v>0.1597679787118835</v>
+        <v>0.09641823195167376</v>
       </c>
       <c r="E4">
-        <v>0.0202968726061119</v>
+        <v>0.06101798625121369</v>
       </c>
       <c r="F4">
-        <v>6.346828484000127</v>
+        <v>0.60546572044192</v>
       </c>
       <c r="G4">
-        <v>0.0008546962582999206</v>
+        <v>0.368800817734332</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3290864746986628</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4190736464736915</v>
       </c>
       <c r="J4">
-        <v>0.08073662191467079</v>
+        <v>0.06132664927491049</v>
       </c>
       <c r="K4">
-        <v>5.83389494331999</v>
+        <v>1.863595256514287</v>
       </c>
       <c r="L4">
-        <v>0.07528592307183857</v>
+        <v>0.07183203300547092</v>
       </c>
       <c r="M4">
-        <v>3.772246071574287</v>
+        <v>0.4271910402667274</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9850204273634091</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.418176077790051</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06947086766709276</v>
+        <v>0.1143075057648844</v>
       </c>
       <c r="D5">
-        <v>0.1533237775876586</v>
+        <v>0.09415914228490152</v>
       </c>
       <c r="E5">
-        <v>0.01982687543799688</v>
+        <v>0.06052046970147273</v>
       </c>
       <c r="F5">
-        <v>6.214007798444499</v>
+        <v>0.601422536363728</v>
       </c>
       <c r="G5">
-        <v>0.0008616051239339787</v>
+        <v>0.3661887642808708</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3293779052719756</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4164507581997761</v>
       </c>
       <c r="J5">
-        <v>0.08211712615216271</v>
+        <v>0.06152448054247728</v>
       </c>
       <c r="K5">
-        <v>5.601375475286403</v>
+        <v>1.787332453601579</v>
       </c>
       <c r="L5">
-        <v>0.07169200891057415</v>
+        <v>0.07189258483960614</v>
       </c>
       <c r="M5">
-        <v>3.628864141606556</v>
+        <v>0.4105770680575418</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9845813368938039</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.413152259312909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06939204313243152</v>
+        <v>0.113878553414537</v>
       </c>
       <c r="D6">
-        <v>0.15227725576149</v>
+        <v>0.09378500133755807</v>
       </c>
       <c r="E6">
-        <v>0.01974949508450941</v>
+        <v>0.06043879913300287</v>
       </c>
       <c r="F6">
-        <v>6.19254436760707</v>
+        <v>0.6007667576393203</v>
       </c>
       <c r="G6">
-        <v>0.000862753058705123</v>
+        <v>0.365766906289231</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3294339046925572</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4160262935796446</v>
       </c>
       <c r="J6">
-        <v>0.0823506849731146</v>
+        <v>0.06155841619364644</v>
       </c>
       <c r="K6">
-        <v>5.563104927169491</v>
+        <v>1.774665676124556</v>
       </c>
       <c r="L6">
-        <v>0.07110064863000076</v>
+        <v>0.07190376679043098</v>
       </c>
       <c r="M6">
-        <v>3.605268244829219</v>
+        <v>0.4078190453324453</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9845209951300475</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.412359003421756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06995596491420741</v>
+        <v>0.1168644330973905</v>
       </c>
       <c r="D7">
-        <v>0.159679437703204</v>
+        <v>0.09638769895570931</v>
       </c>
       <c r="E7">
-        <v>0.02029048763488905</v>
+        <v>0.06101121314018521</v>
       </c>
       <c r="F7">
-        <v>6.344996384710385</v>
+        <v>0.6054101407519425</v>
       </c>
       <c r="G7">
-        <v>0.0008547894013420988</v>
+        <v>0.3687647888742731</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.329089892387735</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4190375266860045</v>
       </c>
       <c r="J7">
-        <v>0.08075494494976354</v>
+        <v>0.06132924423019581</v>
       </c>
       <c r="K7">
-        <v>5.830735558345708</v>
+        <v>1.862566969840145</v>
       </c>
       <c r="L7">
-        <v>0.07523707681507119</v>
+        <v>0.07183277378840458</v>
       </c>
       <c r="M7">
-        <v>3.770297624152747</v>
+        <v>0.4269669283836066</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.9850136593844212</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.418105561753194</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07291193073414348</v>
+        <v>0.1302582386809235</v>
       </c>
       <c r="D8">
-        <v>0.1964257171237307</v>
+        <v>0.108020492447821</v>
       </c>
       <c r="E8">
-        <v>0.02279858371663757</v>
+        <v>0.0636773473684844</v>
       </c>
       <c r="F8">
-        <v>7.118061580924547</v>
+        <v>0.6282418508031427</v>
       </c>
       <c r="G8">
-        <v>0.0008195585017485296</v>
+        <v>0.3837850719001636</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3287068463601699</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4339876313716076</v>
       </c>
       <c r="J8">
-        <v>0.07440092198670101</v>
+        <v>0.06047875647166379</v>
       </c>
       <c r="K8">
-        <v>7.070799647343392</v>
+        <v>2.250047547761881</v>
       </c>
       <c r="L8">
-        <v>0.09445775363099074</v>
+        <v>0.07168627086686641</v>
       </c>
       <c r="M8">
-        <v>4.535440177447811</v>
+        <v>0.5115900639950937</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9890551644242294</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.449615995506775</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08110027330762648</v>
+        <v>0.1573876631162392</v>
       </c>
       <c r="D9">
-        <v>0.292399625799419</v>
+        <v>0.1314188068674298</v>
       </c>
       <c r="E9">
-        <v>0.02849618881330152</v>
+        <v>0.069443573561351</v>
       </c>
       <c r="F9">
-        <v>9.19389037095317</v>
+        <v>0.6822002100177897</v>
       </c>
       <c r="G9">
-        <v>0.0007474806836966671</v>
+        <v>0.4203467331980733</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3323322038862671</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.46982889730252</v>
       </c>
       <c r="J9">
-        <v>0.06523455895020547</v>
+        <v>0.05941883574378082</v>
       </c>
       <c r="K9">
-        <v>9.849196999885351</v>
+        <v>3.009358849845739</v>
       </c>
       <c r="L9">
-        <v>0.1381503454165625</v>
+        <v>0.07202793279549979</v>
       </c>
       <c r="M9">
-        <v>6.251011916071178</v>
+        <v>0.6782509010243061</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.004110542815184</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.535560378595022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0897700476830039</v>
+        <v>0.1779303622823534</v>
       </c>
       <c r="D10">
-        <v>0.3934978018322539</v>
+        <v>0.1490250473701877</v>
       </c>
       <c r="E10">
-        <v>0.03376036268962146</v>
+        <v>0.07404243273362354</v>
       </c>
       <c r="F10">
-        <v>11.40114947955522</v>
+        <v>0.728213572601355</v>
       </c>
       <c r="G10">
-        <v>0.0006881843495678492</v>
+        <v>0.452209328733403</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3379603521407688</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5006890083918449</v>
       </c>
       <c r="J10">
-        <v>0.06194008076664659</v>
+        <v>0.0590404296037903</v>
       </c>
       <c r="K10">
-        <v>12.32802261941367</v>
+        <v>3.567925326320164</v>
       </c>
       <c r="L10">
-        <v>0.1782374557668263</v>
+        <v>0.0726918515804833</v>
       </c>
       <c r="M10">
-        <v>7.7813079435482</v>
+        <v>0.8014088914027155</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.019941520517747</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.615466062986627</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09484981062124831</v>
+        <v>0.1874281229012098</v>
       </c>
       <c r="D11">
-        <v>0.4538707974827219</v>
+        <v>0.1571385027800432</v>
       </c>
       <c r="E11">
-        <v>0.03668399254647348</v>
+        <v>0.07622134602101482</v>
       </c>
       <c r="F11">
-        <v>12.71609294971313</v>
+        <v>0.7507100361743611</v>
       </c>
       <c r="G11">
-        <v>0.0006576976391198491</v>
+        <v>0.467946958192158</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3412340616967668</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5158401550853497</v>
       </c>
       <c r="J11">
-        <v>0.06188397153607639</v>
+        <v>0.05896215725393716</v>
       </c>
       <c r="K11">
-        <v>13.65680972578315</v>
+        <v>3.82243357795079</v>
       </c>
       <c r="L11">
-        <v>0.2002800105961313</v>
+        <v>0.07309043063802534</v>
       </c>
       <c r="M11">
-        <v>8.601028622958921</v>
+        <v>0.8576578718229086</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.028279118345665</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.65593499596298</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09703863223441545</v>
+        <v>0.1910483489477457</v>
       </c>
       <c r="D12">
-        <v>0.4802486663856769</v>
+        <v>0.160227027534134</v>
       </c>
       <c r="E12">
-        <v>0.03792282866152874</v>
+        <v>0.07705963848475506</v>
       </c>
       <c r="F12">
-        <v>13.28885526955355</v>
+        <v>0.7594697767459309</v>
       </c>
       <c r="G12">
-        <v>0.0006452553910663602</v>
+        <v>0.474098988044247</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3425824844958925</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5217488762507259</v>
       </c>
       <c r="J12">
-        <v>0.06220055072201447</v>
+        <v>0.05894663008291801</v>
       </c>
       <c r="K12">
-        <v>14.20830128604044</v>
+        <v>3.918889993715936</v>
       </c>
       <c r="L12">
-        <v>0.2095592492889011</v>
+        <v>0.07325585320733552</v>
       </c>
       <c r="M12">
-        <v>8.941058778459279</v>
+        <v>0.8789957796068251</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.031608549920577</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.671894141680667</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09655271881715777</v>
+        <v>0.1902675900150115</v>
       </c>
       <c r="D13">
-        <v>0.4743722059759818</v>
+        <v>0.1595611219528195</v>
       </c>
       <c r="E13">
-        <v>0.03764865081668667</v>
+        <v>0.07687849930222157</v>
       </c>
       <c r="F13">
-        <v>13.16136296849993</v>
+        <v>0.7575722374855616</v>
       </c>
       <c r="G13">
-        <v>0.0006479854961536741</v>
+        <v>0.4727652473213197</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.342287139333763</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5204685210458493</v>
       </c>
       <c r="J13">
-        <v>0.06211382009431432</v>
+        <v>0.05894933628712806</v>
       </c>
       <c r="K13">
-        <v>14.08686140235687</v>
+        <v>3.898112496911381</v>
       </c>
       <c r="L13">
-        <v>0.2075089688435625</v>
+        <v>0.0732195720850477</v>
       </c>
       <c r="M13">
-        <v>8.866193584580031</v>
+        <v>0.8743985140810366</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.030883694207688</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.668428139887709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09502364189854262</v>
+        <v>0.1877254776222657</v>
       </c>
       <c r="D14">
-        <v>0.4559570868889296</v>
+        <v>0.1573922674196382</v>
       </c>
       <c r="E14">
-        <v>0.03678275567800426</v>
+        <v>0.07629004447510823</v>
       </c>
       <c r="F14">
-        <v>12.76143810568038</v>
+        <v>0.751425784999455</v>
       </c>
       <c r="G14">
-        <v>0.0006566955943413419</v>
+        <v>0.4684491489545053</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3413427813777048</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5163227686357956</v>
       </c>
       <c r="J14">
-        <v>0.0619020421845633</v>
+        <v>0.05896059333106862</v>
       </c>
       <c r="K14">
-        <v>13.70103603030216</v>
+        <v>3.830367387348133</v>
       </c>
       <c r="L14">
-        <v>0.2010211932664205</v>
+        <v>0.0731037460792443</v>
       </c>
       <c r="M14">
-        <v>8.628301321816195</v>
+        <v>0.8594125672715691</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.028549529891251</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.657234999269093</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09412616727745871</v>
+        <v>0.1861714887263304</v>
       </c>
       <c r="D15">
-        <v>0.4452011265083797</v>
+        <v>0.1560659176888493</v>
       </c>
       <c r="E15">
-        <v>0.03627207166358204</v>
+        <v>0.07593133729753987</v>
       </c>
       <c r="F15">
-        <v>12.52758287842846</v>
+        <v>0.7476927524273833</v>
       </c>
       <c r="G15">
-        <v>0.0006618961270981993</v>
+        <v>0.4658309100857281</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3407786849290488</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5138060323671496</v>
       </c>
       <c r="J15">
-        <v>0.06182225692082355</v>
+        <v>0.05896934537012299</v>
       </c>
       <c r="K15">
-        <v>13.4718725743646</v>
+        <v>3.78888255295135</v>
       </c>
       <c r="L15">
-        <v>0.1971861282171545</v>
+        <v>0.07303470477253171</v>
       </c>
       <c r="M15">
-        <v>8.486977068849313</v>
+        <v>0.8502383128472744</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.027142478287885</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.650462792401072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08946783126857838</v>
+        <v>0.1773128753232669</v>
       </c>
       <c r="D16">
-        <v>0.3899389599184531</v>
+        <v>0.1484970082694446</v>
       </c>
       <c r="E16">
-        <v>0.03358366681739433</v>
+        <v>0.07390184202909467</v>
       </c>
       <c r="F16">
-        <v>11.32349993379484</v>
+        <v>0.7267761925596545</v>
       </c>
       <c r="G16">
-        <v>0.0006900795494237576</v>
+        <v>0.4512070112817526</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3377612808459816</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4997221870077908</v>
       </c>
       <c r="J16">
-        <v>0.06198153488091762</v>
+        <v>0.05904748548529071</v>
       </c>
       <c r="K16">
-        <v>12.24654236122041</v>
+        <v>3.551302625680535</v>
       </c>
       <c r="L16">
-        <v>0.176899425070836</v>
+        <v>0.07266779738640494</v>
       </c>
       <c r="M16">
-        <v>7.731026022803377</v>
+        <v>0.7977378490140694</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.019420239053119</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.612907755236961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08695110817336626</v>
+        <v>0.1719186844141234</v>
       </c>
       <c r="D17">
-        <v>0.3604236340527791</v>
+        <v>0.1438812264784843</v>
       </c>
       <c r="E17">
-        <v>0.03209675332369777</v>
+        <v>0.07267954258774267</v>
       </c>
       <c r="F17">
-        <v>10.67913995760819</v>
+        <v>0.7143562851455698</v>
       </c>
       <c r="G17">
-        <v>0.0007062775672648327</v>
+        <v>0.4425636650868938</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3360971882180053</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4913750308617466</v>
       </c>
       <c r="J17">
-        <v>0.06251197703835132</v>
+        <v>0.05911988988953709</v>
       </c>
       <c r="K17">
-        <v>11.55587492062742</v>
+        <v>3.405674831413535</v>
       </c>
       <c r="L17">
-        <v>0.165616483004662</v>
+        <v>0.07246786184749254</v>
       </c>
       <c r="M17">
-        <v>7.304745547773052</v>
+        <v>0.7655915920108214</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.014979954031688</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.590953184918732</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08560191675208983</v>
+        <v>0.1688303639935071</v>
       </c>
       <c r="D18">
-        <v>0.3446789529342169</v>
+        <v>0.1412360947106208</v>
       </c>
       <c r="E18">
-        <v>0.03128660657420568</v>
+        <v>0.07198464094971868</v>
       </c>
       <c r="F18">
-        <v>10.33524509827873</v>
+        <v>0.7073589641117124</v>
       </c>
       <c r="G18">
-        <v>0.0007152966107942663</v>
+        <v>0.43770838270909</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3352068086154958</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4866779869770426</v>
       </c>
       <c r="J18">
-        <v>0.062941857611019</v>
+        <v>0.05917033128507043</v>
       </c>
       <c r="K18">
-        <v>11.17592812482962</v>
+        <v>3.321951200149783</v>
       </c>
       <c r="L18">
-        <v>0.159452745446039</v>
+        <v>0.07236191464109254</v>
       </c>
       <c r="M18">
-        <v>7.070197995856262</v>
+        <v>0.7471226294187048</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.012532387284779</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.578710572826367</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08516005085007095</v>
+        <v>0.167787114635459</v>
       </c>
       <c r="D19">
-        <v>0.3395324530955435</v>
+        <v>0.1403421384980419</v>
       </c>
       <c r="E19">
-        <v>0.03101901081506497</v>
+        <v>0.07175073550893529</v>
       </c>
       <c r="F19">
-        <v>10.22282881179342</v>
+        <v>0.705014448953186</v>
       </c>
       <c r="G19">
-        <v>0.0007183066316167877</v>
+        <v>0.4360840089679954</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3349166265634977</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4851051806394366</v>
       </c>
       <c r="J19">
-        <v>0.06310639250969885</v>
+        <v>0.05918890248163322</v>
       </c>
       <c r="K19">
-        <v>11.04988778962431</v>
+        <v>3.293609689532616</v>
       </c>
       <c r="L19">
-        <v>0.1574145314862179</v>
+        <v>0.0723275793034297</v>
       </c>
       <c r="M19">
-        <v>6.992385263213606</v>
+        <v>0.7408727538904927</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.011721692264814</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.574630331045626</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08720834467120397</v>
+        <v>0.1724914160757152</v>
       </c>
       <c r="D20">
-        <v>0.3634312109643076</v>
+        <v>0.1443715678546198</v>
       </c>
       <c r="E20">
-        <v>0.03225010791049421</v>
+        <v>0.07280881185339538</v>
       </c>
       <c r="F20">
-        <v>10.74482297900875</v>
+        <v>0.7156631544288814</v>
       </c>
       <c r="G20">
-        <v>0.0007045859511154082</v>
+        <v>0.443471646742168</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3362673807013152</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4922527545338866</v>
       </c>
       <c r="J20">
-        <v>0.0624419746588778</v>
+        <v>0.05911126759155394</v>
       </c>
       <c r="K20">
-        <v>11.62751288939572</v>
+        <v>3.421173123493247</v>
       </c>
       <c r="L20">
-        <v>0.1667820005420779</v>
+        <v>0.07248820437472503</v>
       </c>
       <c r="M20">
-        <v>7.348965625275639</v>
+        <v>0.7690114338400562</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.015441559185973</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.593250135815055</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09546427794636259</v>
+        <v>0.1884715026025958</v>
       </c>
       <c r="D21">
-        <v>0.4612520259999826</v>
+        <v>0.1580288652344564</v>
       </c>
       <c r="E21">
-        <v>0.03703279599164411</v>
+        <v>0.0764625243464252</v>
       </c>
       <c r="F21">
-        <v>12.87648985108513</v>
+        <v>0.7532244806247519</v>
       </c>
       <c r="G21">
-        <v>0.000654166594438673</v>
+        <v>0.4697115525721358</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3416171601531346</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5175357338196136</v>
       </c>
       <c r="J21">
-        <v>0.06195340237619718</v>
+        <v>0.05895689876598453</v>
       </c>
       <c r="K21">
-        <v>13.81280478901644</v>
+        <v>3.850263437212163</v>
       </c>
       <c r="L21">
-        <v>0.2028965793877688</v>
+        <v>0.07313736875951093</v>
       </c>
       <c r="M21">
-        <v>8.69722163976121</v>
+        <v>0.8638132360657877</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.029230385178835</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.660505129478167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1025549593251043</v>
+        <v>0.1990539921617511</v>
       </c>
       <c r="D22">
-        <v>0.5478547507310623</v>
+        <v>0.1670493275264704</v>
       </c>
       <c r="E22">
-        <v>0.04101106984032121</v>
+        <v>0.07892764232708771</v>
       </c>
       <c r="F22">
-        <v>14.75060251279115</v>
+        <v>0.7791846847078432</v>
       </c>
       <c r="G22">
-        <v>0.0006154017858576557</v>
+        <v>0.4879900669682513</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3457504994208023</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.5350638973162418</v>
       </c>
       <c r="J22">
-        <v>0.06379915908695466</v>
+        <v>0.05893858198852797</v>
       </c>
       <c r="K22">
-        <v>15.55108436085965</v>
+        <v>4.131173647199034</v>
       </c>
       <c r="L22">
-        <v>0.2325084485988071</v>
+        <v>0.073646396003749</v>
       </c>
       <c r="M22">
-        <v>9.768417786000327</v>
+        <v>0.925993915892434</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.039250162574547</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.70817955183864</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09854783607755735</v>
+        <v>0.1933926630965459</v>
       </c>
       <c r="D23">
-        <v>0.4985785765470041</v>
+        <v>0.1622258834905352</v>
       </c>
       <c r="E23">
-        <v>0.03877176694940943</v>
+        <v>0.07760465818600437</v>
       </c>
       <c r="F23">
-        <v>13.68610845492884</v>
+        <v>0.7651945884741735</v>
       </c>
       <c r="G23">
-        <v>0.0006368858578509495</v>
+        <v>0.4781263869311658</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3434840463881272</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.525612980338181</v>
       </c>
       <c r="J23">
-        <v>0.06252770682382547</v>
+        <v>0.05894058997569829</v>
       </c>
       <c r="K23">
-        <v>14.58205579472803</v>
+        <v>3.981196034041318</v>
       </c>
       <c r="L23">
-        <v>0.2158948155577889</v>
+        <v>0.07336675410132543</v>
       </c>
       <c r="M23">
-        <v>9.171431860990509</v>
+        <v>0.8927846729078013</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.033807136705533</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.68237991207306</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08709174981861878</v>
+        <v>0.1722324441234235</v>
       </c>
       <c r="D24">
-        <v>0.3620677585741987</v>
+        <v>0.1441498579950746</v>
       </c>
       <c r="E24">
-        <v>0.03218064035975843</v>
+        <v>0.07275034492963783</v>
       </c>
       <c r="F24">
-        <v>10.71504676102262</v>
+        <v>0.7150718744440212</v>
       </c>
       <c r="G24">
-        <v>0.000705351621167351</v>
+        <v>0.443060794517308</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3361902305388185</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4918556192766061</v>
       </c>
       <c r="J24">
-        <v>0.06247324136203503</v>
+        <v>0.05911513832137416</v>
       </c>
       <c r="K24">
-        <v>11.59507317538225</v>
+        <v>3.414166347999583</v>
       </c>
       <c r="L24">
-        <v>0.1662540869340035</v>
+        <v>0.07247897953553206</v>
       </c>
       <c r="M24">
-        <v>7.328941648459846</v>
+        <v>0.7674652852931274</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.015232540442952</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.592210505835965</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07853739720207642</v>
+        <v>0.1499475339629157</v>
       </c>
       <c r="D25">
-        <v>0.262668251313201</v>
+        <v>0.1250203698320007</v>
       </c>
       <c r="E25">
-        <v>0.02682612927208261</v>
+        <v>0.06782261811052237</v>
       </c>
       <c r="F25">
-        <v>8.546507479493357</v>
+        <v>0.6665426645552373</v>
       </c>
       <c r="G25">
-        <v>0.0007676447256615343</v>
+        <v>0.4096282176579251</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3308532904557921</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4593794329222121</v>
       </c>
       <c r="J25">
-        <v>0.06725397461912053</v>
+        <v>0.0596375198442658</v>
       </c>
       <c r="K25">
-        <v>9.043130310098064</v>
+        <v>2.803900857753632</v>
       </c>
       <c r="L25">
-        <v>0.1253596750103654</v>
+        <v>0.07186522123252459</v>
       </c>
       <c r="M25">
-        <v>5.753240133484496</v>
+        <v>0.6330607630605911</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9992322132592193</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.509520784658434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1339428209161326</v>
+        <v>0.2163297274448581</v>
       </c>
       <c r="D2">
-        <v>0.1112100448738218</v>
+        <v>0.177733871430334</v>
       </c>
       <c r="E2">
-        <v>0.06443492551101393</v>
+        <v>0.1540145610752539</v>
       </c>
       <c r="F2">
-        <v>0.6350225686920226</v>
+        <v>1.416815357094023</v>
       </c>
       <c r="G2">
-        <v>0.3883122364051559</v>
+        <v>0.8081426126276128</v>
       </c>
       <c r="H2">
-        <v>0.3288887985462878</v>
+        <v>0.8924579552701388</v>
       </c>
       <c r="I2">
-        <v>0.4384604910354284</v>
+        <v>0.9825447032353338</v>
       </c>
       <c r="J2">
-        <v>0.0602884058977935</v>
+        <v>0.1765071983989621</v>
       </c>
       <c r="K2">
-        <v>2.354963478257787</v>
+        <v>0.9524380544654321</v>
       </c>
       <c r="L2">
-        <v>0.07168809965368439</v>
+        <v>0.2055830365504718</v>
       </c>
       <c r="M2">
-        <v>0.5345574829835087</v>
+        <v>0.3626931031546974</v>
       </c>
       <c r="N2">
-        <v>0.9906179191175966</v>
+        <v>1.426868141194959</v>
       </c>
       <c r="O2">
-        <v>1.459716464034443</v>
+        <v>3.4201919368993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1233200588281278</v>
+        <v>0.214464379711103</v>
       </c>
       <c r="D3">
-        <v>0.1020025870856287</v>
+        <v>0.1759378229593622</v>
       </c>
       <c r="E3">
-        <v>0.06227768484468221</v>
+        <v>0.1542150308386105</v>
       </c>
       <c r="F3">
-        <v>0.6160336475625527</v>
+        <v>1.422314533891026</v>
       </c>
       <c r="G3">
-        <v>0.375704128399228</v>
+        <v>0.8119955768174236</v>
       </c>
       <c r="H3">
-        <v>0.3286853737148761</v>
+        <v>0.898159205687918</v>
       </c>
       <c r="I3">
-        <v>0.4259687466251521</v>
+        <v>0.9866590117837148</v>
       </c>
       <c r="J3">
-        <v>0.06088580567294244</v>
+        <v>0.1775946829971335</v>
       </c>
       <c r="K3">
-        <v>2.050615862991805</v>
+        <v>0.8584792526399667</v>
       </c>
       <c r="L3">
-        <v>0.07172974035047375</v>
+        <v>0.2065914556970831</v>
       </c>
       <c r="M3">
-        <v>0.4679937788751403</v>
+        <v>0.3436271983837429</v>
       </c>
       <c r="N3">
-        <v>0.9866154633378201</v>
+        <v>1.429000959257351</v>
       </c>
       <c r="O3">
-        <v>1.432201863305025</v>
+        <v>3.440024062134057</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1168994869860143</v>
+        <v>0.2133971304066478</v>
       </c>
       <c r="D4">
-        <v>0.09641823195167376</v>
+        <v>0.1748922616885196</v>
       </c>
       <c r="E4">
-        <v>0.06101798625121369</v>
+        <v>0.1543880147290473</v>
       </c>
       <c r="F4">
-        <v>0.60546572044192</v>
+        <v>1.42636883411955</v>
       </c>
       <c r="G4">
-        <v>0.368800817734332</v>
+        <v>0.814829296335688</v>
       </c>
       <c r="H4">
-        <v>0.3290864746986628</v>
+        <v>0.9020111226126701</v>
       </c>
       <c r="I4">
-        <v>0.4190736464736915</v>
+        <v>0.9896620522864339</v>
       </c>
       <c r="J4">
-        <v>0.06132664927491049</v>
+        <v>0.1783171326274946</v>
       </c>
       <c r="K4">
-        <v>1.863595256514287</v>
+        <v>0.8007462673996599</v>
       </c>
       <c r="L4">
-        <v>0.07183203300547092</v>
+        <v>0.2072698502598875</v>
       </c>
       <c r="M4">
-        <v>0.4271910402667274</v>
+        <v>0.3319893799494125</v>
       </c>
       <c r="N4">
-        <v>0.9850204273634091</v>
+        <v>1.430761938319591</v>
       </c>
       <c r="O4">
-        <v>1.418176077790051</v>
+        <v>3.45391902473601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1143075057648844</v>
+        <v>0.212981940877313</v>
       </c>
       <c r="D5">
-        <v>0.09415914228490152</v>
+        <v>0.1744806558463452</v>
       </c>
       <c r="E5">
-        <v>0.06052046970147273</v>
+        <v>0.1544710869355281</v>
       </c>
       <c r="F5">
-        <v>0.601422536363728</v>
+        <v>1.428191585214485</v>
       </c>
       <c r="G5">
-        <v>0.3661887642808708</v>
+        <v>0.8161017451561818</v>
       </c>
       <c r="H5">
-        <v>0.3293779052719756</v>
+        <v>0.9036692423355959</v>
       </c>
       <c r="I5">
-        <v>0.4164507581997761</v>
+        <v>0.9910058188273076</v>
       </c>
       <c r="J5">
-        <v>0.06152448054247728</v>
+        <v>0.1786253187122586</v>
       </c>
       <c r="K5">
-        <v>1.787332453601579</v>
+        <v>0.7772110086487771</v>
       </c>
       <c r="L5">
-        <v>0.07189258483960614</v>
+        <v>0.2075612210627291</v>
       </c>
       <c r="M5">
-        <v>0.4105770680575418</v>
+        <v>0.3272645939178318</v>
       </c>
       <c r="N5">
-        <v>0.9845813368938039</v>
+        <v>1.431593397076753</v>
       </c>
       <c r="O5">
-        <v>1.413152259312909</v>
+        <v>3.460013522191034</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.113878553414537</v>
+        <v>0.2129141928225948</v>
       </c>
       <c r="D6">
-        <v>0.09378500133755807</v>
+        <v>0.1744131852603417</v>
       </c>
       <c r="E6">
-        <v>0.06043879913300287</v>
+        <v>0.1544856417887726</v>
       </c>
       <c r="F6">
-        <v>0.6007667576393203</v>
+        <v>1.42850455951794</v>
       </c>
       <c r="G6">
-        <v>0.365766906289231</v>
+        <v>0.8163201424034909</v>
       </c>
       <c r="H6">
-        <v>0.3294339046925572</v>
+        <v>0.9039499155501574</v>
       </c>
       <c r="I6">
-        <v>0.4160262935796446</v>
+        <v>0.9912362010218168</v>
       </c>
       <c r="J6">
-        <v>0.06155841619364644</v>
+        <v>0.178677325756869</v>
       </c>
       <c r="K6">
-        <v>1.774665676124556</v>
+        <v>0.7733025345972635</v>
       </c>
       <c r="L6">
-        <v>0.07190376679043098</v>
+        <v>0.2076105048839629</v>
       </c>
       <c r="M6">
-        <v>0.4078190453324453</v>
+        <v>0.3264811299090056</v>
       </c>
       <c r="N6">
-        <v>0.9845209951300475</v>
+        <v>1.431738346011933</v>
       </c>
       <c r="O6">
-        <v>1.412359003421756</v>
+        <v>3.461051617586179</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1168644330973905</v>
+        <v>0.2133914510385182</v>
       </c>
       <c r="D7">
-        <v>0.09638769895570931</v>
+        <v>0.1748866519371433</v>
       </c>
       <c r="E7">
-        <v>0.06101121314018521</v>
+        <v>0.154389084089896</v>
       </c>
       <c r="F7">
-        <v>0.6054101407519425</v>
+        <v>1.426392725454569</v>
       </c>
       <c r="G7">
-        <v>0.3687647888742731</v>
+        <v>0.8148459805142565</v>
       </c>
       <c r="H7">
-        <v>0.329089892387735</v>
+        <v>0.9020331264189636</v>
       </c>
       <c r="I7">
-        <v>0.4190375266860045</v>
+        <v>0.9896796887733679</v>
       </c>
       <c r="J7">
-        <v>0.06132924423019581</v>
+        <v>0.178321233103599</v>
       </c>
       <c r="K7">
-        <v>1.862566969840145</v>
+        <v>0.8004288949152851</v>
       </c>
       <c r="L7">
-        <v>0.07183277378840458</v>
+        <v>0.2072737193424956</v>
       </c>
       <c r="M7">
-        <v>0.4269669283836066</v>
+        <v>0.3319255875059994</v>
       </c>
       <c r="N7">
-        <v>0.9850136593844212</v>
+        <v>1.430772690263098</v>
       </c>
       <c r="O7">
-        <v>1.418105561753194</v>
+        <v>3.453999467094533</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1302582386809235</v>
+        <v>0.2156704020409848</v>
       </c>
       <c r="D8">
-        <v>0.108020492447821</v>
+        <v>0.1771027653710462</v>
       </c>
       <c r="E8">
-        <v>0.0636773473684844</v>
+        <v>0.1540733472656797</v>
       </c>
       <c r="F8">
-        <v>0.6282418508031427</v>
+        <v>1.418570891502</v>
       </c>
       <c r="G8">
-        <v>0.3837850719001636</v>
+        <v>0.8093739875673265</v>
       </c>
       <c r="H8">
-        <v>0.3287068463601699</v>
+        <v>0.894350881555745</v>
       </c>
       <c r="I8">
-        <v>0.4339876313716076</v>
+        <v>0.98386440677168</v>
       </c>
       <c r="J8">
-        <v>0.06047875647166379</v>
+        <v>0.1768708158158354</v>
       </c>
       <c r="K8">
-        <v>2.250047547761881</v>
+        <v>0.920050888876375</v>
       </c>
       <c r="L8">
-        <v>0.07168627086686641</v>
+        <v>0.2059184648134575</v>
       </c>
       <c r="M8">
-        <v>0.5115900639950937</v>
+        <v>0.3561051719511354</v>
       </c>
       <c r="N8">
-        <v>0.9890551644242294</v>
+        <v>1.427510040563917</v>
       </c>
       <c r="O8">
-        <v>1.449615995506775</v>
+        <v>3.426673604592722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1573876631162392</v>
+        <v>0.2207554526815443</v>
       </c>
       <c r="D9">
-        <v>0.1314188068674298</v>
+        <v>0.1818993769105788</v>
       </c>
       <c r="E9">
-        <v>0.069443573561351</v>
+        <v>0.1538486998956365</v>
       </c>
       <c r="F9">
-        <v>0.6822002100177897</v>
+        <v>1.4086042404805</v>
       </c>
       <c r="G9">
-        <v>0.4203467331980733</v>
+        <v>0.8023570134119353</v>
       </c>
       <c r="H9">
-        <v>0.3323322038862671</v>
+        <v>0.8820698913986149</v>
       </c>
       <c r="I9">
-        <v>0.46982889730252</v>
+        <v>0.9762404570494283</v>
       </c>
       <c r="J9">
-        <v>0.05941883574378082</v>
+        <v>0.1744599360284482</v>
       </c>
       <c r="K9">
-        <v>3.009358849845739</v>
+        <v>1.154222892182759</v>
       </c>
       <c r="L9">
-        <v>0.07202793279549979</v>
+        <v>0.2037294990951253</v>
       </c>
       <c r="M9">
-        <v>0.6782509010243061</v>
+        <v>0.4040497575932918</v>
       </c>
       <c r="N9">
-        <v>1.004110542815184</v>
+        <v>1.424680229213735</v>
       </c>
       <c r="O9">
-        <v>1.535560378595022</v>
+        <v>3.386712080036403</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1779303622823534</v>
+        <v>0.2248628606271836</v>
       </c>
       <c r="D10">
-        <v>0.1490250473701877</v>
+        <v>0.1856944919365873</v>
       </c>
       <c r="E10">
-        <v>0.07404243273362354</v>
+        <v>0.1539224330861231</v>
       </c>
       <c r="F10">
-        <v>0.728213572601355</v>
+        <v>1.404549958956451</v>
       </c>
       <c r="G10">
-        <v>0.452209328733403</v>
+        <v>0.7994669601791173</v>
       </c>
       <c r="H10">
-        <v>0.3379603521407688</v>
+        <v>0.8747393416275315</v>
       </c>
       <c r="I10">
-        <v>0.5006890083918449</v>
+        <v>0.9729393526598429</v>
       </c>
       <c r="J10">
-        <v>0.0590404296037903</v>
+        <v>0.1729516892930967</v>
       </c>
       <c r="K10">
-        <v>3.567925326320164</v>
+        <v>1.325938552780769</v>
       </c>
       <c r="L10">
-        <v>0.0726918515804833</v>
+        <v>0.2024053866409758</v>
       </c>
       <c r="M10">
-        <v>0.8014088914027155</v>
+        <v>0.4395778542683146</v>
       </c>
       <c r="N10">
-        <v>1.019941520517747</v>
+        <v>1.424759686793294</v>
       </c>
       <c r="O10">
-        <v>1.615466062986627</v>
+        <v>3.365651463556731</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1874281229012098</v>
+        <v>0.2268112375243021</v>
       </c>
       <c r="D11">
-        <v>0.1571385027800432</v>
+        <v>0.1874790707931311</v>
       </c>
       <c r="E11">
-        <v>0.07622134602101482</v>
+        <v>0.154007469348862</v>
       </c>
       <c r="F11">
-        <v>0.7507100361743611</v>
+        <v>1.403413905244371</v>
       </c>
       <c r="G11">
-        <v>0.467946958192158</v>
+        <v>0.7986444559814601</v>
       </c>
       <c r="H11">
-        <v>0.3412340616967668</v>
+        <v>0.8717709532049298</v>
       </c>
       <c r="I11">
-        <v>0.5158401550853497</v>
+        <v>0.9719362681003147</v>
       </c>
       <c r="J11">
-        <v>0.05896215725393716</v>
+        <v>0.1723224155033769</v>
       </c>
       <c r="K11">
-        <v>3.82243357795079</v>
+        <v>1.403968148688818</v>
       </c>
       <c r="L11">
-        <v>0.07309043063802534</v>
+        <v>0.2018643720622642</v>
       </c>
       <c r="M11">
-        <v>0.8576578718229086</v>
+        <v>0.4558025417872713</v>
       </c>
       <c r="N11">
-        <v>1.028279118345665</v>
+        <v>1.425261161056099</v>
       </c>
       <c r="O11">
-        <v>1.65593499596298</v>
+        <v>3.357871289916091</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1910483489477457</v>
+        <v>0.2275604437175502</v>
       </c>
       <c r="D12">
-        <v>0.160227027534134</v>
+        <v>0.1881631329128055</v>
       </c>
       <c r="E12">
-        <v>0.07705963848475506</v>
+        <v>0.1540470434696246</v>
       </c>
       <c r="F12">
-        <v>0.7594697767459309</v>
+        <v>1.403085426721901</v>
       </c>
       <c r="G12">
-        <v>0.474098988044247</v>
+        <v>0.7984037860603763</v>
       </c>
       <c r="H12">
-        <v>0.3425824844958925</v>
+        <v>0.8706994964954902</v>
       </c>
       <c r="I12">
-        <v>0.5217488762507259</v>
+        <v>0.9716280442562208</v>
       </c>
       <c r="J12">
-        <v>0.05894663008291801</v>
+        <v>0.1720922794769564</v>
       </c>
       <c r="K12">
-        <v>3.918889993715936</v>
+        <v>1.433501986525641</v>
       </c>
       <c r="L12">
-        <v>0.07325585320733552</v>
+        <v>0.2016682960378908</v>
       </c>
       <c r="M12">
-        <v>0.8789957796068251</v>
+        <v>0.4619550374402692</v>
       </c>
       <c r="N12">
-        <v>1.031608549920577</v>
+        <v>1.425517677714794</v>
       </c>
       <c r="O12">
-        <v>1.671894141680667</v>
+        <v>3.35518390352226</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1902675900150115</v>
+        <v>0.2273985832693626</v>
       </c>
       <c r="D13">
-        <v>0.1595611219528195</v>
+        <v>0.1880154409211059</v>
       </c>
       <c r="E13">
-        <v>0.07687849930222157</v>
+        <v>0.1540381930816253</v>
       </c>
       <c r="F13">
-        <v>0.7575722374855616</v>
+        <v>1.403151648430011</v>
       </c>
       <c r="G13">
-        <v>0.4727652473213197</v>
+        <v>0.7984524697595958</v>
       </c>
       <c r="H13">
-        <v>0.342287139333763</v>
+        <v>0.8709279152161429</v>
       </c>
       <c r="I13">
-        <v>0.5204685210458493</v>
+        <v>0.9716912415645282</v>
       </c>
       <c r="J13">
-        <v>0.05894933628712806</v>
+        <v>0.1721414808964994</v>
       </c>
       <c r="K13">
-        <v>3.898112496911381</v>
+        <v>1.427142014376727</v>
       </c>
       <c r="L13">
-        <v>0.0732195720850477</v>
+        <v>0.2017101337767109</v>
       </c>
       <c r="M13">
-        <v>0.8743985140810366</v>
+        <v>0.4606296142295179</v>
       </c>
       <c r="N13">
-        <v>1.030883694207688</v>
+        <v>1.425459473989548</v>
       </c>
       <c r="O13">
-        <v>1.668428139887709</v>
+        <v>3.355751171828132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1877254776222657</v>
+        <v>0.2268726472523639</v>
       </c>
       <c r="D14">
-        <v>0.1573922674196382</v>
+        <v>0.1875351835087429</v>
       </c>
       <c r="E14">
-        <v>0.07629004447510823</v>
+        <v>0.1540105775589673</v>
       </c>
       <c r="F14">
-        <v>0.751425784999455</v>
+        <v>1.403384843217921</v>
       </c>
       <c r="G14">
-        <v>0.4684491489545053</v>
+        <v>0.7986232369970878</v>
       </c>
       <c r="H14">
-        <v>0.3413427813777048</v>
+        <v>0.8716817498723231</v>
       </c>
       <c r="I14">
-        <v>0.5163227686357956</v>
+        <v>0.9719094753556163</v>
       </c>
       <c r="J14">
-        <v>0.05896059333106862</v>
+        <v>0.1723033187040954</v>
       </c>
       <c r="K14">
-        <v>3.830367387348133</v>
+        <v>1.406398213408465</v>
       </c>
       <c r="L14">
-        <v>0.0731037460792443</v>
+        <v>0.2018480646576393</v>
       </c>
       <c r="M14">
-        <v>0.8594125672715691</v>
+        <v>0.4563085424628852</v>
       </c>
       <c r="N14">
-        <v>1.028549529891251</v>
+        <v>1.42528093135607</v>
       </c>
       <c r="O14">
-        <v>1.657234999269093</v>
+        <v>3.35764501092973</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1861714887263304</v>
+        <v>0.2265519779352161</v>
       </c>
       <c r="D15">
-        <v>0.1560659176888493</v>
+        <v>0.1872420879300591</v>
       </c>
       <c r="E15">
-        <v>0.07593133729753987</v>
+        <v>0.1539946214484722</v>
       </c>
       <c r="F15">
-        <v>0.7476927524273833</v>
+        <v>1.403540924987567</v>
       </c>
       <c r="G15">
-        <v>0.4658309100857281</v>
+        <v>0.7987370569050398</v>
       </c>
       <c r="H15">
-        <v>0.3407786849290488</v>
+        <v>0.8721503444043464</v>
       </c>
       <c r="I15">
-        <v>0.5138060323671496</v>
+        <v>0.9720524749488462</v>
       </c>
       <c r="J15">
-        <v>0.05896934537012299</v>
+        <v>0.1724035107356165</v>
       </c>
       <c r="K15">
-        <v>3.78888255295135</v>
+        <v>1.393690115026914</v>
       </c>
       <c r="L15">
-        <v>0.07303470477253171</v>
+        <v>0.2019336958667353</v>
       </c>
       <c r="M15">
-        <v>0.8502383128472744</v>
+        <v>0.4536628619199377</v>
       </c>
       <c r="N15">
-        <v>1.027142478287885</v>
+        <v>1.4251802359761</v>
       </c>
       <c r="O15">
-        <v>1.650462792401072</v>
+        <v>3.358838742019344</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1773128753232669</v>
+        <v>0.2247371295670035</v>
       </c>
       <c r="D16">
-        <v>0.1484970082694446</v>
+        <v>0.1855790288016124</v>
       </c>
       <c r="E16">
-        <v>0.07390184202909467</v>
+        <v>0.1539179092225709</v>
       </c>
       <c r="F16">
-        <v>0.7267761925596545</v>
+        <v>1.40463844393161</v>
       </c>
       <c r="G16">
-        <v>0.4512070112817526</v>
+        <v>0.7995306185091664</v>
       </c>
       <c r="H16">
-        <v>0.3377612808459816</v>
+        <v>0.8749406981651759</v>
       </c>
       <c r="I16">
-        <v>0.4997221870077908</v>
+        <v>0.9730149332879705</v>
       </c>
       <c r="J16">
-        <v>0.05904748548529071</v>
+        <v>0.172993956069611</v>
       </c>
       <c r="K16">
-        <v>3.551302625680535</v>
+        <v>1.320837251299906</v>
       </c>
       <c r="L16">
-        <v>0.07266779738640494</v>
+        <v>0.2024419752230457</v>
       </c>
       <c r="M16">
-        <v>0.7977378490140694</v>
+        <v>0.4385187559466956</v>
       </c>
       <c r="N16">
-        <v>1.019420239053119</v>
+        <v>1.424736252586797</v>
       </c>
       <c r="O16">
-        <v>1.612907755236961</v>
+        <v>3.366196136493812</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1719186844141234</v>
+        <v>0.2236441776146307</v>
       </c>
       <c r="D17">
-        <v>0.1438812264784843</v>
+        <v>0.1845736336502455</v>
       </c>
       <c r="E17">
-        <v>0.07267954258774267</v>
+        <v>0.1538840148955778</v>
       </c>
       <c r="F17">
-        <v>0.7143562851455698</v>
+        <v>1.405493048690182</v>
       </c>
       <c r="G17">
-        <v>0.4425636650868938</v>
+        <v>0.8001435186533001</v>
       </c>
       <c r="H17">
-        <v>0.3360971882180053</v>
+        <v>0.8767462634324374</v>
       </c>
       <c r="I17">
-        <v>0.4913750308617466</v>
+        <v>0.9737330207940715</v>
       </c>
       <c r="J17">
-        <v>0.05911988988953709</v>
+        <v>0.1733707202283199</v>
       </c>
       <c r="K17">
-        <v>3.405674831413535</v>
+        <v>1.2761211890911</v>
       </c>
       <c r="L17">
-        <v>0.07246786184749254</v>
+        <v>0.2027694787321153</v>
       </c>
       <c r="M17">
-        <v>0.7655915920108214</v>
+        <v>0.4292440826383697</v>
       </c>
       <c r="N17">
-        <v>1.014979954031688</v>
+        <v>1.424582853867705</v>
       </c>
       <c r="O17">
-        <v>1.590953184918732</v>
+        <v>3.371170716537165</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1688303639935071</v>
+        <v>0.2230230662220265</v>
       </c>
       <c r="D18">
-        <v>0.1412360947106208</v>
+        <v>0.1840008363787717</v>
       </c>
       <c r="E18">
-        <v>0.07198464094971868</v>
+        <v>0.1538693686157515</v>
       </c>
       <c r="F18">
-        <v>0.7073589641117124</v>
+        <v>1.406051267062971</v>
       </c>
       <c r="G18">
-        <v>0.43770838270909</v>
+        <v>0.8005423693934546</v>
       </c>
       <c r="H18">
-        <v>0.3352068086154958</v>
+        <v>0.8778192602208321</v>
       </c>
       <c r="I18">
-        <v>0.4866779869770426</v>
+        <v>0.9741929813251957</v>
       </c>
       <c r="J18">
-        <v>0.05917033128507043</v>
+        <v>0.1735927755900626</v>
       </c>
       <c r="K18">
-        <v>3.321951200149783</v>
+        <v>1.25039384351993</v>
       </c>
       <c r="L18">
-        <v>0.07236191464109254</v>
+        <v>0.2029636243146378</v>
       </c>
       <c r="M18">
-        <v>0.7471226294187048</v>
+        <v>0.4239154728098882</v>
       </c>
       <c r="N18">
-        <v>1.012532387284779</v>
+        <v>1.424538439190215</v>
       </c>
       <c r="O18">
-        <v>1.578710572826367</v>
+        <v>3.374201432241023</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.167787114635459</v>
+        <v>0.2228140638850817</v>
       </c>
       <c r="D19">
-        <v>0.1403421384980419</v>
+        <v>0.1838078406853327</v>
       </c>
       <c r="E19">
-        <v>0.07175073550893529</v>
+        <v>0.1538652434097862</v>
       </c>
       <c r="F19">
-        <v>0.705014448953186</v>
+        <v>1.40625172509062</v>
       </c>
       <c r="G19">
-        <v>0.4360840089679954</v>
+        <v>0.8006853695250555</v>
       </c>
       <c r="H19">
-        <v>0.3349166265634977</v>
+        <v>0.8781884831347497</v>
       </c>
       <c r="I19">
-        <v>0.4851051806394366</v>
+        <v>0.9743567796050741</v>
       </c>
       <c r="J19">
-        <v>0.05918890248163322</v>
+        <v>0.1736688791932579</v>
       </c>
       <c r="K19">
-        <v>3.293609689532616</v>
+        <v>1.241681722125406</v>
       </c>
       <c r="L19">
-        <v>0.0723275793034297</v>
+        <v>0.203030351160411</v>
       </c>
       <c r="M19">
-        <v>0.7408727538904927</v>
+        <v>0.4221123310547341</v>
       </c>
       <c r="N19">
-        <v>1.011721692264814</v>
+        <v>1.424530935675506</v>
       </c>
       <c r="O19">
-        <v>1.574630331045626</v>
+        <v>3.375256689955535</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1724914160757152</v>
+        <v>0.2237597459971283</v>
       </c>
       <c r="D20">
-        <v>0.1443715678546198</v>
+        <v>0.1846800931801056</v>
       </c>
       <c r="E20">
-        <v>0.07280881185339538</v>
+        <v>0.1538871214007713</v>
       </c>
       <c r="F20">
-        <v>0.7156631544288814</v>
+        <v>1.405395175133627</v>
       </c>
       <c r="G20">
-        <v>0.443471646742168</v>
+        <v>0.8000734796081588</v>
       </c>
       <c r="H20">
-        <v>0.3362673807013152</v>
+        <v>0.8765504895183085</v>
       </c>
       <c r="I20">
-        <v>0.4922527545338866</v>
+        <v>0.9736517220459078</v>
       </c>
       <c r="J20">
-        <v>0.05911126759155394</v>
+        <v>0.1733300593954752</v>
       </c>
       <c r="K20">
-        <v>3.421173123493247</v>
+        <v>1.28088211780198</v>
       </c>
       <c r="L20">
-        <v>0.07248820437472503</v>
+        <v>0.2027340179939188</v>
       </c>
       <c r="M20">
-        <v>0.7690114338400562</v>
+        <v>0.4302307763909354</v>
       </c>
       <c r="N20">
-        <v>1.015441559185973</v>
+        <v>1.424594650758422</v>
       </c>
       <c r="O20">
-        <v>1.593250135815055</v>
+        <v>3.370623625326658</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1884715026025958</v>
+        <v>0.2270268187916713</v>
       </c>
       <c r="D21">
-        <v>0.1580288652344564</v>
+        <v>0.1876760226727896</v>
       </c>
       <c r="E21">
-        <v>0.0764625243464252</v>
+        <v>0.1540184890694505</v>
       </c>
       <c r="F21">
-        <v>0.7532244806247519</v>
+        <v>1.403313588605961</v>
       </c>
       <c r="G21">
-        <v>0.4697115525721358</v>
+        <v>0.7985711570414367</v>
       </c>
       <c r="H21">
-        <v>0.3416171601531346</v>
+        <v>0.8714589031482518</v>
       </c>
       <c r="I21">
-        <v>0.5175357338196136</v>
+        <v>0.9718434315965681</v>
       </c>
       <c r="J21">
-        <v>0.05895689876598453</v>
+        <v>0.1722555617882833</v>
       </c>
       <c r="K21">
-        <v>3.850263437212163</v>
+        <v>1.412491574723333</v>
       </c>
       <c r="L21">
-        <v>0.07313736875951093</v>
+        <v>0.2018073125329956</v>
       </c>
       <c r="M21">
-        <v>0.8638132360657877</v>
+        <v>0.4575775174394039</v>
       </c>
       <c r="N21">
-        <v>1.029230385178835</v>
+        <v>1.425331567950167</v>
       </c>
       <c r="O21">
-        <v>1.660505129478167</v>
+        <v>3.357081721618783</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1990539921617511</v>
+        <v>0.2292284346941784</v>
       </c>
       <c r="D22">
-        <v>0.1670493275264704</v>
+        <v>0.1896822644608278</v>
       </c>
       <c r="E22">
-        <v>0.07892764232708771</v>
+        <v>0.1541473044855337</v>
       </c>
       <c r="F22">
-        <v>0.7791846847078432</v>
+        <v>1.402545996410311</v>
       </c>
       <c r="G22">
-        <v>0.4879900669682513</v>
+        <v>0.7980019547225936</v>
       </c>
       <c r="H22">
-        <v>0.3457504994208023</v>
+        <v>0.8684378627837503</v>
       </c>
       <c r="I22">
-        <v>0.5350638973162418</v>
+        <v>0.9710790443267854</v>
       </c>
       <c r="J22">
-        <v>0.05893858198852797</v>
+        <v>0.1716008490360252</v>
       </c>
       <c r="K22">
-        <v>4.131173647199034</v>
+        <v>1.498421778697548</v>
       </c>
       <c r="L22">
-        <v>0.073646396003749</v>
+        <v>0.201252906296471</v>
       </c>
       <c r="M22">
-        <v>0.925993915892434</v>
+        <v>0.4754998626686131</v>
       </c>
       <c r="N22">
-        <v>1.039250162574547</v>
+        <v>1.426201360736812</v>
       </c>
       <c r="O22">
-        <v>1.70817955183864</v>
+        <v>3.349739721350147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1933926630965459</v>
+        <v>0.2280473457272194</v>
       </c>
       <c r="D23">
-        <v>0.1622258834905352</v>
+        <v>0.1886071098726347</v>
       </c>
       <c r="E23">
-        <v>0.07760465818600437</v>
+        <v>0.1540746331242602</v>
       </c>
       <c r="F23">
-        <v>0.7651945884741735</v>
+        <v>1.402901471426361</v>
       </c>
       <c r="G23">
-        <v>0.4781263869311658</v>
+        <v>0.798267985484415</v>
       </c>
       <c r="H23">
-        <v>0.3434840463881272</v>
+        <v>0.8700222169084526</v>
       </c>
       <c r="I23">
-        <v>0.525612980338181</v>
+        <v>0.9714488421686056</v>
       </c>
       <c r="J23">
-        <v>0.05894058997569829</v>
+        <v>0.1719459376724011</v>
       </c>
       <c r="K23">
-        <v>3.981196034041318</v>
+        <v>1.452567605328795</v>
       </c>
       <c r="L23">
-        <v>0.07336675410132543</v>
+        <v>0.2015441222021437</v>
       </c>
       <c r="M23">
-        <v>0.8927846729078013</v>
+        <v>0.465929979707326</v>
       </c>
       <c r="N23">
-        <v>1.033807136705533</v>
+        <v>1.425701713927978</v>
       </c>
       <c r="O23">
-        <v>1.68237991207306</v>
+        <v>3.353520298242387</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1722324441234235</v>
+        <v>0.2237074749696859</v>
       </c>
       <c r="D24">
-        <v>0.1441498579950746</v>
+        <v>0.1846319465673787</v>
       </c>
       <c r="E24">
-        <v>0.07275034492963783</v>
+        <v>0.1538857018714737</v>
       </c>
       <c r="F24">
-        <v>0.7150718744440212</v>
+        <v>1.405439215387638</v>
       </c>
       <c r="G24">
-        <v>0.443060794517308</v>
+        <v>0.8001049994607285</v>
       </c>
       <c r="H24">
-        <v>0.3361902305388185</v>
+        <v>0.8766388900225905</v>
       </c>
       <c r="I24">
-        <v>0.4918556192766061</v>
+        <v>0.9736883304216377</v>
       </c>
       <c r="J24">
-        <v>0.05911513832137416</v>
+        <v>0.1733484251849085</v>
       </c>
       <c r="K24">
-        <v>3.414166347999583</v>
+        <v>1.278729762466639</v>
       </c>
       <c r="L24">
-        <v>0.07247897953553206</v>
+        <v>0.2027500315402939</v>
       </c>
       <c r="M24">
-        <v>0.7674652852931274</v>
+        <v>0.4297846811346488</v>
       </c>
       <c r="N24">
-        <v>1.015232540442952</v>
+        <v>1.424589181001522</v>
       </c>
       <c r="O24">
-        <v>1.592210505835965</v>
+        <v>3.370870433339689</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1499475339629157</v>
+        <v>0.2193142880406924</v>
       </c>
       <c r="D25">
-        <v>0.1250203698320007</v>
+        <v>0.1805538948171233</v>
       </c>
       <c r="E25">
-        <v>0.06782261811052237</v>
+        <v>0.1538674161178122</v>
       </c>
       <c r="F25">
-        <v>0.6665426645552373</v>
+        <v>1.410726067437722</v>
       </c>
       <c r="G25">
-        <v>0.4096282176579251</v>
+        <v>0.8038575766935736</v>
       </c>
       <c r="H25">
-        <v>0.3308532904557921</v>
+        <v>0.8850946925015535</v>
       </c>
       <c r="I25">
-        <v>0.4593794329222121</v>
+        <v>0.9778987019098082</v>
       </c>
       <c r="J25">
-        <v>0.0596375198442658</v>
+        <v>0.1750658680500123</v>
       </c>
       <c r="K25">
-        <v>2.803900857753632</v>
+        <v>1.090925238584504</v>
       </c>
       <c r="L25">
-        <v>0.07186522123252459</v>
+        <v>0.2042716624274377</v>
       </c>
       <c r="M25">
-        <v>0.6330607630605911</v>
+        <v>0.3910248623445653</v>
       </c>
       <c r="N25">
-        <v>0.9992322132592193</v>
+        <v>1.425065518061061</v>
       </c>
       <c r="O25">
-        <v>1.509520784658434</v>
+        <v>3.396064832393535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2163297274448581</v>
+        <v>0.1339428209166726</v>
       </c>
       <c r="D2">
-        <v>0.177733871430334</v>
+        <v>0.1112100448735873</v>
       </c>
       <c r="E2">
-        <v>0.1540145610752539</v>
+        <v>0.06443492551102814</v>
       </c>
       <c r="F2">
-        <v>1.416815357094023</v>
+        <v>0.6350225686920083</v>
       </c>
       <c r="G2">
-        <v>0.8081426126276128</v>
+        <v>0.3883122364051559</v>
       </c>
       <c r="H2">
-        <v>0.8924579552701388</v>
+        <v>0.3288887985462878</v>
       </c>
       <c r="I2">
-        <v>0.9825447032353338</v>
+        <v>0.4384604910354426</v>
       </c>
       <c r="J2">
-        <v>0.1765071983989621</v>
+        <v>0.06028840589787876</v>
       </c>
       <c r="K2">
-        <v>0.9524380544654321</v>
+        <v>2.354963478257815</v>
       </c>
       <c r="L2">
-        <v>0.2055830365504718</v>
+        <v>0.07168809965370571</v>
       </c>
       <c r="M2">
-        <v>0.3626931031546974</v>
+        <v>0.5345574829835087</v>
       </c>
       <c r="N2">
-        <v>1.426868141194959</v>
+        <v>0.9906179191175966</v>
       </c>
       <c r="O2">
-        <v>3.4201919368993</v>
+        <v>1.459716464034457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.214464379711103</v>
+        <v>0.1233200588281136</v>
       </c>
       <c r="D3">
-        <v>0.1759378229593622</v>
+        <v>0.1020025870856287</v>
       </c>
       <c r="E3">
-        <v>0.1542150308386105</v>
+        <v>0.06227768484466978</v>
       </c>
       <c r="F3">
-        <v>1.422314533891026</v>
+        <v>0.6160336475625456</v>
       </c>
       <c r="G3">
-        <v>0.8119955768174236</v>
+        <v>0.3757041283991711</v>
       </c>
       <c r="H3">
-        <v>0.898159205687918</v>
+        <v>0.3286853737148689</v>
       </c>
       <c r="I3">
-        <v>0.9866590117837148</v>
+        <v>0.4259687466251663</v>
       </c>
       <c r="J3">
-        <v>0.1775946829971335</v>
+        <v>0.06088580567294422</v>
       </c>
       <c r="K3">
-        <v>0.8584792526399667</v>
+        <v>2.050615862991748</v>
       </c>
       <c r="L3">
-        <v>0.2065914556970831</v>
+        <v>0.07172974035049506</v>
       </c>
       <c r="M3">
-        <v>0.3436271983837429</v>
+        <v>0.4679937788751047</v>
       </c>
       <c r="N3">
-        <v>1.429000959257351</v>
+        <v>0.986615463337877</v>
       </c>
       <c r="O3">
-        <v>3.440024062134057</v>
+        <v>1.432201863304968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2133971304066478</v>
+        <v>0.1168994869860143</v>
       </c>
       <c r="D4">
-        <v>0.1748922616885196</v>
+        <v>0.09641823195166666</v>
       </c>
       <c r="E4">
-        <v>0.1543880147290473</v>
+        <v>0.0610179862511675</v>
       </c>
       <c r="F4">
-        <v>1.42636883411955</v>
+        <v>0.6054657204419129</v>
       </c>
       <c r="G4">
-        <v>0.814829296335688</v>
+        <v>0.368800817734332</v>
       </c>
       <c r="H4">
-        <v>0.9020111226126701</v>
+        <v>0.3290864746986557</v>
       </c>
       <c r="I4">
-        <v>0.9896620522864339</v>
+        <v>0.4190736464736808</v>
       </c>
       <c r="J4">
-        <v>0.1783171326274946</v>
+        <v>0.06132664927483944</v>
       </c>
       <c r="K4">
-        <v>0.8007462673996599</v>
+        <v>1.863595256514344</v>
       </c>
       <c r="L4">
-        <v>0.2072698502598875</v>
+        <v>0.07183203300533592</v>
       </c>
       <c r="M4">
-        <v>0.3319893799494125</v>
+        <v>0.4271910402667345</v>
       </c>
       <c r="N4">
-        <v>1.430761938319591</v>
+        <v>0.985020427363402</v>
       </c>
       <c r="O4">
-        <v>3.45391902473601</v>
+        <v>1.418176077790022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.212981940877313</v>
+        <v>0.1143075057648701</v>
       </c>
       <c r="D5">
-        <v>0.1744806558463452</v>
+        <v>0.09415914228478073</v>
       </c>
       <c r="E5">
-        <v>0.1544710869355281</v>
+        <v>0.06052046970151359</v>
       </c>
       <c r="F5">
-        <v>1.428191585214485</v>
+        <v>0.6014225363637209</v>
       </c>
       <c r="G5">
-        <v>0.8161017451561818</v>
+        <v>0.3661887642808139</v>
       </c>
       <c r="H5">
-        <v>0.9036692423355959</v>
+        <v>0.3293779052718619</v>
       </c>
       <c r="I5">
-        <v>0.9910058188273076</v>
+        <v>0.416450758199769</v>
       </c>
       <c r="J5">
-        <v>0.1786253187122586</v>
+        <v>0.06152448054249859</v>
       </c>
       <c r="K5">
-        <v>0.7772110086487771</v>
+        <v>1.787332453601522</v>
       </c>
       <c r="L5">
-        <v>0.2075612210627291</v>
+        <v>0.07189258483964167</v>
       </c>
       <c r="M5">
-        <v>0.3272645939178318</v>
+        <v>0.4105770680575418</v>
       </c>
       <c r="N5">
-        <v>1.431593397076753</v>
+        <v>0.9845813368938607</v>
       </c>
       <c r="O5">
-        <v>3.460013522191034</v>
+        <v>1.413152259312852</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2129141928225948</v>
+        <v>0.1138785534143096</v>
       </c>
       <c r="D6">
-        <v>0.1744131852603417</v>
+        <v>0.09378500133751544</v>
       </c>
       <c r="E6">
-        <v>0.1544856417887726</v>
+        <v>0.06043879913298866</v>
       </c>
       <c r="F6">
-        <v>1.42850455951794</v>
+        <v>0.6007667576393203</v>
       </c>
       <c r="G6">
-        <v>0.8163201424034909</v>
+        <v>0.3657669062891742</v>
       </c>
       <c r="H6">
-        <v>0.9039499155501574</v>
+        <v>0.3294339046925572</v>
       </c>
       <c r="I6">
-        <v>0.9912362010218168</v>
+        <v>0.4160262935796446</v>
       </c>
       <c r="J6">
-        <v>0.178677325756869</v>
+        <v>0.06155841619370328</v>
       </c>
       <c r="K6">
-        <v>0.7733025345972635</v>
+        <v>1.774665676124471</v>
       </c>
       <c r="L6">
-        <v>0.2076105048839629</v>
+        <v>0.07190376679049137</v>
       </c>
       <c r="M6">
-        <v>0.3264811299090056</v>
+        <v>0.4078190453324453</v>
       </c>
       <c r="N6">
-        <v>1.431738346011933</v>
+        <v>0.9845209951300546</v>
       </c>
       <c r="O6">
-        <v>3.461051617586179</v>
+        <v>1.412359003421685</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2133914510385182</v>
+        <v>0.1168644330977031</v>
       </c>
       <c r="D7">
-        <v>0.1748866519371433</v>
+        <v>0.09638769895577326</v>
       </c>
       <c r="E7">
-        <v>0.154389084089896</v>
+        <v>0.06101121314021185</v>
       </c>
       <c r="F7">
-        <v>1.426392725454569</v>
+        <v>0.6054101407519497</v>
       </c>
       <c r="G7">
-        <v>0.8148459805142565</v>
+        <v>0.3687647888742802</v>
       </c>
       <c r="H7">
-        <v>0.9020331264189636</v>
+        <v>0.3290898923877279</v>
       </c>
       <c r="I7">
-        <v>0.9896796887733679</v>
+        <v>0.4190375266860151</v>
       </c>
       <c r="J7">
-        <v>0.178321233103599</v>
+        <v>0.06132924423024555</v>
       </c>
       <c r="K7">
-        <v>0.8004288949152851</v>
+        <v>1.86256696984006</v>
       </c>
       <c r="L7">
-        <v>0.2072737193424956</v>
+        <v>0.07183277378841879</v>
       </c>
       <c r="M7">
-        <v>0.3319255875059994</v>
+        <v>0.4269669283836066</v>
       </c>
       <c r="N7">
-        <v>1.430772690263098</v>
+        <v>0.9850136593844283</v>
       </c>
       <c r="O7">
-        <v>3.453999467094533</v>
+        <v>1.418105561753251</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2156704020409848</v>
+        <v>0.1302582386813782</v>
       </c>
       <c r="D8">
-        <v>0.1771027653710462</v>
+        <v>0.1080204924475652</v>
       </c>
       <c r="E8">
-        <v>0.1540733472656797</v>
+        <v>0.06367734736846842</v>
       </c>
       <c r="F8">
-        <v>1.418570891502</v>
+        <v>0.6282418508031498</v>
       </c>
       <c r="G8">
-        <v>0.8093739875673265</v>
+        <v>0.38378507190005</v>
       </c>
       <c r="H8">
-        <v>0.894350881555745</v>
+        <v>0.3287068463601699</v>
       </c>
       <c r="I8">
-        <v>0.98386440677168</v>
+        <v>0.4339876313716076</v>
       </c>
       <c r="J8">
-        <v>0.1768708158158354</v>
+        <v>0.06047875647159273</v>
       </c>
       <c r="K8">
-        <v>0.920050888876375</v>
+        <v>2.250047547761937</v>
       </c>
       <c r="L8">
-        <v>0.2059184648134575</v>
+        <v>0.07168627086692325</v>
       </c>
       <c r="M8">
-        <v>0.3561051719511354</v>
+        <v>0.5115900639950866</v>
       </c>
       <c r="N8">
-        <v>1.427510040563917</v>
+        <v>0.9890551644242294</v>
       </c>
       <c r="O8">
-        <v>3.426673604592722</v>
+        <v>1.449615995506861</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2207554526815443</v>
+        <v>0.1573876631164381</v>
       </c>
       <c r="D9">
-        <v>0.1818993769105788</v>
+        <v>0.1314188068675293</v>
       </c>
       <c r="E9">
-        <v>0.1538486998956365</v>
+        <v>0.06944357356136877</v>
       </c>
       <c r="F9">
-        <v>1.4086042404805</v>
+        <v>0.6822002100177968</v>
       </c>
       <c r="G9">
-        <v>0.8023570134119353</v>
+        <v>0.420346733197988</v>
       </c>
       <c r="H9">
-        <v>0.8820698913986149</v>
+        <v>0.3323322038862671</v>
       </c>
       <c r="I9">
-        <v>0.9762404570494283</v>
+        <v>0.4698288973025271</v>
       </c>
       <c r="J9">
-        <v>0.1744599360284482</v>
+        <v>0.05941883574383766</v>
       </c>
       <c r="K9">
-        <v>1.154222892182759</v>
+        <v>3.009358849845682</v>
       </c>
       <c r="L9">
-        <v>0.2037294990951253</v>
+        <v>0.07202793279547137</v>
       </c>
       <c r="M9">
-        <v>0.4040497575932918</v>
+        <v>0.6782509010242848</v>
       </c>
       <c r="N9">
-        <v>1.424680229213735</v>
+        <v>1.00411054281517</v>
       </c>
       <c r="O9">
-        <v>3.386712080036403</v>
+        <v>1.535560378595136</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2248628606271836</v>
+        <v>0.177930362281927</v>
       </c>
       <c r="D10">
-        <v>0.1856944919365873</v>
+        <v>0.1490250473699746</v>
       </c>
       <c r="E10">
-        <v>0.1539224330861231</v>
+        <v>0.07404243273361644</v>
       </c>
       <c r="F10">
-        <v>1.404549958956451</v>
+        <v>0.7282135726013905</v>
       </c>
       <c r="G10">
-        <v>0.7994669601791173</v>
+        <v>0.4522093287334457</v>
       </c>
       <c r="H10">
-        <v>0.8747393416275315</v>
+        <v>0.3379603521407972</v>
       </c>
       <c r="I10">
-        <v>0.9729393526598429</v>
+        <v>0.5006890083918307</v>
       </c>
       <c r="J10">
-        <v>0.1729516892930967</v>
+        <v>0.05904042960369082</v>
       </c>
       <c r="K10">
-        <v>1.325938552780769</v>
+        <v>3.567925326320278</v>
       </c>
       <c r="L10">
-        <v>0.2024053866409758</v>
+        <v>0.07269185158044777</v>
       </c>
       <c r="M10">
-        <v>0.4395778542683146</v>
+        <v>0.8014088914027298</v>
       </c>
       <c r="N10">
-        <v>1.424759686793294</v>
+        <v>1.019941520517705</v>
       </c>
       <c r="O10">
-        <v>3.365651463556731</v>
+        <v>1.615466062986684</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2268112375243021</v>
+        <v>0.1874281229010677</v>
       </c>
       <c r="D11">
-        <v>0.1874790707931311</v>
+        <v>0.1571385027798868</v>
       </c>
       <c r="E11">
-        <v>0.154007469348862</v>
+        <v>0.07622134602102548</v>
       </c>
       <c r="F11">
-        <v>1.403413905244371</v>
+        <v>0.7507100361743753</v>
       </c>
       <c r="G11">
-        <v>0.7986444559814601</v>
+        <v>0.4679469581922433</v>
       </c>
       <c r="H11">
-        <v>0.8717709532049298</v>
+        <v>0.3412340616968805</v>
       </c>
       <c r="I11">
-        <v>0.9719362681003147</v>
+        <v>0.5158401550853497</v>
       </c>
       <c r="J11">
-        <v>0.1723224155033769</v>
+        <v>0.05896215725407927</v>
       </c>
       <c r="K11">
-        <v>1.403968148688818</v>
+        <v>3.822433577950846</v>
       </c>
       <c r="L11">
-        <v>0.2018643720622642</v>
+        <v>0.07309043063807863</v>
       </c>
       <c r="M11">
-        <v>0.4558025417872713</v>
+        <v>0.8576578718229229</v>
       </c>
       <c r="N11">
-        <v>1.425261161056099</v>
+        <v>1.028279118345623</v>
       </c>
       <c r="O11">
-        <v>3.357871289916091</v>
+        <v>1.655934995962951</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2275604437175502</v>
+        <v>0.1910483489477599</v>
       </c>
       <c r="D12">
-        <v>0.1881631329128055</v>
+        <v>0.1602270275339635</v>
       </c>
       <c r="E12">
-        <v>0.1540470434696246</v>
+        <v>0.07705963848476927</v>
       </c>
       <c r="F12">
-        <v>1.403085426721901</v>
+        <v>0.7594697767459309</v>
       </c>
       <c r="G12">
-        <v>0.7984037860603763</v>
+        <v>0.4740989880442044</v>
       </c>
       <c r="H12">
-        <v>0.8706994964954902</v>
+        <v>0.3425824844959209</v>
       </c>
       <c r="I12">
-        <v>0.9716280442562208</v>
+        <v>0.5217488762507401</v>
       </c>
       <c r="J12">
-        <v>0.1720922794769564</v>
+        <v>0.05894663008282564</v>
       </c>
       <c r="K12">
-        <v>1.433501986525641</v>
+        <v>3.918889993715879</v>
       </c>
       <c r="L12">
-        <v>0.2016682960378908</v>
+        <v>0.07325585320725736</v>
       </c>
       <c r="M12">
-        <v>0.4619550374402692</v>
+        <v>0.8789957796068251</v>
       </c>
       <c r="N12">
-        <v>1.425517677714794</v>
+        <v>1.031608549920634</v>
       </c>
       <c r="O12">
-        <v>3.35518390352226</v>
+        <v>1.67189414168061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2273985832693626</v>
+        <v>0.190267590014912</v>
       </c>
       <c r="D13">
-        <v>0.1880154409211059</v>
+        <v>0.1595611219529474</v>
       </c>
       <c r="E13">
-        <v>0.1540381930816253</v>
+        <v>0.07687849930222157</v>
       </c>
       <c r="F13">
-        <v>1.403151648430011</v>
+        <v>0.7575722374855616</v>
       </c>
       <c r="G13">
-        <v>0.7984524697595958</v>
+        <v>0.4727652473213482</v>
       </c>
       <c r="H13">
-        <v>0.8709279152161429</v>
+        <v>0.3422871393338767</v>
       </c>
       <c r="I13">
-        <v>0.9716912415645282</v>
+        <v>0.5204685210458493</v>
       </c>
       <c r="J13">
-        <v>0.1721414808964994</v>
+        <v>0.0589493362871174</v>
       </c>
       <c r="K13">
-        <v>1.427142014376727</v>
+        <v>3.898112496911267</v>
       </c>
       <c r="L13">
-        <v>0.2017101337767109</v>
+        <v>0.0732195720849802</v>
       </c>
       <c r="M13">
-        <v>0.4606296142295179</v>
+        <v>0.8743985140810366</v>
       </c>
       <c r="N13">
-        <v>1.425459473989548</v>
+        <v>1.030883694207674</v>
       </c>
       <c r="O13">
-        <v>3.355751171828132</v>
+        <v>1.668428139887624</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2268726472523639</v>
+        <v>0.1877254776219957</v>
       </c>
       <c r="D14">
-        <v>0.1875351835087429</v>
+        <v>0.1573922674194819</v>
       </c>
       <c r="E14">
-        <v>0.1540105775589673</v>
+        <v>0.07629004447514021</v>
       </c>
       <c r="F14">
-        <v>1.403384843217921</v>
+        <v>0.751425784999455</v>
       </c>
       <c r="G14">
-        <v>0.7986232369970878</v>
+        <v>0.4684491489544911</v>
       </c>
       <c r="H14">
-        <v>0.8716817498723231</v>
+        <v>0.3413427813777048</v>
       </c>
       <c r="I14">
-        <v>0.9719094753556163</v>
+        <v>0.5163227686357885</v>
       </c>
       <c r="J14">
-        <v>0.1723033187040954</v>
+        <v>0.05896059333105441</v>
       </c>
       <c r="K14">
-        <v>1.406398213408465</v>
+        <v>3.830367387348019</v>
       </c>
       <c r="L14">
-        <v>0.2018480646576393</v>
+        <v>0.07310374607914483</v>
       </c>
       <c r="M14">
-        <v>0.4563085424628852</v>
+        <v>0.8594125672715904</v>
       </c>
       <c r="N14">
-        <v>1.42528093135607</v>
+        <v>1.02854952989118</v>
       </c>
       <c r="O14">
-        <v>3.35764501092973</v>
+        <v>1.657234999269036</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2265519779352161</v>
+        <v>0.186171488726103</v>
       </c>
       <c r="D15">
-        <v>0.1872420879300591</v>
+        <v>0.1560659176888493</v>
       </c>
       <c r="E15">
-        <v>0.1539946214484722</v>
+        <v>0.07593133729753987</v>
       </c>
       <c r="F15">
-        <v>1.403540924987567</v>
+        <v>0.7476927524274117</v>
       </c>
       <c r="G15">
-        <v>0.7987370569050398</v>
+        <v>0.4658309100856712</v>
       </c>
       <c r="H15">
-        <v>0.8721503444043464</v>
+        <v>0.3407786849290488</v>
       </c>
       <c r="I15">
-        <v>0.9720524749488462</v>
+        <v>0.5138060323671425</v>
       </c>
       <c r="J15">
-        <v>0.1724035107356165</v>
+        <v>0.05896934537014076</v>
       </c>
       <c r="K15">
-        <v>1.393690115026914</v>
+        <v>3.78888255295135</v>
       </c>
       <c r="L15">
-        <v>0.2019336958667353</v>
+        <v>0.07303470477263829</v>
       </c>
       <c r="M15">
-        <v>0.4536628619199377</v>
+        <v>0.8502383128472815</v>
       </c>
       <c r="N15">
-        <v>1.4251802359761</v>
+        <v>1.027142478287885</v>
       </c>
       <c r="O15">
-        <v>3.358838742019344</v>
+        <v>1.650462792401044</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2247371295670035</v>
+        <v>0.1773128753234943</v>
       </c>
       <c r="D16">
-        <v>0.1855790288016124</v>
+        <v>0.1484970082693167</v>
       </c>
       <c r="E16">
-        <v>0.1539179092225709</v>
+        <v>0.07390184202909822</v>
       </c>
       <c r="F16">
-        <v>1.40463844393161</v>
+        <v>0.7267761925596403</v>
       </c>
       <c r="G16">
-        <v>0.7995306185091664</v>
+        <v>0.451207011281781</v>
       </c>
       <c r="H16">
-        <v>0.8749406981651759</v>
+        <v>0.3377612808459816</v>
       </c>
       <c r="I16">
-        <v>0.9730149332879705</v>
+        <v>0.4997221870077979</v>
       </c>
       <c r="J16">
-        <v>0.172993956069611</v>
+        <v>0.05904748548529071</v>
       </c>
       <c r="K16">
-        <v>1.320837251299906</v>
+        <v>3.551302625680535</v>
       </c>
       <c r="L16">
-        <v>0.2024419752230457</v>
+        <v>0.07266779738654705</v>
       </c>
       <c r="M16">
-        <v>0.4385187559466956</v>
+        <v>0.7977378490140694</v>
       </c>
       <c r="N16">
-        <v>1.424736252586797</v>
+        <v>1.019420239053119</v>
       </c>
       <c r="O16">
-        <v>3.366196136493812</v>
+        <v>1.612907755236961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2236441776146307</v>
+        <v>0.1719186844142371</v>
       </c>
       <c r="D17">
-        <v>0.1845736336502455</v>
+        <v>0.1438812264783706</v>
       </c>
       <c r="E17">
-        <v>0.1538840148955778</v>
+        <v>0.07267954258774623</v>
       </c>
       <c r="F17">
-        <v>1.405493048690182</v>
+        <v>0.7143562851455769</v>
       </c>
       <c r="G17">
-        <v>0.8001435186533001</v>
+        <v>0.4425636650868796</v>
       </c>
       <c r="H17">
-        <v>0.8767462634324374</v>
+        <v>0.3360971882180195</v>
       </c>
       <c r="I17">
-        <v>0.9737330207940715</v>
+        <v>0.4913750308617537</v>
       </c>
       <c r="J17">
-        <v>0.1733707202283199</v>
+        <v>0.0591198898895442</v>
       </c>
       <c r="K17">
-        <v>1.2761211890911</v>
+        <v>3.405674831413705</v>
       </c>
       <c r="L17">
-        <v>0.2027694787321153</v>
+        <v>0.07246786184746412</v>
       </c>
       <c r="M17">
-        <v>0.4292440826383697</v>
+        <v>0.7655915920108214</v>
       </c>
       <c r="N17">
-        <v>1.424582853867705</v>
+        <v>1.014979954031645</v>
       </c>
       <c r="O17">
-        <v>3.371170716537165</v>
+        <v>1.590953184918817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2230230662220265</v>
+        <v>0.1688303639937487</v>
       </c>
       <c r="D18">
-        <v>0.1840008363787717</v>
+        <v>0.1412360947106208</v>
       </c>
       <c r="E18">
-        <v>0.1538693686157515</v>
+        <v>0.07198464094968671</v>
       </c>
       <c r="F18">
-        <v>1.406051267062971</v>
+        <v>0.7073589641116982</v>
       </c>
       <c r="G18">
-        <v>0.8005423693934546</v>
+        <v>0.4377083827091468</v>
       </c>
       <c r="H18">
-        <v>0.8778192602208321</v>
+        <v>0.3352068086156095</v>
       </c>
       <c r="I18">
-        <v>0.9741929813251957</v>
+        <v>0.4866779869770497</v>
       </c>
       <c r="J18">
-        <v>0.1735927755900626</v>
+        <v>0.05917033128512728</v>
       </c>
       <c r="K18">
-        <v>1.25039384351993</v>
+        <v>3.321951200149726</v>
       </c>
       <c r="L18">
-        <v>0.2029636243146378</v>
+        <v>0.07236191464115649</v>
       </c>
       <c r="M18">
-        <v>0.4239154728098882</v>
+        <v>0.7471226294187261</v>
       </c>
       <c r="N18">
-        <v>1.424538439190215</v>
+        <v>1.01253238728485</v>
       </c>
       <c r="O18">
-        <v>3.374201432241023</v>
+        <v>1.578710572826395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2228140638850817</v>
+        <v>0.167787114635459</v>
       </c>
       <c r="D19">
-        <v>0.1838078406853327</v>
+        <v>0.1403421384980987</v>
       </c>
       <c r="E19">
-        <v>0.1538652434097862</v>
+        <v>0.07175073550895306</v>
       </c>
       <c r="F19">
-        <v>1.40625172509062</v>
+        <v>0.7050144489531931</v>
       </c>
       <c r="G19">
-        <v>0.8006853695250555</v>
+        <v>0.4360840089679385</v>
       </c>
       <c r="H19">
-        <v>0.8781884831347497</v>
+        <v>0.3349166265634977</v>
       </c>
       <c r="I19">
-        <v>0.9743567796050741</v>
+        <v>0.485105180639458</v>
       </c>
       <c r="J19">
-        <v>0.1736688791932579</v>
+        <v>0.05918890248186059</v>
       </c>
       <c r="K19">
-        <v>1.241681722125406</v>
+        <v>3.293609689532673</v>
       </c>
       <c r="L19">
-        <v>0.203030351160411</v>
+        <v>0.0723275793033693</v>
       </c>
       <c r="M19">
-        <v>0.4221123310547341</v>
+        <v>0.7408727538904927</v>
       </c>
       <c r="N19">
-        <v>1.424530935675506</v>
+        <v>1.0117216922648</v>
       </c>
       <c r="O19">
-        <v>3.375256689955535</v>
+        <v>1.574630331045626</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2237597459971283</v>
+        <v>0.1724914160756157</v>
       </c>
       <c r="D20">
-        <v>0.1846800931801056</v>
+        <v>0.1443715678546624</v>
       </c>
       <c r="E20">
-        <v>0.1538871214007713</v>
+        <v>0.07280881185339894</v>
       </c>
       <c r="F20">
-        <v>1.405395175133627</v>
+        <v>0.7156631544288601</v>
       </c>
       <c r="G20">
-        <v>0.8000734796081588</v>
+        <v>0.443471646742168</v>
       </c>
       <c r="H20">
-        <v>0.8765504895183085</v>
+        <v>0.3362673807012015</v>
       </c>
       <c r="I20">
-        <v>0.9736517220459078</v>
+        <v>0.4922527545338511</v>
       </c>
       <c r="J20">
-        <v>0.1733300593954752</v>
+        <v>0.05911126759165342</v>
       </c>
       <c r="K20">
-        <v>1.28088211780198</v>
+        <v>3.421173123493247</v>
       </c>
       <c r="L20">
-        <v>0.2027340179939188</v>
+        <v>0.07248820437476056</v>
       </c>
       <c r="M20">
-        <v>0.4302307763909354</v>
+        <v>0.7690114338400562</v>
       </c>
       <c r="N20">
-        <v>1.424594650758422</v>
+        <v>1.015441559185959</v>
       </c>
       <c r="O20">
-        <v>3.370623625326658</v>
+        <v>1.593250135815055</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2270268187916713</v>
+        <v>0.1884715026024679</v>
       </c>
       <c r="D21">
-        <v>0.1876760226727896</v>
+        <v>0.1580288652346269</v>
       </c>
       <c r="E21">
-        <v>0.1540184890694505</v>
+        <v>0.07646252434644651</v>
       </c>
       <c r="F21">
-        <v>1.403313588605961</v>
+        <v>0.7532244806247519</v>
       </c>
       <c r="G21">
-        <v>0.7985711570414367</v>
+        <v>0.4697115525721074</v>
       </c>
       <c r="H21">
-        <v>0.8714589031482518</v>
+        <v>0.3416171601531346</v>
       </c>
       <c r="I21">
-        <v>0.9718434315965681</v>
+        <v>0.5175357338196136</v>
       </c>
       <c r="J21">
-        <v>0.1722555617882833</v>
+        <v>0.05895689876605914</v>
       </c>
       <c r="K21">
-        <v>1.412491574723333</v>
+        <v>3.850263437212391</v>
       </c>
       <c r="L21">
-        <v>0.2018073125329956</v>
+        <v>0.07313736875951804</v>
       </c>
       <c r="M21">
-        <v>0.4575775174394039</v>
+        <v>0.8638132360657877</v>
       </c>
       <c r="N21">
-        <v>1.425331567950167</v>
+        <v>1.029230385178835</v>
       </c>
       <c r="O21">
-        <v>3.357081721618783</v>
+        <v>1.660505129478253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2292284346941784</v>
+        <v>0.1990539921618648</v>
       </c>
       <c r="D22">
-        <v>0.1896822644608278</v>
+        <v>0.1670493275268257</v>
       </c>
       <c r="E22">
-        <v>0.1541473044855337</v>
+        <v>0.07892764232711613</v>
       </c>
       <c r="F22">
-        <v>1.402545996410311</v>
+        <v>0.7791846847078432</v>
       </c>
       <c r="G22">
-        <v>0.7980019547225936</v>
+        <v>0.4879900669683082</v>
       </c>
       <c r="H22">
-        <v>0.8684378627837503</v>
+        <v>0.3457504994206886</v>
       </c>
       <c r="I22">
-        <v>0.9710790443267854</v>
+        <v>0.5350638973162418</v>
       </c>
       <c r="J22">
-        <v>0.1716008490360252</v>
+        <v>0.05893858198855284</v>
       </c>
       <c r="K22">
-        <v>1.498421778697548</v>
+        <v>4.131173647198864</v>
       </c>
       <c r="L22">
-        <v>0.201252906296471</v>
+        <v>0.0736463960038094</v>
       </c>
       <c r="M22">
-        <v>0.4754998626686131</v>
+        <v>0.9259939158924411</v>
       </c>
       <c r="N22">
-        <v>1.426201360736812</v>
+        <v>1.039250162574547</v>
       </c>
       <c r="O22">
-        <v>3.349739721350147</v>
+        <v>1.708179551838583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2280473457272194</v>
+        <v>0.1933926630967875</v>
       </c>
       <c r="D23">
-        <v>0.1886071098726347</v>
+        <v>0.1622258834905352</v>
       </c>
       <c r="E23">
-        <v>0.1540746331242602</v>
+        <v>0.07760465818601148</v>
       </c>
       <c r="F23">
-        <v>1.402901471426361</v>
+        <v>0.7651945884741735</v>
       </c>
       <c r="G23">
-        <v>0.798267985484415</v>
+        <v>0.4781263869311232</v>
       </c>
       <c r="H23">
-        <v>0.8700222169084526</v>
+        <v>0.3434840463880136</v>
       </c>
       <c r="I23">
-        <v>0.9714488421686056</v>
+        <v>0.525612980338181</v>
       </c>
       <c r="J23">
-        <v>0.1719459376724011</v>
+        <v>0.05894058997560236</v>
       </c>
       <c r="K23">
-        <v>1.452567605328795</v>
+        <v>3.981196034041261</v>
       </c>
       <c r="L23">
-        <v>0.2015441222021437</v>
+        <v>0.07336675410147109</v>
       </c>
       <c r="M23">
-        <v>0.465929979707326</v>
+        <v>0.8927846729077942</v>
       </c>
       <c r="N23">
-        <v>1.425701713927978</v>
+        <v>1.033807136705548</v>
       </c>
       <c r="O23">
-        <v>3.353520298242387</v>
+        <v>1.68237991207306</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2237074749696859</v>
+        <v>0.1722324441234377</v>
       </c>
       <c r="D24">
-        <v>0.1846319465673787</v>
+        <v>0.1441498579950888</v>
       </c>
       <c r="E24">
-        <v>0.1538857018714737</v>
+        <v>0.07275034492964139</v>
       </c>
       <c r="F24">
-        <v>1.405439215387638</v>
+        <v>0.7150718744440354</v>
       </c>
       <c r="G24">
-        <v>0.8001049994607285</v>
+        <v>0.443060794517308</v>
       </c>
       <c r="H24">
-        <v>0.8766388900225905</v>
+        <v>0.3361902305388185</v>
       </c>
       <c r="I24">
-        <v>0.9736883304216377</v>
+        <v>0.4918556192766061</v>
       </c>
       <c r="J24">
-        <v>0.1733484251849085</v>
+        <v>0.05911513832137771</v>
       </c>
       <c r="K24">
-        <v>1.278729762466639</v>
+        <v>3.41416634799964</v>
       </c>
       <c r="L24">
-        <v>0.2027500315402939</v>
+        <v>0.07247897953547522</v>
       </c>
       <c r="M24">
-        <v>0.4297846811346488</v>
+        <v>0.7674652852931132</v>
       </c>
       <c r="N24">
-        <v>1.424589181001522</v>
+        <v>1.015232540442938</v>
       </c>
       <c r="O24">
-        <v>3.370870433339689</v>
+        <v>1.592210505836022</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2193142880406924</v>
+        <v>0.1499475339626173</v>
       </c>
       <c r="D25">
-        <v>0.1805538948171233</v>
+        <v>0.1250203698322423</v>
       </c>
       <c r="E25">
-        <v>0.1538674161178122</v>
+        <v>0.06782261811052592</v>
       </c>
       <c r="F25">
-        <v>1.410726067437722</v>
+        <v>0.6665426645552586</v>
       </c>
       <c r="G25">
-        <v>0.8038575766935736</v>
+        <v>0.4096282176579393</v>
       </c>
       <c r="H25">
-        <v>0.8850946925015535</v>
+        <v>0.3308532904559343</v>
       </c>
       <c r="I25">
-        <v>0.9778987019098082</v>
+        <v>0.4593794329222334</v>
       </c>
       <c r="J25">
-        <v>0.1750658680500123</v>
+        <v>0.05963751984438304</v>
       </c>
       <c r="K25">
-        <v>1.090925238584504</v>
+        <v>2.803900857753604</v>
       </c>
       <c r="L25">
-        <v>0.2042716624274377</v>
+        <v>0.0718652212326063</v>
       </c>
       <c r="M25">
-        <v>0.3910248623445653</v>
+        <v>0.6330607630605698</v>
       </c>
       <c r="N25">
-        <v>1.425065518061061</v>
+        <v>0.9992322132592193</v>
       </c>
       <c r="O25">
-        <v>3.396064832393535</v>
+        <v>1.509520784658463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1339428209166726</v>
+        <v>0.08604710821397532</v>
       </c>
       <c r="D2">
-        <v>0.1112100448735873</v>
+        <v>0.04950131725293971</v>
       </c>
       <c r="E2">
-        <v>0.06443492551102814</v>
+        <v>0.0444597094978878</v>
       </c>
       <c r="F2">
-        <v>0.6350225686920083</v>
+        <v>1.19067686770407</v>
       </c>
       <c r="G2">
-        <v>0.3883122364051559</v>
+        <v>0.9270958752470193</v>
       </c>
       <c r="H2">
-        <v>0.3288887985462878</v>
+        <v>0.01547768373008745</v>
       </c>
       <c r="I2">
-        <v>0.4384604910354426</v>
+        <v>0.01224828864422767</v>
       </c>
       <c r="J2">
-        <v>0.06028840589787876</v>
+        <v>0.6674714355913522</v>
       </c>
       <c r="K2">
-        <v>2.354963478257815</v>
+        <v>0.8643481207140482</v>
       </c>
       <c r="L2">
-        <v>0.07168809965370571</v>
+        <v>0.063326403061577</v>
       </c>
       <c r="M2">
-        <v>0.5345574829835087</v>
+        <v>3.570225372224002</v>
       </c>
       <c r="N2">
-        <v>0.9906179191175966</v>
+        <v>0.05063415381230385</v>
       </c>
       <c r="O2">
-        <v>1.459716464034457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7257039216786154</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1233200588281136</v>
+        <v>0.07549694270790042</v>
       </c>
       <c r="D3">
-        <v>0.1020025870856287</v>
+        <v>0.04379767754665664</v>
       </c>
       <c r="E3">
-        <v>0.06227768484466978</v>
+        <v>0.0409127576837065</v>
       </c>
       <c r="F3">
-        <v>0.6160336475625456</v>
+        <v>1.148954683607904</v>
       </c>
       <c r="G3">
-        <v>0.3757041283991711</v>
+        <v>0.8948229242724608</v>
       </c>
       <c r="H3">
-        <v>0.3286853737148689</v>
+        <v>0.01990881327836103</v>
       </c>
       <c r="I3">
-        <v>0.4259687466251663</v>
+        <v>0.01662750322031625</v>
       </c>
       <c r="J3">
-        <v>0.06088580567294422</v>
+        <v>0.6584621510749145</v>
       </c>
       <c r="K3">
-        <v>2.050615862991748</v>
+        <v>0.8330507398681206</v>
       </c>
       <c r="L3">
-        <v>0.07172974035049506</v>
+        <v>0.05963341179489667</v>
       </c>
       <c r="M3">
-        <v>0.4679937788751047</v>
+        <v>3.110055337431163</v>
       </c>
       <c r="N3">
-        <v>0.986615463337877</v>
+        <v>0.04864714657966296</v>
       </c>
       <c r="O3">
-        <v>1.432201863304968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6342810443580902</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1168994869860143</v>
+        <v>0.06895813601900613</v>
       </c>
       <c r="D4">
-        <v>0.09641823195166666</v>
+        <v>0.04032489024808683</v>
       </c>
       <c r="E4">
-        <v>0.0610179862511675</v>
+        <v>0.03872619179938575</v>
       </c>
       <c r="F4">
-        <v>0.6054657204419129</v>
+        <v>1.124090896564596</v>
       </c>
       <c r="G4">
-        <v>0.368800817734332</v>
+        <v>0.8757184205788917</v>
       </c>
       <c r="H4">
-        <v>0.3290864746986557</v>
+        <v>0.02301043089163235</v>
       </c>
       <c r="I4">
-        <v>0.4190736464736808</v>
+        <v>0.0198019147663695</v>
       </c>
       <c r="J4">
-        <v>0.06132664927483944</v>
+        <v>0.6533787877873891</v>
       </c>
       <c r="K4">
-        <v>1.863595256514344</v>
+        <v>0.8141537305270603</v>
       </c>
       <c r="L4">
-        <v>0.07183203300533592</v>
+        <v>0.05732544226700931</v>
       </c>
       <c r="M4">
-        <v>0.4271910402667345</v>
+        <v>2.827545137399824</v>
       </c>
       <c r="N4">
-        <v>0.985020427363402</v>
+        <v>0.04744216444038152</v>
       </c>
       <c r="O4">
-        <v>1.418176077790022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5781467147796491</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1143075057648701</v>
+        <v>0.0660291998108633</v>
       </c>
       <c r="D5">
-        <v>0.09415914228478073</v>
+        <v>0.03898289679366229</v>
       </c>
       <c r="E5">
-        <v>0.06052046970151359</v>
+        <v>0.0378161327233677</v>
       </c>
       <c r="F5">
-        <v>0.6014225363637209</v>
+        <v>1.112874172534468</v>
       </c>
       <c r="G5">
-        <v>0.3661887642808139</v>
+        <v>0.8668546500170606</v>
       </c>
       <c r="H5">
-        <v>0.3293779052718619</v>
+        <v>0.02437663494843656</v>
       </c>
       <c r="I5">
-        <v>0.416450758199769</v>
+        <v>0.02131091375090755</v>
       </c>
       <c r="J5">
-        <v>0.06152448054249859</v>
+        <v>0.6507755586619197</v>
       </c>
       <c r="K5">
-        <v>1.787332453601522</v>
+        <v>0.8053779832737291</v>
       </c>
       <c r="L5">
-        <v>0.07189258483964167</v>
+        <v>0.05631989901831069</v>
       </c>
       <c r="M5">
-        <v>0.4105770680575418</v>
+        <v>2.712430286492406</v>
       </c>
       <c r="N5">
-        <v>0.9845813368938607</v>
+        <v>0.04699986313726612</v>
       </c>
       <c r="O5">
-        <v>1.413152259312852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5552204375106129</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1138785534143096</v>
+        <v>0.06523994506297726</v>
       </c>
       <c r="D6">
-        <v>0.09378500133751544</v>
+        <v>0.03884201552833844</v>
       </c>
       <c r="E6">
-        <v>0.06043879913298866</v>
+        <v>0.03764495419547664</v>
       </c>
       <c r="F6">
-        <v>0.6007667576393203</v>
+        <v>1.109479336872369</v>
       </c>
       <c r="G6">
-        <v>0.3657669062891742</v>
+        <v>0.8638712769591308</v>
       </c>
       <c r="H6">
-        <v>0.3294339046925572</v>
+        <v>0.0246215535954738</v>
       </c>
       <c r="I6">
-        <v>0.4160262935796446</v>
+        <v>0.02169560648881941</v>
       </c>
       <c r="J6">
-        <v>0.06155841619370328</v>
+        <v>0.6495688541549498</v>
       </c>
       <c r="K6">
-        <v>1.774665676124471</v>
+        <v>0.8025215391352845</v>
       </c>
       <c r="L6">
-        <v>0.07190376679049137</v>
+        <v>0.05608608557974115</v>
       </c>
       <c r="M6">
-        <v>0.4078190453324453</v>
+        <v>2.693349908088464</v>
       </c>
       <c r="N6">
-        <v>0.9845209951300546</v>
+        <v>0.0469824615231822</v>
       </c>
       <c r="O6">
-        <v>1.412359003421685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5513576603881489</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1168644330977031</v>
+        <v>0.06808990926034397</v>
       </c>
       <c r="D7">
-        <v>0.09638769895577326</v>
+        <v>0.04052983250394249</v>
       </c>
       <c r="E7">
-        <v>0.06101121314021185</v>
+        <v>0.03865958453171991</v>
       </c>
       <c r="F7">
-        <v>0.6054101407519497</v>
+        <v>1.119725655204697</v>
       </c>
       <c r="G7">
-        <v>0.3687647888742802</v>
+        <v>0.8714423301806988</v>
       </c>
       <c r="H7">
-        <v>0.3290898923877279</v>
+        <v>0.0230612107230671</v>
       </c>
       <c r="I7">
-        <v>0.4190375266860151</v>
+        <v>0.02014941163038753</v>
       </c>
       <c r="J7">
-        <v>0.06132924423024555</v>
+        <v>0.651212780345503</v>
       </c>
       <c r="K7">
-        <v>1.86256696984006</v>
+        <v>0.8101990917715156</v>
       </c>
       <c r="L7">
-        <v>0.07183277378841879</v>
+        <v>0.05713104323341334</v>
       </c>
       <c r="M7">
-        <v>0.4269669283836066</v>
+        <v>2.82608747128242</v>
       </c>
       <c r="N7">
-        <v>0.9850136593844283</v>
+        <v>0.04758871682910026</v>
       </c>
       <c r="O7">
-        <v>1.418105561753251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5776849047780104</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1302582386813782</v>
+        <v>0.0813103553424952</v>
       </c>
       <c r="D8">
-        <v>0.1080204924475652</v>
+        <v>0.04782515538470733</v>
       </c>
       <c r="E8">
-        <v>0.06367734736846842</v>
+        <v>0.04316603749549408</v>
       </c>
       <c r="F8">
-        <v>0.6282418508031498</v>
+        <v>1.170559391978557</v>
       </c>
       <c r="G8">
-        <v>0.38378507190005</v>
+        <v>0.9103183257664824</v>
       </c>
       <c r="H8">
-        <v>0.3287068463601699</v>
+        <v>0.01695965870739713</v>
       </c>
       <c r="I8">
-        <v>0.4339876313716076</v>
+        <v>0.01403916964435226</v>
       </c>
       <c r="J8">
-        <v>0.06047875647159273</v>
+        <v>0.6614617178974953</v>
       </c>
       <c r="K8">
-        <v>2.250047547761937</v>
+        <v>0.8484076912790641</v>
       </c>
       <c r="L8">
-        <v>0.07168627086692325</v>
+        <v>0.0618215011760519</v>
       </c>
       <c r="M8">
-        <v>0.5115900639950866</v>
+        <v>3.411637838316892</v>
       </c>
       <c r="N8">
-        <v>0.9890551644242294</v>
+        <v>0.05014868929124106</v>
       </c>
       <c r="O8">
-        <v>1.449615995506861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6939692615870001</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1573876631164381</v>
+        <v>0.1083402538662028</v>
       </c>
       <c r="D9">
-        <v>0.1314188068675293</v>
+        <v>0.06199597493198183</v>
       </c>
       <c r="E9">
-        <v>0.06944357356136877</v>
+        <v>0.05205895131507177</v>
       </c>
       <c r="F9">
-        <v>0.6822002100177968</v>
+        <v>1.284318994768398</v>
       </c>
       <c r="G9">
-        <v>0.420346733197988</v>
+        <v>1.000213959131941</v>
       </c>
       <c r="H9">
-        <v>0.3323322038862671</v>
+        <v>0.008154133810708397</v>
       </c>
       <c r="I9">
-        <v>0.4698288973025271</v>
+        <v>0.005656038292523036</v>
       </c>
       <c r="J9">
-        <v>0.05941883574383766</v>
+        <v>0.6891685929641653</v>
       </c>
       <c r="K9">
-        <v>3.009358849845682</v>
+        <v>0.9330617198988094</v>
       </c>
       <c r="L9">
-        <v>0.07202793279547137</v>
+        <v>0.0710535757795796</v>
       </c>
       <c r="M9">
-        <v>0.6782509010242848</v>
+        <v>4.561493950024555</v>
       </c>
       <c r="N9">
-        <v>1.00411054281517</v>
+        <v>0.05503541875506457</v>
       </c>
       <c r="O9">
-        <v>1.535560378595136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9225771266146339</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.177930362281927</v>
+        <v>0.1263729292885785</v>
       </c>
       <c r="D10">
-        <v>0.1490250473699746</v>
+        <v>0.07219091896688212</v>
       </c>
       <c r="E10">
-        <v>0.07404243273361644</v>
+        <v>0.05688197180244003</v>
       </c>
       <c r="F10">
-        <v>0.7282135726013905</v>
+        <v>1.348221880074519</v>
       </c>
       <c r="G10">
-        <v>0.4522093287334457</v>
+        <v>1.049047867291421</v>
       </c>
       <c r="H10">
-        <v>0.3379603521407972</v>
+        <v>0.004248244249004163</v>
       </c>
       <c r="I10">
-        <v>0.5006890083918307</v>
+        <v>0.002512668430192377</v>
       </c>
       <c r="J10">
-        <v>0.05904042960369082</v>
+        <v>0.7011575250303395</v>
       </c>
       <c r="K10">
-        <v>3.567925326320278</v>
+        <v>0.9792709787296019</v>
       </c>
       <c r="L10">
-        <v>0.07269185158044777</v>
+        <v>0.07536250675677536</v>
       </c>
       <c r="M10">
-        <v>0.8014088914027298</v>
+        <v>5.414611203187349</v>
       </c>
       <c r="N10">
-        <v>1.019941520517705</v>
+        <v>0.05662884419368552</v>
       </c>
       <c r="O10">
-        <v>1.615466062986684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.084876520515962</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1874281229010677</v>
+        <v>0.1222807512859418</v>
       </c>
       <c r="D11">
-        <v>0.1571385027798868</v>
+        <v>0.07247336520317305</v>
       </c>
       <c r="E11">
-        <v>0.07622134602102548</v>
+        <v>0.04593968447763253</v>
       </c>
       <c r="F11">
-        <v>0.7507100361743753</v>
+        <v>1.184326196596587</v>
       </c>
       <c r="G11">
-        <v>0.4679469581922433</v>
+        <v>0.9011514210280609</v>
       </c>
       <c r="H11">
-        <v>0.3412340616968805</v>
+        <v>0.02244476088594283</v>
       </c>
       <c r="I11">
-        <v>0.5158401550853497</v>
+        <v>0.002456971030079913</v>
       </c>
       <c r="J11">
-        <v>0.05896215725407927</v>
+        <v>0.6203595872952974</v>
       </c>
       <c r="K11">
-        <v>3.822433577950846</v>
+        <v>0.8588125145613361</v>
       </c>
       <c r="L11">
-        <v>0.07309043063807863</v>
+        <v>0.06264430137566368</v>
       </c>
       <c r="M11">
-        <v>0.8576578718229229</v>
+        <v>5.848742686128617</v>
       </c>
       <c r="N11">
-        <v>1.028279118345623</v>
+        <v>0.04321551546060398</v>
       </c>
       <c r="O11">
-        <v>1.655934995962951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.104173177643361</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1910483489477599</v>
+        <v>0.1164914670169992</v>
       </c>
       <c r="D12">
-        <v>0.1602270275339635</v>
+        <v>0.07011016841005357</v>
       </c>
       <c r="E12">
-        <v>0.07705963848476927</v>
+        <v>0.03801853271203282</v>
       </c>
       <c r="F12">
-        <v>0.7594697767459309</v>
+        <v>1.046969099001458</v>
       </c>
       <c r="G12">
-        <v>0.4740989880442044</v>
+        <v>0.7806176314814763</v>
       </c>
       <c r="H12">
-        <v>0.3425824844959209</v>
+        <v>0.06121077967438993</v>
       </c>
       <c r="I12">
-        <v>0.5217488762507401</v>
+        <v>0.002361588278427362</v>
       </c>
       <c r="J12">
-        <v>0.05894663008282564</v>
+        <v>0.556698781648862</v>
       </c>
       <c r="K12">
-        <v>3.918889993715879</v>
+        <v>0.7594952581030441</v>
       </c>
       <c r="L12">
-        <v>0.07325585320725736</v>
+        <v>0.05810397917628607</v>
       </c>
       <c r="M12">
-        <v>0.8789957796068251</v>
+        <v>6.03632834591707</v>
       </c>
       <c r="N12">
-        <v>1.031608549920634</v>
+        <v>0.03783202402157282</v>
       </c>
       <c r="O12">
-        <v>1.67189414168061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.085494665904477</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.190267590014912</v>
+        <v>0.1077620239686041</v>
       </c>
       <c r="D13">
-        <v>0.1595611219529474</v>
+        <v>0.06593772354550254</v>
       </c>
       <c r="E13">
-        <v>0.07687849930222157</v>
+        <v>0.03189377094815349</v>
       </c>
       <c r="F13">
-        <v>0.7575722374855616</v>
+        <v>0.9154803123923685</v>
       </c>
       <c r="G13">
-        <v>0.4727652473213482</v>
+        <v>0.6675108067913271</v>
       </c>
       <c r="H13">
-        <v>0.3422871393338767</v>
+        <v>0.117466589659017</v>
       </c>
       <c r="I13">
-        <v>0.5204685210458493</v>
+        <v>0.002577726156701488</v>
       </c>
       <c r="J13">
-        <v>0.0589493362871174</v>
+        <v>0.4990743853511646</v>
       </c>
       <c r="K13">
-        <v>3.898112496911267</v>
+        <v>0.6647221320632752</v>
       </c>
       <c r="L13">
-        <v>0.0732195720849802</v>
+        <v>0.05920793416386871</v>
       </c>
       <c r="M13">
-        <v>0.8743985140810366</v>
+        <v>6.043068822824978</v>
       </c>
       <c r="N13">
-        <v>1.030883694207674</v>
+        <v>0.03843555904998652</v>
       </c>
       <c r="O13">
-        <v>1.668428139887624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.036401352583198</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1877254776219957</v>
+        <v>0.1001929903993712</v>
       </c>
       <c r="D14">
-        <v>0.1573922674194819</v>
+        <v>0.06228177611231445</v>
       </c>
       <c r="E14">
-        <v>0.07629004447514021</v>
+        <v>0.02874414282887816</v>
       </c>
       <c r="F14">
-        <v>0.751425784999455</v>
+        <v>0.8269690450435121</v>
       </c>
       <c r="G14">
-        <v>0.4684491489544911</v>
+        <v>0.5925059883420971</v>
       </c>
       <c r="H14">
-        <v>0.3413427813777048</v>
+        <v>0.1673687842807254</v>
       </c>
       <c r="I14">
-        <v>0.5163227686357885</v>
+        <v>0.003004151527446375</v>
       </c>
       <c r="J14">
-        <v>0.05896059333105441</v>
+        <v>0.4617934548621037</v>
       </c>
       <c r="K14">
-        <v>3.830367387348019</v>
+        <v>0.6009300002375397</v>
       </c>
       <c r="L14">
-        <v>0.07310374607914483</v>
+        <v>0.06339457053522324</v>
       </c>
       <c r="M14">
-        <v>0.8594125672715904</v>
+        <v>5.96583086674741</v>
       </c>
       <c r="N14">
-        <v>1.02854952989118</v>
+        <v>0.04233749488007099</v>
       </c>
       <c r="O14">
-        <v>1.657234999269036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9884739625717742</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.186171488726103</v>
+        <v>0.09744935130873955</v>
       </c>
       <c r="D15">
-        <v>0.1560659176888493</v>
+        <v>0.06110651672681655</v>
       </c>
       <c r="E15">
-        <v>0.07593133729753987</v>
+        <v>0.02806770520131519</v>
       </c>
       <c r="F15">
-        <v>0.7476927524274117</v>
+        <v>0.8046447544922657</v>
       </c>
       <c r="G15">
-        <v>0.4658309100856712</v>
+        <v>0.5738000870151723</v>
       </c>
       <c r="H15">
-        <v>0.3407786849290488</v>
+        <v>0.1801615291514764</v>
       </c>
       <c r="I15">
-        <v>0.5138060323671425</v>
+        <v>0.003334206837053877</v>
       </c>
       <c r="J15">
-        <v>0.05896934537014076</v>
+        <v>0.4529979647192732</v>
       </c>
       <c r="K15">
-        <v>3.78888255295135</v>
+        <v>0.5846525153743372</v>
       </c>
       <c r="L15">
-        <v>0.07303470477263829</v>
+        <v>0.06473944119442265</v>
       </c>
       <c r="M15">
-        <v>0.8502383128472815</v>
+        <v>5.908161608385967</v>
       </c>
       <c r="N15">
-        <v>1.027142478287885</v>
+        <v>0.04363496306609527</v>
       </c>
       <c r="O15">
-        <v>1.650462792401044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.9704748435283079</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1773128753234943</v>
+        <v>0.09123730415119269</v>
       </c>
       <c r="D16">
-        <v>0.1484970082693167</v>
+        <v>0.05778225454249508</v>
       </c>
       <c r="E16">
-        <v>0.07390184202909822</v>
+        <v>0.02739583293813519</v>
       </c>
       <c r="F16">
-        <v>0.7267761925596403</v>
+        <v>0.8029335369003405</v>
       </c>
       <c r="G16">
-        <v>0.451207011281781</v>
+        <v>0.5744095299006347</v>
       </c>
       <c r="H16">
-        <v>0.3377612808459816</v>
+        <v>0.1690186486440695</v>
       </c>
       <c r="I16">
-        <v>0.4997221870077979</v>
+        <v>0.004603598188561264</v>
       </c>
       <c r="J16">
-        <v>0.05904748548529071</v>
+        <v>0.4585414899336371</v>
       </c>
       <c r="K16">
-        <v>3.551302625680535</v>
+        <v>0.5831466375315486</v>
       </c>
       <c r="L16">
-        <v>0.07266779738654705</v>
+        <v>0.06257886958074721</v>
       </c>
       <c r="M16">
-        <v>0.7977378490140694</v>
+        <v>5.536548864657391</v>
       </c>
       <c r="N16">
-        <v>1.019420239053119</v>
+        <v>0.04267556269354245</v>
       </c>
       <c r="O16">
-        <v>1.612907755236961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9117261803192491</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1719186844142371</v>
+        <v>0.09039549338164932</v>
       </c>
       <c r="D17">
-        <v>0.1438812264783706</v>
+        <v>0.05717927757965668</v>
       </c>
       <c r="E17">
-        <v>0.07267954258774623</v>
+        <v>0.0283167073336128</v>
       </c>
       <c r="F17">
-        <v>0.7143562851455769</v>
+        <v>0.8475649129171714</v>
       </c>
       <c r="G17">
-        <v>0.4425636650868796</v>
+        <v>0.6137126894134184</v>
       </c>
       <c r="H17">
-        <v>0.3360971882180195</v>
+        <v>0.132220976134505</v>
       </c>
       <c r="I17">
-        <v>0.4913750308617537</v>
+        <v>0.005433863008557083</v>
       </c>
       <c r="J17">
-        <v>0.0591198898895442</v>
+        <v>0.4821832497539589</v>
       </c>
       <c r="K17">
-        <v>3.405674831413705</v>
+        <v>0.6149788093874378</v>
       </c>
       <c r="L17">
-        <v>0.07246786184746412</v>
+        <v>0.05809041465196962</v>
       </c>
       <c r="M17">
-        <v>0.7655915920108214</v>
+        <v>5.293528568665522</v>
       </c>
       <c r="N17">
-        <v>1.014979954031645</v>
+        <v>0.0393713421398818</v>
       </c>
       <c r="O17">
-        <v>1.590953184918817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8920261763768451</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1688303639937487</v>
+        <v>0.09477515302702955</v>
       </c>
       <c r="D18">
-        <v>0.1412360947106208</v>
+        <v>0.05864200624726124</v>
       </c>
       <c r="E18">
-        <v>0.07198464094968671</v>
+        <v>0.03185510176580753</v>
       </c>
       <c r="F18">
-        <v>0.7073589641116982</v>
+        <v>0.9441983575812216</v>
       </c>
       <c r="G18">
-        <v>0.4377083827091468</v>
+        <v>0.6977189767242464</v>
       </c>
       <c r="H18">
-        <v>0.3352068086156095</v>
+        <v>0.07967946662397907</v>
       </c>
       <c r="I18">
-        <v>0.4866779869770497</v>
+        <v>0.005462938964011066</v>
       </c>
       <c r="J18">
-        <v>0.05917033128512728</v>
+        <v>0.527464755366907</v>
       </c>
       <c r="K18">
-        <v>3.321951200149726</v>
+        <v>0.6849108327203268</v>
       </c>
       <c r="L18">
-        <v>0.07236191464115649</v>
+        <v>0.05436673662844083</v>
       </c>
       <c r="M18">
-        <v>0.7471226294187261</v>
+        <v>5.133099759088168</v>
       </c>
       <c r="N18">
-        <v>1.01253238728485</v>
+        <v>0.0368546946617121</v>
       </c>
       <c r="O18">
-        <v>1.578710572826395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.9034910502529314</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.167787114635459</v>
+        <v>0.1018648903034034</v>
       </c>
       <c r="D19">
-        <v>0.1403421384980987</v>
+        <v>0.06205929125521692</v>
       </c>
       <c r="E19">
-        <v>0.07175073550895306</v>
+        <v>0.03889517343620774</v>
       </c>
       <c r="F19">
-        <v>0.7050144489531931</v>
+        <v>1.076992722999435</v>
       </c>
       <c r="G19">
-        <v>0.4360840089679385</v>
+        <v>0.8130704168807199</v>
       </c>
       <c r="H19">
-        <v>0.3349166265634977</v>
+        <v>0.03389575639707942</v>
       </c>
       <c r="I19">
-        <v>0.485105180639458</v>
+        <v>0.00536564846645593</v>
       </c>
       <c r="J19">
-        <v>0.05918890248186059</v>
+        <v>0.587310989141173</v>
       </c>
       <c r="K19">
-        <v>3.293609689532673</v>
+        <v>0.7805157023208693</v>
       </c>
       <c r="L19">
-        <v>0.0723275793033693</v>
+        <v>0.05642241359533395</v>
       </c>
       <c r="M19">
-        <v>0.7408727538904927</v>
+        <v>5.051069825650643</v>
       </c>
       <c r="N19">
-        <v>1.0117216922648</v>
+        <v>0.03968376120324901</v>
       </c>
       <c r="O19">
-        <v>1.574630331045626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9388666373873846</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1724914160756157</v>
+        <v>0.118938331023088</v>
       </c>
       <c r="D20">
-        <v>0.1443715678546624</v>
+        <v>0.07018694752942878</v>
       </c>
       <c r="E20">
-        <v>0.07280881185339894</v>
+        <v>0.05537280333081718</v>
       </c>
       <c r="F20">
-        <v>0.7156631544288601</v>
+        <v>1.317168739139021</v>
       </c>
       <c r="G20">
-        <v>0.443471646742168</v>
+        <v>1.022246352493212</v>
       </c>
       <c r="H20">
-        <v>0.3362673807012015</v>
+        <v>0.005153697608268892</v>
       </c>
       <c r="I20">
-        <v>0.4922527545338511</v>
+        <v>0.004012521511205236</v>
       </c>
       <c r="J20">
-        <v>0.05911126759165342</v>
+        <v>0.6908903441085812</v>
       </c>
       <c r="K20">
-        <v>3.421173123493247</v>
+        <v>0.9544256964294533</v>
       </c>
       <c r="L20">
-        <v>0.07248820437476056</v>
+        <v>0.07359388976475856</v>
       </c>
       <c r="M20">
-        <v>0.7690114338400562</v>
+        <v>5.19061776274765</v>
       </c>
       <c r="N20">
-        <v>1.015441559185959</v>
+        <v>0.05657589835645638</v>
       </c>
       <c r="O20">
-        <v>1.593250135815055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.04142907842725</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1884715026024679</v>
+        <v>0.135292757238858</v>
       </c>
       <c r="D21">
-        <v>0.1580288652346269</v>
+        <v>0.07878583262567673</v>
       </c>
       <c r="E21">
-        <v>0.07646252434644651</v>
+        <v>0.06175107130487412</v>
       </c>
       <c r="F21">
-        <v>0.7532244806247519</v>
+        <v>1.405426307181656</v>
       </c>
       <c r="G21">
-        <v>0.4697115525721074</v>
+        <v>1.094837047327019</v>
       </c>
       <c r="H21">
-        <v>0.3416171601531346</v>
+        <v>0.002408009935491062</v>
       </c>
       <c r="I21">
-        <v>0.5175357338196136</v>
+        <v>0.002297956466292383</v>
       </c>
       <c r="J21">
-        <v>0.05895689876605914</v>
+        <v>0.7179895926674646</v>
       </c>
       <c r="K21">
-        <v>3.850263437212391</v>
+        <v>1.018444579426344</v>
       </c>
       <c r="L21">
-        <v>0.07313736875951804</v>
+        <v>0.08046313836604213</v>
       </c>
       <c r="M21">
-        <v>0.8638132360657877</v>
+        <v>5.839085230424757</v>
       </c>
       <c r="N21">
-        <v>1.029230385178835</v>
+        <v>0.06116138066568055</v>
       </c>
       <c r="O21">
-        <v>1.660505129478253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.175970141886324</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1990539921618648</v>
+        <v>0.1464747767744967</v>
       </c>
       <c r="D22">
-        <v>0.1670493275268257</v>
+        <v>0.08388752314377257</v>
       </c>
       <c r="E22">
-        <v>0.07892764232711613</v>
+        <v>0.06514522267354472</v>
       </c>
       <c r="F22">
-        <v>0.7791846847078432</v>
+        <v>1.458325229749505</v>
       </c>
       <c r="G22">
-        <v>0.4879900669683082</v>
+        <v>1.138731393606164</v>
       </c>
       <c r="H22">
-        <v>0.3457504994206886</v>
+        <v>0.001260870485508825</v>
       </c>
       <c r="I22">
-        <v>0.5350638973162418</v>
+        <v>0.001504171292866729</v>
       </c>
       <c r="J22">
-        <v>0.05893858198855284</v>
+        <v>0.7339422173856178</v>
       </c>
       <c r="K22">
-        <v>4.131173647198864</v>
+        <v>1.057564065519529</v>
       </c>
       <c r="L22">
-        <v>0.0736463960038094</v>
+        <v>0.08404187144045139</v>
       </c>
       <c r="M22">
-        <v>0.9259939158924411</v>
+        <v>6.266803716303514</v>
       </c>
       <c r="N22">
-        <v>1.039250162574547</v>
+        <v>0.06284936836798494</v>
       </c>
       <c r="O22">
-        <v>1.708179551838583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.261250899107864</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1933926630967875</v>
+        <v>0.1415170161429415</v>
       </c>
       <c r="D23">
-        <v>0.1622258834905352</v>
+        <v>0.08088809712833722</v>
       </c>
       <c r="E23">
-        <v>0.07760465818601148</v>
+        <v>0.06339734520690321</v>
       </c>
       <c r="F23">
-        <v>0.7651945884741735</v>
+        <v>1.434917783012594</v>
       </c>
       <c r="G23">
-        <v>0.4781263869311232</v>
+        <v>1.120065146863752</v>
       </c>
       <c r="H23">
-        <v>0.3434840463880136</v>
+        <v>0.001816427852401548</v>
       </c>
       <c r="I23">
-        <v>0.525612980338181</v>
+        <v>0.001549152298781387</v>
       </c>
       <c r="J23">
-        <v>0.05894058997560236</v>
+        <v>0.7278346562252409</v>
       </c>
       <c r="K23">
-        <v>3.981196034041261</v>
+        <v>1.04114915840151</v>
       </c>
       <c r="L23">
-        <v>0.07336675410147109</v>
+        <v>0.08234650723249359</v>
       </c>
       <c r="M23">
-        <v>0.8927846729077942</v>
+        <v>6.038359692795666</v>
       </c>
       <c r="N23">
-        <v>1.033807136705548</v>
+        <v>0.0617572778659472</v>
       </c>
       <c r="O23">
-        <v>1.68237991207306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.215913123355548</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1722324441234377</v>
+        <v>0.1212121948178009</v>
       </c>
       <c r="D24">
-        <v>0.1441498579950888</v>
+        <v>0.07006366993877577</v>
       </c>
       <c r="E24">
-        <v>0.07275034492964139</v>
+        <v>0.05671062623659751</v>
       </c>
       <c r="F24">
-        <v>0.7150718744440354</v>
+        <v>1.341001924348291</v>
       </c>
       <c r="G24">
-        <v>0.443060794517308</v>
+        <v>1.044168587448326</v>
       </c>
       <c r="H24">
-        <v>0.3361902305388185</v>
+        <v>0.004926580238550415</v>
       </c>
       <c r="I24">
-        <v>0.4918556192766061</v>
+        <v>0.003464069118241042</v>
       </c>
       <c r="J24">
-        <v>0.05911513832137771</v>
+        <v>0.7021638951227231</v>
       </c>
       <c r="K24">
-        <v>3.41416634799964</v>
+        <v>0.973148930121738</v>
       </c>
       <c r="L24">
-        <v>0.07247897953547522</v>
+        <v>0.07557806165115011</v>
       </c>
       <c r="M24">
-        <v>0.7674652852931132</v>
+        <v>5.175997246465045</v>
       </c>
       <c r="N24">
-        <v>1.015232540442938</v>
+        <v>0.05797733588727638</v>
       </c>
       <c r="O24">
-        <v>1.592210505836022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.044435984152834</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1499475339626173</v>
+        <v>0.0995270462344422</v>
       </c>
       <c r="D25">
-        <v>0.1250203698322423</v>
+        <v>0.05853853966709721</v>
       </c>
       <c r="E25">
-        <v>0.06782261811052592</v>
+        <v>0.04955449863422956</v>
       </c>
       <c r="F25">
-        <v>0.6665426645552586</v>
+        <v>1.245172803936299</v>
       </c>
       <c r="G25">
-        <v>0.4096282176579393</v>
+        <v>0.9676551834825631</v>
       </c>
       <c r="H25">
-        <v>0.3308532904559343</v>
+        <v>0.01020172685206313</v>
       </c>
       <c r="I25">
-        <v>0.4593794329222334</v>
+        <v>0.007961932800132132</v>
       </c>
       <c r="J25">
-        <v>0.05963751984438304</v>
+        <v>0.6774168283782132</v>
       </c>
       <c r="K25">
-        <v>2.803900857753604</v>
+        <v>0.9028776342422162</v>
       </c>
       <c r="L25">
-        <v>0.0718652212326063</v>
+        <v>0.0682554278544103</v>
       </c>
       <c r="M25">
-        <v>0.6330607630605698</v>
+        <v>4.250123930443181</v>
       </c>
       <c r="N25">
-        <v>0.9992322132592193</v>
+        <v>0.0539770604965355</v>
       </c>
       <c r="O25">
-        <v>1.509520784658463</v>
+        <v>0.8603599423526447</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08604710821397532</v>
+        <v>0.04711115959029399</v>
       </c>
       <c r="D2">
-        <v>0.04950131725293971</v>
+        <v>0.05983434135265497</v>
       </c>
       <c r="E2">
-        <v>0.0444597094978878</v>
+        <v>0.04306200139773964</v>
       </c>
       <c r="F2">
-        <v>1.19067686770407</v>
+        <v>1.004302529853796</v>
       </c>
       <c r="G2">
-        <v>0.9270958752470193</v>
+        <v>0.7405858004617727</v>
       </c>
       <c r="H2">
-        <v>0.01547768373008745</v>
+        <v>0.01250110105085114</v>
       </c>
       <c r="I2">
-        <v>0.01224828864422767</v>
+        <v>0.008161161743565515</v>
       </c>
       <c r="J2">
-        <v>0.6674714355913522</v>
+        <v>0.5749376548248222</v>
       </c>
       <c r="K2">
-        <v>0.8643481207140482</v>
+        <v>0.6865954478798884</v>
       </c>
       <c r="L2">
-        <v>0.063326403061577</v>
+        <v>0.290240559693089</v>
       </c>
       <c r="M2">
-        <v>3.570225372224002</v>
+        <v>0.2264682776174851</v>
       </c>
       <c r="N2">
-        <v>0.05063415381230385</v>
+        <v>0.05599504254071341</v>
       </c>
       <c r="O2">
-        <v>0.7257039216786154</v>
+        <v>3.584011223209416</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0683827518267357</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7198992270619797</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07549694270790042</v>
+        <v>0.04125484057155404</v>
       </c>
       <c r="D3">
-        <v>0.04379767754665664</v>
+        <v>0.05278276408240146</v>
       </c>
       <c r="E3">
-        <v>0.0409127576837065</v>
+        <v>0.03991891188445074</v>
       </c>
       <c r="F3">
-        <v>1.148954683607904</v>
+        <v>0.9810369257396587</v>
       </c>
       <c r="G3">
-        <v>0.8948229242724608</v>
+        <v>0.7296693813950981</v>
       </c>
       <c r="H3">
-        <v>0.01990881327836103</v>
+        <v>0.01606646808670487</v>
       </c>
       <c r="I3">
-        <v>0.01662750322031625</v>
+        <v>0.01116795580572827</v>
       </c>
       <c r="J3">
-        <v>0.6584621510749145</v>
+        <v>0.5687222725277792</v>
       </c>
       <c r="K3">
-        <v>0.8330507398681206</v>
+        <v>0.6713344999999507</v>
       </c>
       <c r="L3">
-        <v>0.05963341179489667</v>
+        <v>0.290056532559813</v>
       </c>
       <c r="M3">
-        <v>3.110055337431163</v>
+        <v>0.2166209330238225</v>
       </c>
       <c r="N3">
-        <v>0.04864714657966296</v>
+        <v>0.05328261203381324</v>
       </c>
       <c r="O3">
-        <v>0.6342810443580902</v>
+        <v>3.122306177157668</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.06604720901673389</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6291509822835195</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06895813601900613</v>
+        <v>0.03763625569258977</v>
       </c>
       <c r="D4">
-        <v>0.04032489024808683</v>
+        <v>0.04849499281783665</v>
       </c>
       <c r="E4">
-        <v>0.03872619179938575</v>
+        <v>0.0379768333609416</v>
       </c>
       <c r="F4">
-        <v>1.124090896564596</v>
+        <v>0.9672673998752614</v>
       </c>
       <c r="G4">
-        <v>0.8757184205788917</v>
+        <v>0.7236724798641774</v>
       </c>
       <c r="H4">
-        <v>0.02301043089163235</v>
+        <v>0.01856343014791578</v>
       </c>
       <c r="I4">
-        <v>0.0198019147663695</v>
+        <v>0.01337980574819841</v>
       </c>
       <c r="J4">
-        <v>0.6533787877873891</v>
+        <v>0.5649868577206689</v>
       </c>
       <c r="K4">
-        <v>0.8141537305270603</v>
+        <v>0.6620734638681967</v>
       </c>
       <c r="L4">
-        <v>0.05732544226700931</v>
+        <v>0.2897460114841905</v>
       </c>
       <c r="M4">
-        <v>2.827545137399824</v>
+        <v>0.2113919626122893</v>
       </c>
       <c r="N4">
-        <v>0.04744216444038152</v>
+        <v>0.05157554438381595</v>
       </c>
       <c r="O4">
-        <v>0.5781467147796491</v>
+        <v>2.83861557623149</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.06465696380969632</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5733786174656785</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0660291998108633</v>
+        <v>0.03598021215394454</v>
       </c>
       <c r="D5">
-        <v>0.03898289679366229</v>
+        <v>0.04682451101965768</v>
       </c>
       <c r="E5">
-        <v>0.0378161327233677</v>
+        <v>0.03716754977405223</v>
       </c>
       <c r="F5">
-        <v>1.112874172534468</v>
+        <v>0.9607253155322226</v>
       </c>
       <c r="G5">
-        <v>0.8668546500170606</v>
+        <v>0.7203926615615899</v>
       </c>
       <c r="H5">
-        <v>0.02437663494843656</v>
+        <v>0.0196636061299143</v>
       </c>
       <c r="I5">
-        <v>0.02131091375090755</v>
+        <v>0.01447553724952932</v>
       </c>
       <c r="J5">
-        <v>0.6507755586619197</v>
+        <v>0.562943098909102</v>
       </c>
       <c r="K5">
-        <v>0.8053779832737291</v>
+        <v>0.6574002021091516</v>
       </c>
       <c r="L5">
-        <v>0.05631989901831069</v>
+        <v>0.2891619801806087</v>
       </c>
       <c r="M5">
-        <v>2.712430286492406</v>
+        <v>0.2091799064982673</v>
       </c>
       <c r="N5">
-        <v>0.04699986313726612</v>
+        <v>0.05082701585885907</v>
       </c>
       <c r="O5">
-        <v>0.5552204375106129</v>
+        <v>2.722960617246144</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.06415213698307198</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5505910812454218</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06523994506297726</v>
+        <v>0.03549332956652052</v>
       </c>
       <c r="D6">
-        <v>0.03884201552833844</v>
+        <v>0.04662979411760659</v>
       </c>
       <c r="E6">
-        <v>0.03764495419547664</v>
+        <v>0.03701536928150695</v>
       </c>
       <c r="F6">
-        <v>1.109479336872369</v>
+        <v>0.9583608860902189</v>
       </c>
       <c r="G6">
-        <v>0.8638712769591308</v>
+        <v>0.7186341554599949</v>
       </c>
       <c r="H6">
-        <v>0.0246215535954738</v>
+        <v>0.01986077603666314</v>
       </c>
       <c r="I6">
-        <v>0.02169560648881941</v>
+        <v>0.01480096726734104</v>
       </c>
       <c r="J6">
-        <v>0.6495688541549498</v>
+        <v>0.5619453846211684</v>
       </c>
       <c r="K6">
-        <v>0.8025215391352845</v>
+        <v>0.6554988238655497</v>
       </c>
       <c r="L6">
-        <v>0.05608608557974115</v>
+        <v>0.2885653123307499</v>
       </c>
       <c r="M6">
-        <v>2.693349908088464</v>
+        <v>0.2084775235737979</v>
       </c>
       <c r="N6">
-        <v>0.0469824615231822</v>
+        <v>0.05065090534473704</v>
       </c>
       <c r="O6">
-        <v>0.5513576603881489</v>
+        <v>2.7037811200953</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.0641319080606948</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.546754584741187</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06808990926034397</v>
+        <v>0.03722484768848489</v>
       </c>
       <c r="D7">
-        <v>0.04052983250394249</v>
+        <v>0.04891440147766701</v>
       </c>
       <c r="E7">
-        <v>0.03865958453171991</v>
+        <v>0.03795212164833472</v>
       </c>
       <c r="F7">
-        <v>1.119725655204697</v>
+        <v>0.9616322994776141</v>
       </c>
       <c r="G7">
-        <v>0.8714423301806988</v>
+        <v>0.7226272462751098</v>
       </c>
       <c r="H7">
-        <v>0.0230612107230671</v>
+        <v>0.0186162878074751</v>
       </c>
       <c r="I7">
-        <v>0.02014941163038753</v>
+        <v>0.01376314238710563</v>
       </c>
       <c r="J7">
-        <v>0.651212780345503</v>
+        <v>0.5574678575053014</v>
       </c>
       <c r="K7">
-        <v>0.8101990917715156</v>
+        <v>0.657522639271555</v>
       </c>
       <c r="L7">
-        <v>0.05713104323341334</v>
+        <v>0.287797965633132</v>
       </c>
       <c r="M7">
-        <v>2.82608747128242</v>
+        <v>0.209940337970572</v>
       </c>
       <c r="N7">
-        <v>0.04758871682910026</v>
+        <v>0.05139598781263111</v>
       </c>
       <c r="O7">
-        <v>0.5776849047780104</v>
+        <v>2.836971550324193</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.06479871107675095</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5730753351252886</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0813103553424952</v>
+        <v>0.04495914656690303</v>
       </c>
       <c r="D8">
-        <v>0.04782515538470733</v>
+        <v>0.05842641319605235</v>
       </c>
       <c r="E8">
-        <v>0.04316603749549408</v>
+        <v>0.04203249243689378</v>
       </c>
       <c r="F8">
-        <v>1.170559391978557</v>
+        <v>0.9848634477962079</v>
       </c>
       <c r="G8">
-        <v>0.9103183257664824</v>
+        <v>0.740134520826544</v>
       </c>
       <c r="H8">
-        <v>0.01695965870739713</v>
+        <v>0.01372509836703822</v>
       </c>
       <c r="I8">
-        <v>0.01403916964435226</v>
+        <v>0.00957511241176956</v>
       </c>
       <c r="J8">
-        <v>0.6614617178974953</v>
+        <v>0.5518809338931021</v>
       </c>
       <c r="K8">
-        <v>0.8484076912790641</v>
+        <v>0.6726439924326115</v>
       </c>
       <c r="L8">
-        <v>0.0618215011760519</v>
+        <v>0.2866802250540985</v>
       </c>
       <c r="M8">
-        <v>3.411637838316892</v>
+        <v>0.2199461539958563</v>
       </c>
       <c r="N8">
-        <v>0.05014868929124106</v>
+        <v>0.05478911412669873</v>
       </c>
       <c r="O8">
-        <v>0.6939692615870001</v>
+        <v>3.424364570090233</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.06772274775971709</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6889081001023385</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1083402538662028</v>
+        <v>0.06039384421074345</v>
       </c>
       <c r="D9">
-        <v>0.06199597493198183</v>
+        <v>0.07624573566348403</v>
       </c>
       <c r="E9">
-        <v>0.05205895131507177</v>
+        <v>0.04991894568086863</v>
       </c>
       <c r="F9">
-        <v>1.284318994768398</v>
+        <v>1.048516069317699</v>
       </c>
       <c r="G9">
-        <v>1.000213959131941</v>
+        <v>0.7779858495429153</v>
       </c>
       <c r="H9">
-        <v>0.008154133810708397</v>
+        <v>0.006637141499637289</v>
       </c>
       <c r="I9">
-        <v>0.005656038292523036</v>
+        <v>0.00384660546741955</v>
       </c>
       <c r="J9">
-        <v>0.6891685929641653</v>
+        <v>0.5650172845654851</v>
       </c>
       <c r="K9">
-        <v>0.9330617198988094</v>
+        <v>0.7139118707420522</v>
       </c>
       <c r="L9">
-        <v>0.0710535757795796</v>
+        <v>0.2873455549562607</v>
       </c>
       <c r="M9">
-        <v>4.561493950024555</v>
+        <v>0.2497029320899884</v>
       </c>
       <c r="N9">
-        <v>0.05503541875506457</v>
+        <v>0.06148969053679032</v>
       </c>
       <c r="O9">
-        <v>0.9225771266146339</v>
+        <v>4.576261189968989</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.07360007502373733</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9156068622749558</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1263729292885785</v>
+        <v>0.07219225739695645</v>
       </c>
       <c r="D10">
-        <v>0.07219091896688212</v>
+        <v>0.09027938129522539</v>
       </c>
       <c r="E10">
-        <v>0.05688197180244003</v>
+        <v>0.05428851980662053</v>
       </c>
       <c r="F10">
-        <v>1.348221880074519</v>
+        <v>1.068577215788494</v>
       </c>
       <c r="G10">
-        <v>1.049047867291421</v>
+        <v>0.8084420995346875</v>
       </c>
       <c r="H10">
-        <v>0.004248244249004163</v>
+        <v>0.003553084188656186</v>
       </c>
       <c r="I10">
-        <v>0.002512668430192377</v>
+        <v>0.001952878315824691</v>
       </c>
       <c r="J10">
-        <v>0.7011575250303395</v>
+        <v>0.5367512959246312</v>
       </c>
       <c r="K10">
-        <v>0.9792709787296019</v>
+        <v>0.7245525139340501</v>
       </c>
       <c r="L10">
-        <v>0.07536250675677536</v>
+        <v>0.2796061930126896</v>
       </c>
       <c r="M10">
-        <v>5.414611203187349</v>
+        <v>0.2676675337673586</v>
       </c>
       <c r="N10">
-        <v>0.05662884419368552</v>
+        <v>0.06441760531461149</v>
       </c>
       <c r="O10">
-        <v>1.084876520515962</v>
+        <v>5.428006946993605</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.07521919619518158</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.077127263523607</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1222807512859418</v>
+        <v>0.07448134813814988</v>
       </c>
       <c r="D11">
-        <v>0.07247336520317305</v>
+        <v>0.09247327939220895</v>
       </c>
       <c r="E11">
-        <v>0.04593968447763253</v>
+        <v>0.04422729901497036</v>
       </c>
       <c r="F11">
-        <v>1.184326196596587</v>
+        <v>0.915788000934036</v>
       </c>
       <c r="G11">
-        <v>0.9011514210280609</v>
+        <v>0.719912303634672</v>
       </c>
       <c r="H11">
-        <v>0.02244476088594283</v>
+        <v>0.02189421462547969</v>
       </c>
       <c r="I11">
-        <v>0.002456971030079913</v>
+        <v>0.002256072952458332</v>
       </c>
       <c r="J11">
-        <v>0.6203595872952974</v>
+        <v>0.4254962870142052</v>
       </c>
       <c r="K11">
-        <v>0.8588125145613361</v>
+        <v>0.6201733866588128</v>
       </c>
       <c r="L11">
-        <v>0.06264430137566368</v>
+        <v>0.23810247258033</v>
       </c>
       <c r="M11">
-        <v>5.848742686128617</v>
+        <v>0.2323476201522467</v>
       </c>
       <c r="N11">
-        <v>0.04321551546060398</v>
+        <v>0.05621555467500006</v>
       </c>
       <c r="O11">
-        <v>1.104173177643361</v>
+        <v>5.859135867249961</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.05576888607003205</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.09867102301466</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1164914670169992</v>
+        <v>0.07408206172105025</v>
       </c>
       <c r="D12">
-        <v>0.07011016841005357</v>
+        <v>0.08999911933419469</v>
       </c>
       <c r="E12">
-        <v>0.03801853271203282</v>
+        <v>0.03684163237940563</v>
       </c>
       <c r="F12">
-        <v>1.046969099001458</v>
+        <v>0.8028446464957923</v>
       </c>
       <c r="G12">
-        <v>0.7806176314814763</v>
+        <v>0.6387068663305229</v>
       </c>
       <c r="H12">
-        <v>0.06121077967438993</v>
+        <v>0.0606675043035878</v>
       </c>
       <c r="I12">
-        <v>0.002361588278427362</v>
+        <v>0.002199197428999433</v>
       </c>
       <c r="J12">
-        <v>0.556698781648862</v>
+        <v>0.3681571687273788</v>
       </c>
       <c r="K12">
-        <v>0.7594952581030441</v>
+        <v>0.5449562159697621</v>
       </c>
       <c r="L12">
-        <v>0.05810397917628607</v>
+        <v>0.2107377065692191</v>
       </c>
       <c r="M12">
-        <v>6.03632834591707</v>
+        <v>0.2038921136811354</v>
       </c>
       <c r="N12">
-        <v>0.03783202402157282</v>
+        <v>0.05541513504598949</v>
       </c>
       <c r="O12">
-        <v>1.085494665904477</v>
+        <v>6.045248074383153</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.04589192470948866</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.081526629646248</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1077620239686041</v>
+        <v>0.0702109553965613</v>
       </c>
       <c r="D13">
-        <v>0.06593772354550254</v>
+        <v>0.0836503088967504</v>
       </c>
       <c r="E13">
-        <v>0.03189377094815349</v>
+        <v>0.03107568064781407</v>
       </c>
       <c r="F13">
-        <v>0.9154803123923685</v>
+        <v>0.7100390892202739</v>
       </c>
       <c r="G13">
-        <v>0.6675108067913271</v>
+        <v>0.5496207517911245</v>
       </c>
       <c r="H13">
-        <v>0.117466589659017</v>
+        <v>0.1168121702933433</v>
       </c>
       <c r="I13">
-        <v>0.002577726156701488</v>
+        <v>0.002292295811273881</v>
       </c>
       <c r="J13">
-        <v>0.4990743853511646</v>
+        <v>0.3434024427614801</v>
       </c>
       <c r="K13">
-        <v>0.6647221320632752</v>
+        <v>0.4839998475054728</v>
       </c>
       <c r="L13">
-        <v>0.05920793416386871</v>
+        <v>0.1903540500555287</v>
       </c>
       <c r="M13">
-        <v>6.043068822824978</v>
+        <v>0.178360027551463</v>
       </c>
       <c r="N13">
-        <v>0.03843555904998652</v>
+        <v>0.05975746354309308</v>
       </c>
       <c r="O13">
-        <v>1.036401352583198</v>
+        <v>6.052217158949134</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04301976293485055</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.033142490017603</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1001929903993712</v>
+        <v>0.06586945131741118</v>
       </c>
       <c r="D14">
-        <v>0.06228177611231445</v>
+        <v>0.07765437310946766</v>
       </c>
       <c r="E14">
-        <v>0.02874414282887816</v>
+        <v>0.02814965590114138</v>
       </c>
       <c r="F14">
-        <v>0.8269690450435121</v>
+        <v>0.6531481274250481</v>
       </c>
       <c r="G14">
-        <v>0.5925059883420971</v>
+        <v>0.4861078811801889</v>
       </c>
       <c r="H14">
-        <v>0.1673687842807254</v>
+        <v>0.16657393293643</v>
       </c>
       <c r="I14">
-        <v>0.003004151527446375</v>
+        <v>0.002556792646597472</v>
       </c>
       <c r="J14">
-        <v>0.4617934548621037</v>
+        <v>0.3367344915891195</v>
       </c>
       <c r="K14">
-        <v>0.6009300002375397</v>
+        <v>0.4468836300241534</v>
       </c>
       <c r="L14">
-        <v>0.06339457053522324</v>
+        <v>0.1786168587892618</v>
       </c>
       <c r="M14">
-        <v>5.96583086674741</v>
+        <v>0.1617782565713561</v>
       </c>
       <c r="N14">
-        <v>0.04233749488007099</v>
+        <v>0.06581059195388761</v>
       </c>
       <c r="O14">
-        <v>0.9884739625717742</v>
+        <v>5.97583661483867</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04504973148554114</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9853541197117508</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09744935130873955</v>
+        <v>0.06394480255669066</v>
       </c>
       <c r="D15">
-        <v>0.06110651672681655</v>
+        <v>0.07556009852547874</v>
       </c>
       <c r="E15">
-        <v>0.02806770520131519</v>
+        <v>0.0275358431079038</v>
       </c>
       <c r="F15">
-        <v>0.8046447544922657</v>
+        <v>0.6409778510464221</v>
       </c>
       <c r="G15">
-        <v>0.5738000870151723</v>
+        <v>0.4687262120878373</v>
       </c>
       <c r="H15">
-        <v>0.1801615291514764</v>
+        <v>0.1792964891763376</v>
       </c>
       <c r="I15">
-        <v>0.003334206837053877</v>
+        <v>0.002821078650321773</v>
       </c>
       <c r="J15">
-        <v>0.4529979647192732</v>
+        <v>0.3389675199697066</v>
       </c>
       <c r="K15">
-        <v>0.5846525153743372</v>
+        <v>0.438898131737524</v>
       </c>
       <c r="L15">
-        <v>0.06473944119442265</v>
+        <v>0.1763652501044852</v>
       </c>
       <c r="M15">
-        <v>5.908161608385967</v>
+        <v>0.1577661496997393</v>
       </c>
       <c r="N15">
-        <v>0.04363496306609527</v>
+        <v>0.06752507236058847</v>
       </c>
       <c r="O15">
-        <v>0.9704748435283079</v>
+        <v>5.918682760633942</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04605003006062525</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9672491875570586</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09123730415119269</v>
+        <v>0.05777247930565466</v>
       </c>
       <c r="D16">
-        <v>0.05778225454249508</v>
+        <v>0.06924311508763736</v>
       </c>
       <c r="E16">
-        <v>0.02739583293813519</v>
+        <v>0.02693636686684009</v>
       </c>
       <c r="F16">
-        <v>0.8029335369003405</v>
+        <v>0.6604463636774511</v>
       </c>
       <c r="G16">
-        <v>0.5744095299006347</v>
+        <v>0.457069764342549</v>
       </c>
       <c r="H16">
-        <v>0.1690186486440695</v>
+        <v>0.1677868709454913</v>
       </c>
       <c r="I16">
-        <v>0.004603598188561264</v>
+        <v>0.003635291542603447</v>
       </c>
       <c r="J16">
-        <v>0.4585414899336371</v>
+        <v>0.3778773094798424</v>
       </c>
       <c r="K16">
-        <v>0.5831466375315486</v>
+        <v>0.4525104780415035</v>
       </c>
       <c r="L16">
-        <v>0.06257886958074721</v>
+        <v>0.1836220506011124</v>
       </c>
       <c r="M16">
-        <v>5.536548864657391</v>
+        <v>0.1593352050873165</v>
       </c>
       <c r="N16">
-        <v>0.04267556269354245</v>
+        <v>0.0649340388455073</v>
       </c>
       <c r="O16">
-        <v>0.9117261803192491</v>
+        <v>5.549595691102923</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04609788987895236</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9073765155433406</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09039549338164932</v>
+        <v>0.05556158046832138</v>
       </c>
       <c r="D17">
-        <v>0.05717927757965668</v>
+        <v>0.06785094842638273</v>
       </c>
       <c r="E17">
-        <v>0.0283167073336128</v>
+        <v>0.02774577094728725</v>
       </c>
       <c r="F17">
-        <v>0.8475649129171714</v>
+        <v>0.704319662172594</v>
       </c>
       <c r="G17">
-        <v>0.6137126894134184</v>
+        <v>0.4823509755553275</v>
       </c>
       <c r="H17">
-        <v>0.132220976134505</v>
+        <v>0.1307758773181575</v>
       </c>
       <c r="I17">
-        <v>0.005433863008557083</v>
+        <v>0.004191969719340882</v>
       </c>
       <c r="J17">
-        <v>0.4821832497539589</v>
+        <v>0.4115243142631044</v>
       </c>
       <c r="K17">
-        <v>0.6149788093874378</v>
+        <v>0.4818001573011088</v>
       </c>
       <c r="L17">
-        <v>0.05809041465196962</v>
+        <v>0.1956250660918606</v>
       </c>
       <c r="M17">
-        <v>5.293528568665522</v>
+        <v>0.1685953607036943</v>
       </c>
       <c r="N17">
-        <v>0.0393713421398818</v>
+        <v>0.0593103847903258</v>
       </c>
       <c r="O17">
-        <v>0.8920261763768451</v>
+        <v>5.307676935208576</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04448665675403163</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8869632609646274</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09477515302702955</v>
+        <v>0.05649052153403034</v>
       </c>
       <c r="D18">
-        <v>0.05864200624726124</v>
+        <v>0.06981723018360952</v>
       </c>
       <c r="E18">
-        <v>0.03185510176580753</v>
+        <v>0.03093518690781938</v>
       </c>
       <c r="F18">
-        <v>0.9441983575812216</v>
+        <v>0.7830821172045077</v>
       </c>
       <c r="G18">
-        <v>0.6977189767242464</v>
+        <v>0.5427751877459315</v>
       </c>
       <c r="H18">
-        <v>0.07967946662397907</v>
+        <v>0.0781820539110285</v>
       </c>
       <c r="I18">
-        <v>0.005462938964011066</v>
+        <v>0.004089176886172829</v>
       </c>
       <c r="J18">
-        <v>0.527464755366907</v>
+        <v>0.452551173918593</v>
       </c>
       <c r="K18">
-        <v>0.6849108327203268</v>
+        <v>0.5344927644273767</v>
       </c>
       <c r="L18">
-        <v>0.05436673662844083</v>
+        <v>0.2156577721254394</v>
       </c>
       <c r="M18">
-        <v>5.133099759088168</v>
+        <v>0.1877364343858687</v>
       </c>
       <c r="N18">
-        <v>0.0368546946617121</v>
+        <v>0.05345639961145565</v>
       </c>
       <c r="O18">
-        <v>0.9034910502529314</v>
+        <v>5.147840669020241</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.04470295722973761</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8976646532816446</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1018648903034034</v>
+        <v>0.05880063984815109</v>
       </c>
       <c r="D19">
-        <v>0.06205929125521692</v>
+        <v>0.07458875573182411</v>
       </c>
       <c r="E19">
-        <v>0.03889517343620774</v>
+        <v>0.037410298065506</v>
       </c>
       <c r="F19">
-        <v>1.076992722999435</v>
+        <v>0.8859395990576147</v>
       </c>
       <c r="G19">
-        <v>0.8130704168807199</v>
+        <v>0.6263079172523476</v>
       </c>
       <c r="H19">
-        <v>0.03389575639707942</v>
+        <v>0.03250631313636632</v>
       </c>
       <c r="I19">
-        <v>0.00536564846645593</v>
+        <v>0.004107384336295539</v>
       </c>
       <c r="J19">
-        <v>0.587310989141173</v>
+        <v>0.499039476382535</v>
       </c>
       <c r="K19">
-        <v>0.7805157023208693</v>
+        <v>0.6025588231202903</v>
       </c>
       <c r="L19">
-        <v>0.05642241359533395</v>
+        <v>0.2408047461162148</v>
       </c>
       <c r="M19">
-        <v>5.051069825650643</v>
+        <v>0.2135504043003955</v>
       </c>
       <c r="N19">
-        <v>0.03968376120324901</v>
+        <v>0.05235645491973129</v>
       </c>
       <c r="O19">
-        <v>0.9388666373873846</v>
+        <v>5.066130947109286</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.05143212833094069</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9321722225227234</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.118938331023088</v>
+        <v>0.06662978104184702</v>
       </c>
       <c r="D20">
-        <v>0.07018694752942878</v>
+        <v>0.08644897499854665</v>
       </c>
       <c r="E20">
-        <v>0.05537280333081718</v>
+        <v>0.05279972337124406</v>
       </c>
       <c r="F20">
-        <v>1.317168739139021</v>
+        <v>1.058977223920991</v>
       </c>
       <c r="G20">
-        <v>1.022246352493212</v>
+        <v>0.7807553646239</v>
       </c>
       <c r="H20">
-        <v>0.005153697608268892</v>
+        <v>0.004249024168178739</v>
       </c>
       <c r="I20">
-        <v>0.004012521511205236</v>
+        <v>0.003307455150552308</v>
       </c>
       <c r="J20">
-        <v>0.6908903441085812</v>
+        <v>0.5575184676454086</v>
       </c>
       <c r="K20">
-        <v>0.9544256964294533</v>
+        <v>0.7169569343594233</v>
       </c>
       <c r="L20">
-        <v>0.07359388976475856</v>
+        <v>0.2799083339052544</v>
       </c>
       <c r="M20">
-        <v>5.19061776274765</v>
+        <v>0.2608932720352541</v>
       </c>
       <c r="N20">
-        <v>0.05657589835645638</v>
+        <v>0.06328294014684666</v>
       </c>
       <c r="O20">
-        <v>1.04142907842725</v>
+        <v>5.205204462509244</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.07528942870330724</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.033437284824437</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.135292757238858</v>
+        <v>0.08051301325641447</v>
       </c>
       <c r="D21">
-        <v>0.07878583262567673</v>
+        <v>0.1028975700813959</v>
       </c>
       <c r="E21">
-        <v>0.06175107130487412</v>
+        <v>0.05936532775107572</v>
       </c>
       <c r="F21">
-        <v>1.405426307181656</v>
+        <v>1.066956937933838</v>
       </c>
       <c r="G21">
-        <v>1.094837047327019</v>
+        <v>0.878185030972702</v>
       </c>
       <c r="H21">
-        <v>0.002408009935491062</v>
+        <v>0.002068909104870453</v>
       </c>
       <c r="I21">
-        <v>0.002297956466292383</v>
+        <v>0.002326236838156248</v>
       </c>
       <c r="J21">
-        <v>0.7179895926674646</v>
+        <v>0.4582877132924779</v>
       </c>
       <c r="K21">
-        <v>1.018444579426344</v>
+        <v>0.71957302827132</v>
       </c>
       <c r="L21">
-        <v>0.08046313836604213</v>
+        <v>0.2720976196292142</v>
       </c>
       <c r="M21">
-        <v>5.839085230424757</v>
+        <v>0.2732412206988357</v>
       </c>
       <c r="N21">
-        <v>0.06116138066568055</v>
+        <v>0.06757293483031113</v>
       </c>
       <c r="O21">
-        <v>1.175970141886324</v>
+        <v>5.848234346520258</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.08062705001612258</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.169821098213617</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1464747767744967</v>
+        <v>0.0906886678644554</v>
       </c>
       <c r="D22">
-        <v>0.08388752314377257</v>
+        <v>0.1135765983567438</v>
       </c>
       <c r="E22">
-        <v>0.06514522267354472</v>
+        <v>0.06301576567607547</v>
       </c>
       <c r="F22">
-        <v>1.458325229749505</v>
+        <v>1.065613767845505</v>
       </c>
       <c r="G22">
-        <v>1.138731393606164</v>
+        <v>0.9469489761528109</v>
       </c>
       <c r="H22">
-        <v>0.001260870485508825</v>
+        <v>0.001148650963941344</v>
       </c>
       <c r="I22">
-        <v>0.001504171292866729</v>
+        <v>0.001732237486867128</v>
       </c>
       <c r="J22">
-        <v>0.7339422173856178</v>
+        <v>0.3966222169372884</v>
       </c>
       <c r="K22">
-        <v>1.057564065519529</v>
+        <v>0.7174964369399532</v>
       </c>
       <c r="L22">
-        <v>0.08404187144045139</v>
+        <v>0.2657406709291052</v>
       </c>
       <c r="M22">
-        <v>6.266803716303514</v>
+        <v>0.2802118420120578</v>
       </c>
       <c r="N22">
-        <v>0.06284936836798494</v>
+        <v>0.06967969076356262</v>
       </c>
       <c r="O22">
-        <v>1.261250899107864</v>
+        <v>6.271507517455234</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.08239936197924536</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.256546662673713</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1415170161429415</v>
+        <v>0.08538739311440224</v>
       </c>
       <c r="D23">
-        <v>0.08088809712833722</v>
+        <v>0.1069138876750202</v>
       </c>
       <c r="E23">
-        <v>0.06339734520690321</v>
+        <v>0.06101669796759523</v>
       </c>
       <c r="F23">
-        <v>1.434917783012594</v>
+        <v>1.075208215213266</v>
       </c>
       <c r="G23">
-        <v>1.120065146863752</v>
+        <v>0.9068149282157805</v>
       </c>
       <c r="H23">
-        <v>0.001816427852401548</v>
+        <v>0.001591843611768784</v>
       </c>
       <c r="I23">
-        <v>0.001549152298781387</v>
+        <v>0.001628556347956334</v>
       </c>
       <c r="J23">
-        <v>0.7278346562252409</v>
+        <v>0.4405117563800474</v>
       </c>
       <c r="K23">
-        <v>1.04114915840151</v>
+        <v>0.7254092837219375</v>
       </c>
       <c r="L23">
-        <v>0.08234650723249359</v>
+        <v>0.2714567563940307</v>
       </c>
       <c r="M23">
-        <v>6.038359692795666</v>
+        <v>0.2792331466363862</v>
       </c>
       <c r="N23">
-        <v>0.0617572778659472</v>
+        <v>0.06877584423726546</v>
       </c>
       <c r="O23">
-        <v>1.215913123355548</v>
+        <v>6.045993982628772</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.08128425345636714</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.210026072438467</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1212121948178009</v>
+        <v>0.06782746648078586</v>
       </c>
       <c r="D24">
-        <v>0.07006366993877577</v>
+        <v>0.08642380278576667</v>
       </c>
       <c r="E24">
-        <v>0.05671062623659751</v>
+        <v>0.05404537362289652</v>
       </c>
       <c r="F24">
-        <v>1.341001924348291</v>
+        <v>1.077942573670313</v>
       </c>
       <c r="G24">
-        <v>1.044168587448326</v>
+        <v>0.7968841294910476</v>
       </c>
       <c r="H24">
-        <v>0.004926580238550415</v>
+        <v>0.004037811953423676</v>
       </c>
       <c r="I24">
-        <v>0.003464069118241042</v>
+        <v>0.002673166029055984</v>
       </c>
       <c r="J24">
-        <v>0.7021638951227231</v>
+        <v>0.5669254523750169</v>
       </c>
       <c r="K24">
-        <v>0.973148930121738</v>
+        <v>0.7308811674846041</v>
       </c>
       <c r="L24">
-        <v>0.07557806165115011</v>
+        <v>0.2850839800092899</v>
       </c>
       <c r="M24">
-        <v>5.175997246465045</v>
+        <v>0.2661414491224718</v>
       </c>
       <c r="N24">
-        <v>0.05797733588727638</v>
+        <v>0.06472128985075543</v>
       </c>
       <c r="O24">
-        <v>1.044435984152834</v>
+        <v>5.190627818731855</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.07719965779545035</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.03630865725443</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0995270462344422</v>
+        <v>0.05491752175505837</v>
       </c>
       <c r="D25">
-        <v>0.05853853966709721</v>
+        <v>0.07147927479678629</v>
       </c>
       <c r="E25">
-        <v>0.04955449863422956</v>
+        <v>0.04765350492192333</v>
       </c>
       <c r="F25">
-        <v>1.245172803936299</v>
+        <v>1.027458576154956</v>
       </c>
       <c r="G25">
-        <v>0.9676551834825631</v>
+        <v>0.7577023785702295</v>
       </c>
       <c r="H25">
-        <v>0.01020172685206313</v>
+        <v>0.008275084146523864</v>
       </c>
       <c r="I25">
-        <v>0.007961932800132132</v>
+        <v>0.005612031905624093</v>
       </c>
       <c r="J25">
-        <v>0.6774168283782132</v>
+        <v>0.566164790669518</v>
       </c>
       <c r="K25">
-        <v>0.9028776342422162</v>
+        <v>0.699196535776835</v>
       </c>
       <c r="L25">
-        <v>0.0682554278544103</v>
+        <v>0.2860197537150597</v>
       </c>
       <c r="M25">
-        <v>4.250123930443181</v>
+        <v>0.2396703058444665</v>
       </c>
       <c r="N25">
-        <v>0.0539770604965355</v>
+        <v>0.05950545765840864</v>
       </c>
       <c r="O25">
-        <v>0.8603599423526447</v>
+        <v>4.264863564384825</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.07232808908022292</v>
       </c>
       <c r="Q25">
+        <v>0.8537811867338476</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
